--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Struct\Class\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\python_project\xls2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14445" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Property" sheetId="1" r:id="rId1"/>
+    <sheet name="Record_BagItemList" sheetId="3" r:id="rId2"/>
+    <sheet name="Record_PetList" sheetId="5" r:id="rId3"/>
+    <sheet name="Component" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
   <si>
     <t>列3</t>
   </si>
@@ -284,252 +286,6 @@
     <t>列18</t>
   </si>
   <si>
-    <t>列19</t>
-  </si>
-  <si>
-    <t>列20</t>
-  </si>
-  <si>
-    <t>列21</t>
-  </si>
-  <si>
-    <t>列22</t>
-  </si>
-  <si>
-    <t>列23</t>
-  </si>
-  <si>
-    <t>列24</t>
-  </si>
-  <si>
-    <t>列25</t>
-  </si>
-  <si>
-    <t>列26</t>
-  </si>
-  <si>
-    <t>列27</t>
-  </si>
-  <si>
-    <t>列28</t>
-  </si>
-  <si>
-    <t>列29</t>
-  </si>
-  <si>
-    <t>列30</t>
-  </si>
-  <si>
-    <t>列31</t>
-  </si>
-  <si>
-    <t>列32</t>
-  </si>
-  <si>
-    <t>列33</t>
-  </si>
-  <si>
-    <t>列34</t>
-  </si>
-  <si>
-    <t>列35</t>
-  </si>
-  <si>
-    <t>列36</t>
-  </si>
-  <si>
-    <t>列37</t>
-  </si>
-  <si>
-    <t>列38</t>
-  </si>
-  <si>
-    <t>列39</t>
-  </si>
-  <si>
-    <t>列40</t>
-  </si>
-  <si>
-    <t>列41</t>
-  </si>
-  <si>
-    <t>列42</t>
-  </si>
-  <si>
-    <t>列43</t>
-  </si>
-  <si>
-    <t>列44</t>
-  </si>
-  <si>
-    <t>列45</t>
-  </si>
-  <si>
-    <t>列46</t>
-  </si>
-  <si>
-    <t>列47</t>
-  </si>
-  <si>
-    <t>列48</t>
-  </si>
-  <si>
-    <t>列49</t>
-  </si>
-  <si>
-    <t>列50</t>
-  </si>
-  <si>
-    <t>列51</t>
-  </si>
-  <si>
-    <t>列52</t>
-  </si>
-  <si>
-    <t>列53</t>
-  </si>
-  <si>
-    <t>列54</t>
-  </si>
-  <si>
-    <t>列55</t>
-  </si>
-  <si>
-    <t>列56</t>
-  </si>
-  <si>
-    <t>列57</t>
-  </si>
-  <si>
-    <t>列58</t>
-  </si>
-  <si>
-    <t>列59</t>
-  </si>
-  <si>
-    <t>列60</t>
-  </si>
-  <si>
-    <t>列61</t>
-  </si>
-  <si>
-    <t>列62</t>
-  </si>
-  <si>
-    <t>列63</t>
-  </si>
-  <si>
-    <t>列64</t>
-  </si>
-  <si>
-    <t>列65</t>
-  </si>
-  <si>
-    <t>列66</t>
-  </si>
-  <si>
-    <t>列67</t>
-  </si>
-  <si>
-    <t>列68</t>
-  </si>
-  <si>
-    <t>列69</t>
-  </si>
-  <si>
-    <t>列70</t>
-  </si>
-  <si>
-    <t>列71</t>
-  </si>
-  <si>
-    <t>列72</t>
-  </si>
-  <si>
-    <t>列73</t>
-  </si>
-  <si>
-    <t>列74</t>
-  </si>
-  <si>
-    <t>列75</t>
-  </si>
-  <si>
-    <t>列76</t>
-  </si>
-  <si>
-    <t>列77</t>
-  </si>
-  <si>
-    <t>列78</t>
-  </si>
-  <si>
-    <t>列79</t>
-  </si>
-  <si>
-    <t>列80</t>
-  </si>
-  <si>
-    <t>列81</t>
-  </si>
-  <si>
-    <t>列82</t>
-  </si>
-  <si>
-    <t>列83</t>
-  </si>
-  <si>
-    <t>列84</t>
-  </si>
-  <si>
-    <t>列85</t>
-  </si>
-  <si>
-    <t>列86</t>
-  </si>
-  <si>
-    <t>列87</t>
-  </si>
-  <si>
-    <t>列88</t>
-  </si>
-  <si>
-    <t>列89</t>
-  </si>
-  <si>
-    <t>列90</t>
-  </si>
-  <si>
-    <t>列91</t>
-  </si>
-  <si>
-    <t>列92</t>
-  </si>
-  <si>
-    <t>列93</t>
-  </si>
-  <si>
-    <t>列94</t>
-  </si>
-  <si>
-    <t>列95</t>
-  </si>
-  <si>
-    <t>列96</t>
-  </si>
-  <si>
-    <t>列97</t>
-  </si>
-  <si>
-    <t>列98</t>
-  </si>
-  <si>
-    <t>列99</t>
-  </si>
-  <si>
-    <t>列100</t>
-  </si>
-  <si>
     <t>BagItemList</t>
   </si>
   <si>
@@ -549,6 +305,10 @@
   </si>
   <si>
     <t>GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,34 +520,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I24" tableType="xml" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I24" tableType="xml" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" connectionId="1">
   <autoFilter ref="A1:I24"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="Id" name="Id" dataDxfId="10">
+    <tableColumn id="1" uniqueName="Id" name="Id" dataDxfId="8">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@Id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Type" name="Type" dataDxfId="9">
+    <tableColumn id="2" uniqueName="Type" name="Type" dataDxfId="7">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Public" name="Public" dataDxfId="8">
+    <tableColumn id="3" uniqueName="Public" name="Public" dataDxfId="6">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@Public" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Private" name="Private" dataDxfId="7">
+    <tableColumn id="4" uniqueName="Private" name="Private" dataDxfId="5">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@Private" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Save" name="Save" dataDxfId="6">
+    <tableColumn id="5" uniqueName="Save" name="Save" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@Save" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Index" name="Index" dataDxfId="5">
+    <tableColumn id="6" uniqueName="Index" name="Index" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@Index" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="SaveInterval" name="SaveInterval" dataDxfId="4">
+    <tableColumn id="7" uniqueName="SaveInterval" name="SaveInterval" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@SaveInterval" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="RelationValue" name="RelationValue" dataDxfId="3">
+    <tableColumn id="8" uniqueName="RelationValue" name="RelationValue" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@RelationValue" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Desc" name="Desc" dataDxfId="2">
+    <tableColumn id="9" uniqueName="Desc" name="Desc" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/XML/Propertys/Property/@Desc" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -796,9 +556,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:DF33" totalsRowShown="0">
-  <autoFilter ref="A1:DF33"/>
-  <tableColumns count="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:AB3" totalsRowShown="0">
+  <autoFilter ref="A1:AB3"/>
+  <tableColumns count="28">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Row"/>
     <tableColumn id="3" name="Col"/>
@@ -827,88 +587,43 @@
     <tableColumn id="38" name="列16"/>
     <tableColumn id="39" name="列17"/>
     <tableColumn id="40" name="列18"/>
-    <tableColumn id="41" name="列19"/>
-    <tableColumn id="42" name="列20"/>
-    <tableColumn id="43" name="列21"/>
-    <tableColumn id="44" name="列22"/>
-    <tableColumn id="45" name="列23"/>
-    <tableColumn id="46" name="列24"/>
-    <tableColumn id="47" name="列25"/>
-    <tableColumn id="48" name="列26"/>
-    <tableColumn id="49" name="列27"/>
-    <tableColumn id="50" name="列28"/>
-    <tableColumn id="51" name="列29"/>
-    <tableColumn id="52" name="列30"/>
-    <tableColumn id="53" name="列31"/>
-    <tableColumn id="54" name="列32"/>
-    <tableColumn id="55" name="列33"/>
-    <tableColumn id="56" name="列34"/>
-    <tableColumn id="57" name="列35"/>
-    <tableColumn id="58" name="列36"/>
-    <tableColumn id="59" name="列37"/>
-    <tableColumn id="60" name="列38"/>
-    <tableColumn id="61" name="列39"/>
-    <tableColumn id="62" name="列40"/>
-    <tableColumn id="63" name="列41"/>
-    <tableColumn id="64" name="列42"/>
-    <tableColumn id="65" name="列43"/>
-    <tableColumn id="66" name="列44"/>
-    <tableColumn id="67" name="列45"/>
-    <tableColumn id="68" name="列46"/>
-    <tableColumn id="69" name="列47"/>
-    <tableColumn id="70" name="列48"/>
-    <tableColumn id="71" name="列49"/>
-    <tableColumn id="72" name="列50"/>
-    <tableColumn id="73" name="列51"/>
-    <tableColumn id="74" name="列52"/>
-    <tableColumn id="75" name="列53"/>
-    <tableColumn id="76" name="列54"/>
-    <tableColumn id="77" name="列55"/>
-    <tableColumn id="78" name="列56"/>
-    <tableColumn id="79" name="列57"/>
-    <tableColumn id="80" name="列58"/>
-    <tableColumn id="81" name="列59"/>
-    <tableColumn id="82" name="列60"/>
-    <tableColumn id="83" name="列61"/>
-    <tableColumn id="84" name="列62"/>
-    <tableColumn id="85" name="列63"/>
-    <tableColumn id="86" name="列64"/>
-    <tableColumn id="87" name="列65"/>
-    <tableColumn id="88" name="列66"/>
-    <tableColumn id="89" name="列67"/>
-    <tableColumn id="90" name="列68"/>
-    <tableColumn id="91" name="列69"/>
-    <tableColumn id="92" name="列70"/>
-    <tableColumn id="93" name="列71"/>
-    <tableColumn id="94" name="列72"/>
-    <tableColumn id="95" name="列73"/>
-    <tableColumn id="96" name="列74"/>
-    <tableColumn id="97" name="列75"/>
-    <tableColumn id="98" name="列76"/>
-    <tableColumn id="99" name="列77"/>
-    <tableColumn id="100" name="列78"/>
-    <tableColumn id="101" name="列79"/>
-    <tableColumn id="102" name="列80"/>
-    <tableColumn id="103" name="列81"/>
-    <tableColumn id="104" name="列82"/>
-    <tableColumn id="105" name="列83"/>
-    <tableColumn id="106" name="列84"/>
-    <tableColumn id="107" name="列85"/>
-    <tableColumn id="108" name="列86"/>
-    <tableColumn id="109" name="列87"/>
-    <tableColumn id="110" name="列88"/>
-    <tableColumn id="111" name="列89"/>
-    <tableColumn id="112" name="列90"/>
-    <tableColumn id="113" name="列91"/>
-    <tableColumn id="114" name="列92"/>
-    <tableColumn id="115" name="列93"/>
-    <tableColumn id="116" name="列94"/>
-    <tableColumn id="117" name="列95"/>
-    <tableColumn id="118" name="列96"/>
-    <tableColumn id="119" name="列97"/>
-    <tableColumn id="120" name="列98"/>
-    <tableColumn id="121" name="列99"/>
-    <tableColumn id="122" name="列100"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_43" displayName="表1_43" ref="A1:AB3" totalsRowShown="0">
+  <autoFilter ref="A1:AB3"/>
+  <tableColumns count="28">
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Row"/>
+    <tableColumn id="3" name="Col"/>
+    <tableColumn id="4" name="Public"/>
+    <tableColumn id="5" name="Private"/>
+    <tableColumn id="6" name="Save"/>
+    <tableColumn id="7" name="Index"/>
+    <tableColumn id="8" name="SaveInterval"/>
+    <tableColumn id="9" name="RelationValue"/>
+    <tableColumn id="10" name="Desc"/>
+    <tableColumn id="13" name="ItemID"/>
+    <tableColumn id="14" name="GUID"/>
+    <tableColumn id="15" name="列3"/>
+    <tableColumn id="16" name="列4"/>
+    <tableColumn id="17" name="列5"/>
+    <tableColumn id="18" name="列6"/>
+    <tableColumn id="19" name="列7"/>
+    <tableColumn id="20" name="列8"/>
+    <tableColumn id="21" name="列9"/>
+    <tableColumn id="22" name="列10"/>
+    <tableColumn id="23" name="列11"/>
+    <tableColumn id="24" name="列12"/>
+    <tableColumn id="25" name="列13"/>
+    <tableColumn id="26" name="列14"/>
+    <tableColumn id="37" name="列15"/>
+    <tableColumn id="38" name="列16"/>
+    <tableColumn id="39" name="列17"/>
+    <tableColumn id="40" name="列18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1179,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1913,17 +1628,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF32"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
@@ -1956,7 +1674,7 @@
         <v>70</v>
       </c>
       <c r="L1" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -2006,256 +1724,10 @@
       <c r="AB1" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>148</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>149</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>158</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>160</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="B2">
         <v>211</v>
@@ -2282,202 +1754,70 @@
         <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 E1:E1048576 F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2486,4 +1826,221 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>211</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="14835" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="14835"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -53,6 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -67,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -81,6 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -105,6 +109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -119,6 +124,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -133,6 +139,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -147,6 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -161,6 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -175,6 +184,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -189,6 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -203,6 +214,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -227,6 +239,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -241,6 +254,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -255,6 +269,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -269,6 +284,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -293,6 +309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -307,6 +324,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -321,6 +339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -335,6 +354,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -359,6 +379,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -373,6 +394,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -1140,7 +1162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,15 +1183,38 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1186,11 +1231,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,7 +1763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2944,698 +2997,698 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="B50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="B51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="B52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="B53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="B58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="B60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="B61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="B64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4839,7 +4892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1156,6 +1156,9 @@
   <si>
     <t>TaskStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadPropertyFinish</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I73" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:I73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I74" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:I74"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="Id" name="Id">
       <xmlColumnPr mapId="1" xpath="/Propertys/Property/@Id" xmlDataType="string"/>
@@ -1761,15 +1764,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
@@ -3881,11 +3884,38 @@
       </c>
       <c r="I73" s="1"/>
     </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="14835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="14835" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="227">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1159,6 +1159,29 @@
   </si>
   <si>
     <t>LoadPropertyFinish</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>测试组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1251,7 +1274,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1496,6 +1523,19 @@
     <tableColumn id="10" name="Desc"/>
     <tableColumn id="13" name="TaskID"/>
     <tableColumn id="14" name="TaskStatus"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表1_46789" displayName="表1_46789" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="9" name="Language"/>
+    <tableColumn id="2" name="Enable" dataDxfId="0"/>
+    <tableColumn id="10" name="Desc"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1766,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
@@ -4805,7 +4845,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4920,15 +4960,60 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="14835" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="14835"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +301,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="228">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1181,6 +1181,10 @@
   </si>
   <si>
     <t>测试组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1359,15 +1363,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_4" displayName="表1_4" ref="A1:N3" totalsRowShown="0">
-  <autoFilter ref="A1:N3"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_4" displayName="表1_4" ref="A1:O3" totalsRowShown="0">
+  <autoFilter ref="A1:O3"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Row"/>
     <tableColumn id="3" name="Col"/>
     <tableColumn id="4" name="Public"/>
     <tableColumn id="5" name="Private"/>
     <tableColumn id="6" name="Save"/>
+    <tableColumn id="11" name="View"/>
     <tableColumn id="7" name="Index"/>
     <tableColumn id="8" name="SaveInterval"/>
     <tableColumn id="9" name="RelationValue"/>
@@ -1382,15 +1387,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_44" displayName="表1_44" ref="A1:AH3" totalsRowShown="0">
-  <autoFilter ref="A1:AH3"/>
-  <tableColumns count="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_44" displayName="表1_44" ref="A1:AI3" totalsRowShown="0">
+  <autoFilter ref="A1:AI3"/>
+  <tableColumns count="35">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Row"/>
     <tableColumn id="3" name="Col"/>
     <tableColumn id="4" name="Public"/>
     <tableColumn id="5" name="Private"/>
     <tableColumn id="6" name="Save"/>
+    <tableColumn id="11" name="View"/>
     <tableColumn id="7" name="Index"/>
     <tableColumn id="8" name="SaveInterval"/>
     <tableColumn id="9" name="RelationValue"/>
@@ -1425,15 +1431,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_45" displayName="表1_45" ref="A1:AB2" totalsRowShown="0">
-  <autoFilter ref="A1:AB2"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_45" displayName="表1_45" ref="A1:AC2" totalsRowShown="0">
+  <autoFilter ref="A1:AC2"/>
+  <tableColumns count="29">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Row"/>
     <tableColumn id="3" name="Col"/>
     <tableColumn id="4" name="Public"/>
     <tableColumn id="5" name="Private"/>
     <tableColumn id="6" name="Save"/>
+    <tableColumn id="11" name="View"/>
     <tableColumn id="7" name="Index"/>
     <tableColumn id="8" name="SaveInterval"/>
     <tableColumn id="9" name="RelationValue"/>
@@ -1462,15 +1469,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_46" displayName="表1_46" ref="A1:N2" totalsRowShown="0">
-  <autoFilter ref="A1:N2"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_46" displayName="表1_46" ref="A1:O2" totalsRowShown="0">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Row"/>
     <tableColumn id="3" name="Col"/>
     <tableColumn id="4" name="Public"/>
     <tableColumn id="5" name="Private"/>
     <tableColumn id="6" name="Save"/>
+    <tableColumn id="11" name="View"/>
     <tableColumn id="7" name="Index"/>
     <tableColumn id="8" name="SaveInterval"/>
     <tableColumn id="9" name="RelationValue"/>
@@ -1485,15 +1493,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_467" displayName="表1_467" ref="A1:N2" totalsRowShown="0">
-  <autoFilter ref="A1:N2"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_467" displayName="表1_467" ref="A1:O2" totalsRowShown="0">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Row"/>
     <tableColumn id="3" name="Col"/>
     <tableColumn id="4" name="Public"/>
     <tableColumn id="5" name="Private"/>
     <tableColumn id="6" name="Save"/>
+    <tableColumn id="11" name="View"/>
     <tableColumn id="7" name="Index"/>
     <tableColumn id="8" name="SaveInterval"/>
     <tableColumn id="9" name="RelationValue"/>
@@ -1508,15 +1517,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表1_4678" displayName="表1_4678" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表1_4678" displayName="表1_4678" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Row"/>
     <tableColumn id="3" name="Col"/>
     <tableColumn id="4" name="Public"/>
     <tableColumn id="5" name="Private"/>
     <tableColumn id="6" name="Save"/>
+    <tableColumn id="15" name="View"/>
     <tableColumn id="7" name="Index"/>
     <tableColumn id="8" name="SaveInterval"/>
     <tableColumn id="9" name="RelationValue"/>
@@ -1806,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3962,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3974,15 +3984,15 @@
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4002,31 +4012,34 @@
         <v>150</v>
       </c>
       <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>156</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>159</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>160</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -4045,33 +4058,36 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" t="s">
         <v>157</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>155</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>153</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576 G2:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
@@ -4088,10 +4104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4100,32 +4116,32 @@
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -4145,91 +4161,94 @@
         <v>150</v>
       </c>
       <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>165</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>166</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>167</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>168</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>169</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>171</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>172</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>173</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>174</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>175</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>176</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>177</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>178</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>179</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>180</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>181</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>183</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>185</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>186</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>187</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>163</v>
       </c>
@@ -4248,20 +4267,20 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="K2" t="s">
-        <v>155</v>
       </c>
       <c r="L2" t="s">
         <v>155</v>
@@ -4330,6 +4349,9 @@
         <v>155</v>
       </c>
       <c r="AH2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4339,10 +4361,10 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576 G2:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:AH1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4356,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4368,20 +4390,20 @@
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4401,73 +4423,76 @@
         <v>150</v>
       </c>
       <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>158</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>156</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>191</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>192</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>193</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>195</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>196</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>197</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>198</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>199</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>200</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>201</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>161</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>206</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>202</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
@@ -4486,27 +4511,27 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>83</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>81</v>
       </c>
-      <c r="M2" t="s">
-        <v>82</v>
-      </c>
       <c r="N2" t="s">
         <v>82</v>
       </c>
@@ -4517,7 +4542,7 @@
         <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
         <v>81</v>
@@ -4538,34 +4563,34 @@
         <v>81</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" t="s">
-        <v>82</v>
-      </c>
       <c r="AA2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576 G2:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:X1048576 Z1:AB1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AC1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4578,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4590,15 +4615,15 @@
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4618,31 +4643,34 @@
         <v>150</v>
       </c>
       <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>207</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>208</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>209</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
@@ -4661,42 +4689,42 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" t="s">
         <v>157</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>155</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>153</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576 G2:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:M1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4710,10 +4738,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4722,16 +4750,16 @@
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4751,31 +4779,34 @@
         <v>150</v>
       </c>
       <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>212</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
@@ -4794,41 +4825,44 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>157</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>155</v>
       </c>
-      <c r="M2" t="s">
-        <v>82</v>
-      </c>
       <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576 G2:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:N1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4842,10 +4876,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4854,14 +4888,14 @@
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4881,25 +4915,28 @@
         <v>150</v>
       </c>
       <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>215</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>217</v>
       </c>
@@ -4918,36 +4955,42 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>157</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576 G2">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:L1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
       <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
+      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4962,7 +5005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,6 @@
     <sheet name="Component" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -27,7 +31,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,11 +40,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,11 +53,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,11 +66,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +79,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -89,7 +93,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,11 +102,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,11 +115,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,11 +128,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,11 +141,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,11 +154,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,11 +167,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,11 +180,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +193,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -203,7 +207,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,11 +216,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,11 +229,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,11 +242,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +255,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -265,7 +269,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,11 +278,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,11 +291,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,11 +304,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +317,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -327,7 +331,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,11 +340,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +353,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -358,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="196">
   <si>
     <t>Id</t>
   </si>
@@ -951,14 +955,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -978,6 +976,18 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1004,23 +1014,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,14 +1033,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1344,6 +1344,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1376,15 +1377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F66"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1397,7 +1397,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1661,13 +1661,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1693,13 +1693,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1757,13 +1757,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1853,13 +1853,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1981,10 +1981,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2013,13 +2013,13 @@
         <v>11</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -2045,10 +2045,10 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>15</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2261,7 +2261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2389,7 +2389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -2429,10 +2429,10 @@
         <v>15</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2461,10 +2461,10 @@
         <v>15</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -2525,10 +2525,10 @@
         <v>15</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -2557,13 +2557,13 @@
         <v>15</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -2581,7 +2581,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -2589,10 +2589,10 @@
         <v>30</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -2621,13 +2621,13 @@
         <v>30</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2653,13 +2653,13 @@
         <v>30</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -2677,7 +2677,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -2685,13 +2685,13 @@
         <v>15</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -2717,13 +2717,13 @@
         <v>30</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -2739,21 +2739,21 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="b">
-        <v>0</v>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -2771,21 +2771,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="b">
-        <v>0</v>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -2803,21 +2803,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="b">
-        <v>0</v>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -2835,21 +2835,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="b">
-        <v>0</v>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -2867,21 +2867,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3" t="b">
-        <v>0</v>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -2899,21 +2899,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="b">
-        <v>0</v>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -2931,21 +2931,21 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="b">
-        <v>0</v>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -2963,21 +2963,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="b">
-        <v>0</v>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -2995,21 +2995,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3" t="b">
-        <v>0</v>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -3027,21 +3027,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="b">
-        <v>0</v>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -3059,21 +3059,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="b">
-        <v>0</v>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -3091,21 +3091,21 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="b">
-        <v>0</v>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -3123,21 +3123,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="b">
-        <v>0</v>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -3155,21 +3155,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="b">
-        <v>0</v>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -3187,21 +3187,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="b">
-        <v>0</v>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -3219,21 +3219,21 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="b">
-        <v>0</v>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -3251,21 +3251,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3" t="b">
-        <v>0</v>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -3283,21 +3283,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="b">
-        <v>0</v>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -3315,21 +3315,21 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="b">
-        <v>0</v>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -3347,21 +3347,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3" t="b">
-        <v>0</v>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -3379,21 +3379,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="b">
-        <v>0</v>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -3411,21 +3411,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="b">
-        <v>0</v>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -3443,21 +3443,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="b">
-        <v>0</v>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -3475,21 +3475,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3" t="b">
-        <v>0</v>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -3507,7 +3507,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
@@ -3515,10 +3515,10 @@
         <v>141</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
@@ -3542,10 +3542,10 @@
         <v>141</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>143</v>
       </c>
@@ -3569,10 +3569,10 @@
         <v>141</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -3596,13 +3596,13 @@
         <v>141</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -3623,13 +3623,13 @@
         <v>141</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
@@ -3650,13 +3650,13 @@
         <v>141</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -3677,13 +3677,13 @@
         <v>15</v>
       </c>
       <c r="C73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -3704,13 +3704,13 @@
         <v>15</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3723,28 +3723,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F66 F67:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -3758,7 +3758,7 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
@@ -3851,31 +3851,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D:F">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B:C">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -3906,7 +3906,7 @@
     <col min="33" max="33" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4121,34 +4121,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L:AI">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D:F">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B:C">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4167,7 +4167,7 @@
     <col min="29" max="29" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4346,33 +4346,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L:AC">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AC1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D:F">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B:C">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4386,7 +4386,7 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>180</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4479,34 +4479,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L:O">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D:F">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B:C">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4521,7 +4521,7 @@
     <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4616,34 +4616,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L:O">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D:F">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B:C">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4656,7 +4656,7 @@
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4739,44 +4739,44 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B:C">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D:F">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L:M">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>193</v>
       </c>
@@ -4805,6 +4805,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -4813,7 +4814,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -22,6 +17,7 @@
     <sheet name="Component" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
@@ -31,7 +27,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,11 +36,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,11 +49,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,11 +62,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +75,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -93,7 +89,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,11 +98,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,11 +111,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,11 +124,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,11 +137,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,11 +150,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,11 +163,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,11 +176,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +189,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -207,7 +203,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,11 +212,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,11 +225,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,11 +238,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +251,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -269,7 +265,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,11 +274,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,11 +287,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -304,11 +300,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +313,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -331,7 +327,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,11 +336,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +349,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -362,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>Id</t>
   </si>
@@ -464,6 +460,12 @@
   </si>
   <si>
     <t>0呆着1跑2走3闪烁4技能飞移5死6平常技能中</t>
+  </si>
+  <si>
+    <t>LogicState</t>
+  </si>
+  <si>
+    <t>逻辑状态，或者说模块独占状态</t>
   </si>
   <si>
     <t>CharType</t>
@@ -955,39 +957,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1014,8 +1012,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,19 +1046,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1344,7 +1352,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1377,14 +1384,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D74"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1397,7 +1405,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1589,7 +1597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1685,7 +1693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1749,7 +1757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1813,7 +1821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1845,7 +1853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +1885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1909,7 +1917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1973,12 +1981,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2005,7 +2013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,12 +2045,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2069,7 +2077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2101,7 +2109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2133,7 +2141,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2165,12 +2173,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2197,7 +2205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -2229,7 +2237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -2261,7 +2269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -2357,12 +2365,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2389,7 +2397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -2517,7 +2525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -2581,12 +2589,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2613,7 +2621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -2645,7 +2653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2677,12 +2685,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2709,43 +2717,45 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
@@ -2758,22 +2768,20 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
@@ -2800,74 +2808,74 @@
         <v>12</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
@@ -2931,7 +2939,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -2963,7 +2971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
@@ -2995,7 +3003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
@@ -3027,7 +3035,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
         <v>112</v>
       </c>
@@ -3091,7 +3099,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
@@ -3123,7 +3131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
         <v>116</v>
       </c>
@@ -3155,7 +3163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
@@ -3187,7 +3195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
         <v>120</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
         <v>122</v>
       </c>
@@ -3251,7 +3259,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -3283,7 +3291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
         <v>126</v>
       </c>
@@ -3315,7 +3323,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
         <v>128</v>
       </c>
@@ -3347,7 +3355,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
@@ -3379,7 +3387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
@@ -3411,7 +3419,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
         <v>134</v>
       </c>
@@ -3443,7 +3451,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
@@ -3475,7 +3483,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
         <v>138</v>
       </c>
@@ -3507,39 +3515,44 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:10">
+      <c r="A67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3561,13 +3574,13 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
@@ -3588,12 +3601,12 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -3615,12 +3628,12 @@
       </c>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3642,12 +3655,12 @@
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -3669,12 +3682,12 @@
       </c>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -3696,9 +3709,9 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>148</v>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>15</v>
@@ -3721,30 +3734,57 @@
       <c r="I74" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F12 F2:F10 F13:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -3758,15 +3798,15 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3793,21 +3833,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -3851,31 +3891,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -3906,15 +3946,15 @@
     <col min="33" max="33" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3941,81 +3981,81 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AA1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AE1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AH1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AI1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -4045,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4121,34 +4161,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4167,15 +4207,15 @@
     <col min="29" max="29" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4202,63 +4242,63 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="V1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="W1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AA1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AB1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AC1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>211</v>
@@ -4288,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -4346,33 +4386,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AC$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4386,15 +4426,15 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4421,21 +4461,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -4479,34 +4519,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4521,15 +4561,15 @@
     <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4556,21 +4596,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -4600,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -4616,34 +4656,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4656,15 +4696,15 @@
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4691,15 +4731,15 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -4729,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -4739,82 +4779,81 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -14,10 +19,10 @@
     <sheet name="Record_SkillTable" sheetId="5" r:id="rId5"/>
     <sheet name="Record_TaskMonsterList" sheetId="6" r:id="rId6"/>
     <sheet name="Record_TaskList" sheetId="7" r:id="rId7"/>
-    <sheet name="Component" sheetId="8" r:id="rId8"/>
+    <sheet name="Record_PvpList" sheetId="9" r:id="rId8"/>
+    <sheet name="Component" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,11 +41,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,11 +54,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,11 +67,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +80,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -89,7 +94,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,11 +103,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,11 +116,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,11 +129,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,11 +142,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,11 +155,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,11 +168,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,11 +181,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +194,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -203,7 +208,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,11 +217,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,11 +230,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,11 +243,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +256,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -265,7 +270,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,11 +279,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,11 +292,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,11 +305,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +318,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -327,7 +332,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,11 +341,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +354,43 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -358,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="203">
   <si>
     <t>Id</t>
   </si>
@@ -952,19 +993,33 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVPList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -984,7 +1039,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1012,23 +1073,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,14 +1092,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1352,6 +1403,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1384,15 +1436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1405,7 +1456,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1533,7 +1584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1597,7 +1648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1629,7 +1680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1725,7 +1776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1789,7 +1840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1821,7 +1872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1853,7 +1904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1917,7 +1968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1949,7 +2000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1981,7 +2032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -2013,7 +2064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2045,7 +2096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -2077,7 +2128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,7 +2160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2141,7 +2192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2173,7 +2224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -2205,7 +2256,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -2237,7 +2288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -2269,7 +2320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2301,7 +2352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -2333,7 +2384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -2365,7 +2416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2397,7 +2448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2429,7 +2480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -2461,7 +2512,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2493,7 +2544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -2525,7 +2576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -2557,7 +2608,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -2589,7 +2640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -2621,7 +2672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -2653,7 +2704,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2685,7 +2736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -2717,7 +2768,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -2749,7 +2800,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
@@ -2779,7 +2830,7 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
@@ -2811,7 +2862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2843,7 +2894,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
@@ -2875,7 +2926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
@@ -2907,7 +2958,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
@@ -2939,7 +2990,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -2971,7 +3022,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
@@ -3003,7 +3054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
@@ -3035,7 +3086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
@@ -3067,7 +3118,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>112</v>
       </c>
@@ -3099,7 +3150,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
@@ -3131,7 +3182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>116</v>
       </c>
@@ -3163,7 +3214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
@@ -3195,7 +3246,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>120</v>
       </c>
@@ -3227,7 +3278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>122</v>
       </c>
@@ -3259,7 +3310,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -3291,7 +3342,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>126</v>
       </c>
@@ -3323,7 +3374,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>128</v>
       </c>
@@ -3355,7 +3406,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
@@ -3387,7 +3438,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
@@ -3419,7 +3470,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>134</v>
       </c>
@@ -3451,7 +3502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
@@ -3483,7 +3534,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>138</v>
       </c>
@@ -3515,7 +3566,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>140</v>
       </c>
@@ -3547,7 +3598,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
@@ -3574,7 +3625,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>144</v>
       </c>
@@ -3601,7 +3652,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>145</v>
       </c>
@@ -3628,7 +3679,7 @@
       </c>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
@@ -3655,7 +3706,7 @@
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -3682,7 +3733,7 @@
       </c>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
@@ -3709,7 +3760,7 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -3736,7 +3787,7 @@
       </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -3763,28 +3814,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F12 F2:F10 F13:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -3798,7 +3849,7 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3845,7 +3896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -3856,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -3891,31 +3942,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -3946,7 +3997,7 @@
     <col min="33" max="33" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4053,7 +4104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
@@ -4073,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4161,34 +4212,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4207,7 +4258,7 @@
     <col min="29" max="29" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +4347,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>176</v>
       </c>
@@ -4307,7 +4358,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4316,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4386,33 +4437,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AC$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AC1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4426,7 +4477,7 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4473,7 +4524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>182</v>
       </c>
@@ -4484,7 +4535,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4493,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4519,34 +4570,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4561,7 +4612,7 @@
     <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4608,7 +4659,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
@@ -4619,7 +4670,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4628,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4656,34 +4707,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4696,7 +4747,7 @@
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4737,7 +4788,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -4748,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4757,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4779,44 +4830,171 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>192</v>
       </c>
@@ -4830,7 +5008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
@@ -4845,6 +5023,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
@@ -4853,7 +5032,7 @@
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
     <sheet name="Record_PlayerViewItem" sheetId="2" r:id="rId2"/>
     <sheet name="Record_CommPropertyValue" sheetId="3" r:id="rId3"/>
     <sheet name="Record_BagItemList" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_SkillTable" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_TaskMonsterList" sheetId="6" r:id="rId6"/>
-    <sheet name="Record_TaskList" sheetId="7" r:id="rId7"/>
-    <sheet name="Record_PvpList" sheetId="9" r:id="rId8"/>
-    <sheet name="Component" sheetId="8" r:id="rId9"/>
+    <sheet name="Record_DropItemList" sheetId="10" r:id="rId5"/>
+    <sheet name="Record_SkillTable" sheetId="5" r:id="rId6"/>
+    <sheet name="Record_TaskMonsterList" sheetId="6" r:id="rId7"/>
+    <sheet name="Record_TaskList" sheetId="7" r:id="rId8"/>
+    <sheet name="Record_PvpList" sheetId="9" r:id="rId9"/>
+    <sheet name="Component" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -206,6 +207,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
+    <author>杨鹏博</author>
   </authors>
   <commentList>
     <comment ref="L1" authorId="0" shapeId="0">
@@ -217,7 +219,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t>怪物GUID</t>
         </r>
       </text>
     </comment>
@@ -230,33 +232,21 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t>掉落道具ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附魔等级</t>
+          <t>掉落道具数量</t>
         </r>
       </text>
     </comment>
@@ -358,6 +348,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -398,8 +414,44 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -1012,6 +1064,38 @@
   </si>
   <si>
     <t>PVPList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物掉落表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanGetItem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGetItem</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1046,6 +1130,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3827,6 +3918,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
@@ -4457,6 +4607,152 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2">
+        <v>256</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" t="s">
+        <v>208</v>
+      </c>
+      <c r="P2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4589,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -4726,7 +5022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -4852,11 +5148,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4977,63 +5273,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"lua,python,C#,js"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -250,6 +250,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="O1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>领取状态：
+0 初始状态
+1 可以领
+2 领过了</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -451,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -1091,11 +1109,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CanGetItem</t>
+    <t>DrawState</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>IsGetItem</t>
+    <t>object</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1140,6 +1158,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1169,7 +1202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,6 +1213,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4607,10 +4643,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4627,10 +4663,9 @@
     <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4676,11 +4711,8 @@
       <c r="O1" t="s">
         <v>209</v>
       </c>
-      <c r="P1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>203</v>
       </c>
@@ -4688,7 +4720,7 @@
         <v>256</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4714,8 +4746,8 @@
       <c r="K2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="L2" t="s">
-        <v>11</v>
+      <c r="L2" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -4724,9 +4756,6 @@
         <v>208</v>
       </c>
       <c r="O2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P2" t="s">
         <v>208</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -16,12 +16,13 @@
     <sheet name="Record_PlayerViewItem" sheetId="2" r:id="rId2"/>
     <sheet name="Record_CommPropertyValue" sheetId="3" r:id="rId3"/>
     <sheet name="Record_BagItemList" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_DropItemList" sheetId="10" r:id="rId5"/>
-    <sheet name="Record_SkillTable" sheetId="5" r:id="rId6"/>
-    <sheet name="Record_TaskMonsterList" sheetId="6" r:id="rId7"/>
-    <sheet name="Record_TaskList" sheetId="7" r:id="rId8"/>
-    <sheet name="Record_PvpList" sheetId="9" r:id="rId9"/>
-    <sheet name="Component" sheetId="8" r:id="rId10"/>
+    <sheet name="Record_EctypeList" sheetId="11" r:id="rId5"/>
+    <sheet name="Record_DropItemList" sheetId="10" r:id="rId6"/>
+    <sheet name="Record_SkillTable" sheetId="5" r:id="rId7"/>
+    <sheet name="Record_TaskMonsterList" sheetId="6" r:id="rId8"/>
+    <sheet name="Record_TaskList" sheetId="7" r:id="rId9"/>
+    <sheet name="Record_PvpList" sheetId="9" r:id="rId10"/>
+    <sheet name="Component" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -219,6 +220,58 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>关卡ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">是否通关
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>通过时的星级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+    <author>杨鹏博</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>怪物GUID</t>
         </r>
       </text>
@@ -265,68 +318,6 @@
 0 初始状态
 1 可以领
 2 领过了</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -428,6 +419,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -468,8 +485,44 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="217">
   <si>
     <t>Id</t>
   </si>
@@ -1114,6 +1167,30 @@
   </si>
   <si>
     <t>object</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EctypeList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EctypeID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3955,6 +4032,133 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4643,9 +4847,141 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2">
+        <v>128</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4780,7 +5116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -4914,7 +5250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -5051,7 +5387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -5175,131 +5511,4 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -554,9 +554,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>RoleName</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -1191,6 +1188,10 @@
   </si>
   <si>
     <t>Star</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1643,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1694,11 +1695,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
@@ -1718,1298 +1719,1298 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3030,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3060,18 +3061,18 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -3092,18 +3093,18 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -3124,691 +3125,691 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
@@ -3825,16 +3826,16 @@
         <v>0</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
@@ -3852,16 +3853,16 @@
         <v>0</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -3879,16 +3880,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3906,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -3933,16 +3934,16 @@
         <v>0</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -3960,16 +3961,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -3987,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -4014,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4050,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4080,18 +4081,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" t="s">
         <v>200</v>
-      </c>
-      <c r="N1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -4118,19 +4119,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4175,13 +4176,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -4189,16 +4190,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4222,7 +4223,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4244,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4274,21 +4275,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" t="s">
         <v>153</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>154</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>155</v>
-      </c>
-      <c r="O1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -4315,20 +4316,20 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4392,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4422,81 +4423,81 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" t="s">
-        <v>100</v>
-      </c>
       <c r="P1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -4523,82 +4524,82 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4653,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4683,63 +4684,63 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" t="s">
         <v>160</v>
       </c>
-      <c r="M1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>161</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>162</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>164</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>165</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>166</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>167</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>168</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>169</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>170</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" t="s">
         <v>171</v>
       </c>
-      <c r="Y1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>172</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>174</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2">
         <v>211</v>
@@ -4766,64 +4767,64 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4849,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4873,10 +4874,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4903,24 +4904,24 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" t="s">
         <v>215</v>
-      </c>
-      <c r="N1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>128</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4941,19 +4942,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5006,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5036,21 +5037,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M1" t="s">
         <v>205</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>206</v>
       </c>
-      <c r="N1" t="s">
-        <v>207</v>
-      </c>
       <c r="O1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -5077,22 +5078,22 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5143,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5173,21 +5174,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" t="s">
         <v>178</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>179</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>180</v>
-      </c>
-      <c r="O1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -5214,20 +5215,20 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5254,7 +5255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -5278,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5308,21 +5309,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" t="s">
         <v>183</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>184</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>185</v>
-      </c>
-      <c r="O1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5349,22 +5350,22 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5413,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5443,15 +5444,15 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -5478,16 +5479,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -54,6 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -67,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -80,6 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -103,6 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -116,6 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -129,6 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -142,6 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -155,6 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -168,6 +177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -181,6 +191,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -194,6 +205,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -218,6 +230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>关卡ID</t>
@@ -231,6 +244,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">是否通关
@@ -246,6 +260,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>通过时的星级</t>
@@ -270,6 +285,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>怪物GUID</t>
@@ -283,6 +299,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>掉落道具ID</t>
@@ -297,6 +314,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>掉落道具数量</t>
@@ -338,6 +356,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -351,6 +370,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -364,6 +384,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -377,6 +398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -400,6 +422,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -413,6 +436,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -426,6 +450,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -439,6 +464,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -462,6 +488,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -475,6 +502,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -498,6 +526,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -511,6 +540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -1199,7 +1229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1210,30 +1240,27 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1293,7 +1320,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1644,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3819,6 +3846,9 @@
       <c r="E68" t="b">
         <v>1</v>
       </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
       <c r="G68">
         <v>0</v>
       </c>
@@ -3846,6 +3876,9 @@
       <c r="E69" t="b">
         <v>1</v>
       </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
       <c r="G69">
         <v>0</v>
       </c>
@@ -3873,6 +3906,9 @@
       <c r="E70" t="b">
         <v>1</v>
       </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
       <c r="G70">
         <v>0</v>
       </c>
@@ -3900,6 +3936,9 @@
       <c r="E71" t="b">
         <v>1</v>
       </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
       <c r="G71">
         <v>0</v>
       </c>
@@ -3927,6 +3966,9 @@
       <c r="E72" t="b">
         <v>1</v>
       </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
       <c r="G72">
         <v>0</v>
       </c>
@@ -3954,6 +3996,9 @@
       <c r="E73" t="b">
         <v>1</v>
       </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -3981,6 +4026,9 @@
       <c r="E74" t="b">
         <v>1</v>
       </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
       <c r="G74">
         <v>0</v>
       </c>
@@ -4000,13 +4048,16 @@
         <v>14</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4022,12 +4073,12 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F12 F2:F10 F13:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 C75:E75">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5255,7 +5306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="221">
   <si>
     <t>Id</t>
   </si>
@@ -1192,6 +1192,22 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GateID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆的服ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆的网关ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1642,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4018,11 +4034,75 @@
         <v>11</v>
       </c>
     </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F12 F2:F10 F13:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5255,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -453,6 +453,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
+    <author>杨鹏博</author>
   </authors>
   <commentList>
     <comment ref="L1" authorId="0" shapeId="0">
@@ -464,7 +465,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t>任务ID</t>
         </r>
       </text>
     </comment>
@@ -477,7 +478,21 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t>任务状态，见NFDefine.proto中ETaskState</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前进度</t>
         </r>
       </text>
     </comment>
@@ -522,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="223">
   <si>
     <t>Id</t>
   </si>
@@ -1208,6 +1223,14 @@
   </si>
   <si>
     <t>登陆的网关ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1660,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
@@ -5335,7 +5358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -5470,10 +5493,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5489,7 +5512,7 @@
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5529,8 +5552,11 @@
       <c r="M1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>189</v>
       </c>
@@ -5538,7 +5564,7 @@
         <v>512</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -5569,6 +5595,9 @@
       </c>
       <c r="M2" t="s">
         <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Record_PvpList" sheetId="9" r:id="rId10"/>
     <sheet name="Component" sheetId="8" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -537,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="225">
   <si>
     <t>Id</t>
   </si>
@@ -1232,6 +1235,12 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUILD_ID</t>
+  </si>
+  <si>
+    <t>公会ID</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1348,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1681,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4119,6 +4156,38 @@
       </c>
       <c r="J77" s="2" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5358,7 +5427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
     <sheet name="Record_PlayerViewItem" sheetId="2" r:id="rId2"/>
     <sheet name="Record_CommPropertyValue" sheetId="3" r:id="rId3"/>
     <sheet name="Record_BagItemList" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_EctypeList" sheetId="11" r:id="rId5"/>
-    <sheet name="Record_DropItemList" sheetId="10" r:id="rId6"/>
-    <sheet name="Record_SkillTable" sheetId="5" r:id="rId7"/>
-    <sheet name="Record_TaskMonsterList" sheetId="6" r:id="rId8"/>
-    <sheet name="Record_TaskList" sheetId="7" r:id="rId9"/>
-    <sheet name="Record_PvpList" sheetId="9" r:id="rId10"/>
-    <sheet name="Component" sheetId="8" r:id="rId11"/>
+    <sheet name="Record_EctypeList" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_DropItemList" sheetId="6" r:id="rId6"/>
+    <sheet name="Record_SkillTable" sheetId="7" r:id="rId7"/>
+    <sheet name="Record_TaskMonsterList" sheetId="8" r:id="rId8"/>
+    <sheet name="Record_TaskList" sheetId="9" r:id="rId9"/>
+    <sheet name="Record_PvpList" sheetId="10" r:id="rId10"/>
+    <sheet name="Component" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -37,7 +32,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,11 +41,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,11 +54,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,11 +67,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -99,7 +94,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,11 +103,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,11 +116,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,11 +129,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,11 +142,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,11 +155,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,11 +168,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,11 +181,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +194,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -214,7 +209,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,11 +218,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>关卡ID</t>
+          <t xml:space="preserve">关卡ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,17 +236,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>通过时的星级</t>
+          <t xml:space="preserve">通过时的星级</t>
         </r>
       </text>
     </comment>
@@ -266,7 +260,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,11 +269,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>怪物GUID</t>
+          <t xml:space="preserve">怪物GUID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,36 +282,33 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>掉落道具ID</t>
+          <t xml:space="preserve">掉落道具ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>掉落道具数量</t>
+          <t xml:space="preserve">掉落道具数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>领取状态：
+          <t xml:space="preserve">领取状态：
 0 初始状态
 1 可以领
 2 领过了</t>
@@ -334,7 +325,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -343,11 +334,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,11 +347,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,11 +360,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +373,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -396,7 +387,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,11 +396,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,11 +409,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,11 +422,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +435,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -459,7 +450,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -468,11 +459,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>任务ID</t>
+          <t xml:space="preserve">任务ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -481,21 +472,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>任务状态，见NFDefine.proto中ETaskState</t>
+          <t xml:space="preserve">任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>当前进度</t>
+          <t xml:space="preserve">当前进度</t>
         </r>
       </text>
     </comment>
@@ -509,7 +499,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,11 +508,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +521,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -540,7 +530,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>Id</t>
   </si>
@@ -572,6 +562,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -992,6 +985,24 @@
     <t>LoadPropertyFinish</t>
   </si>
   <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>登陆的服ID</t>
+  </si>
+  <si>
+    <t>GateID</t>
+  </si>
+  <si>
+    <t>登陆的网关ID</t>
+  </si>
+  <si>
+    <t>GuildID</t>
+  </si>
+  <si>
+    <t>公会ID</t>
+  </si>
+  <si>
     <t>Row</t>
   </si>
   <si>
@@ -1073,6 +1084,36 @@
     <t>普通背包</t>
   </si>
   <si>
+    <t>EctypeID</t>
+  </si>
+  <si>
+    <t>IsPass</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>EctypeList</t>
+  </si>
+  <si>
+    <t>副本列表</t>
+  </si>
+  <si>
+    <t>MonsterID</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>DrawState</t>
+  </si>
+  <si>
+    <t>DropItemList</t>
+  </si>
+  <si>
+    <t>怪物掉落表</t>
+  </si>
+  <si>
     <t>SkillID</t>
   </si>
   <si>
@@ -1088,9 +1129,6 @@
     <t>SkillTable</t>
   </si>
   <si>
-    <t>MonsterID</t>
-  </si>
-  <si>
     <t>CurrentKillCount</t>
   </si>
   <si>
@@ -1109,13 +1147,19 @@
     <t>TaskStatus</t>
   </si>
   <si>
+    <t>Process</t>
+  </si>
+  <si>
     <t>TaskList</t>
   </si>
   <si>
     <t>任务表</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PVPList</t>
   </si>
   <si>
     <t>Language</t>
@@ -1131,123 +1175,25 @@
   </si>
   <si>
     <t>测试组件</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVPList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物掉落表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawState</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EctypeList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EctypeID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsPass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Star</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GateID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆的服ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆的网关ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUILD_ID</t>
-  </si>
-  <si>
-    <t>公会ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1261,42 +1207,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1323,8 +1235,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,57 +1262,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1684,7 +1578,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1717,14 +1610,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1737,7 +1631,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1769,12 +1663,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1795,1424 +1689,1424 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -3226,25 +3120,25 @@
       <c r="F47" t="b">
         <v>1</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -3258,25 +3152,25 @@
       <c r="F48" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -3290,25 +3184,25 @@
       <c r="F49" t="b">
         <v>1</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -3322,25 +3216,25 @@
       <c r="F50" t="b">
         <v>1</v>
       </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -3354,25 +3248,25 @@
       <c r="F51" t="b">
         <v>1</v>
       </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -3386,25 +3280,25 @@
       <c r="F52" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -3418,25 +3312,25 @@
       <c r="F53" t="b">
         <v>1</v>
       </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -3450,25 +3344,25 @@
       <c r="F54" t="b">
         <v>1</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -3482,25 +3376,25 @@
       <c r="F55" t="b">
         <v>1</v>
       </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -3514,25 +3408,25 @@
       <c r="F56" t="b">
         <v>1</v>
       </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -3546,25 +3440,25 @@
       <c r="F57" t="b">
         <v>1</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -3578,25 +3472,25 @@
       <c r="F58" t="b">
         <v>1</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3610,25 +3504,25 @@
       <c r="F59" t="b">
         <v>1</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -3642,25 +3536,25 @@
       <c r="F60" t="b">
         <v>1</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -3674,25 +3568,25 @@
       <c r="F61" t="b">
         <v>1</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -3706,25 +3600,25 @@
       <c r="F62" t="b">
         <v>1</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3738,25 +3632,25 @@
       <c r="F63" t="b">
         <v>1</v>
       </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -3770,25 +3664,25 @@
       <c r="F64" t="b">
         <v>1</v>
       </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3802,25 +3696,25 @@
       <c r="F65" t="b">
         <v>1</v>
       </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3834,25 +3728,25 @@
       <c r="F66" t="b">
         <v>1</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -3866,25 +3760,25 @@
       <c r="F67" t="b">
         <v>1</v>
       </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3902,17 +3796,17 @@
         <v>0</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
@@ -3929,16 +3823,16 @@
         <v>0</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -3956,16 +3850,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3983,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -4010,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -4037,16 +3931,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -4064,16 +3958,16 @@
         <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -4091,15 +3985,15 @@
         <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -4113,25 +4007,25 @@
       <c r="F76" t="b">
         <v>0</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>14</v>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4145,25 +4039,25 @@
       <c r="F77" t="b">
         <v>0</v>
       </c>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -4184,49 +4078,49 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4253,18 +4147,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M1" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -4291,91 +4185,92 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"true,false"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
@@ -4384,21 +4279,22 @@
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4412,15 +4308,15 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4447,21 +4343,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -4488,48 +4384,48 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4560,15 +4456,15 @@
     <col min="33" max="33" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4595,81 +4491,81 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AH1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -4696,113 +4592,113 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4821,15 +4717,15 @@
     <col min="29" max="29" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4856,63 +4752,63 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
         <v>159</v>
       </c>
-      <c r="M1" t="s">
-        <v>152</v>
-      </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y1" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" t="s">
-        <v>163</v>
-      </c>
-      <c r="R1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S1" t="s">
-        <v>165</v>
-      </c>
-      <c r="T1" t="s">
-        <v>166</v>
-      </c>
-      <c r="U1" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" t="s">
-        <v>168</v>
-      </c>
-      <c r="W1" t="s">
-        <v>169</v>
-      </c>
-      <c r="X1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>155</v>
-      </c>
       <c r="Z1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AA1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AB1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AC1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>211</v>
@@ -4939,94 +4835,94 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AC1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AC$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5035,21 +4931,21 @@
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5076,18 +4972,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="M1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="N1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -5114,51 +5010,51 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>213</v>
+        <v>188</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5167,22 +5063,22 @@
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5209,21 +5105,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="M1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N1" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="O1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -5250,54 +5146,54 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5311,15 +5207,15 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5346,21 +5242,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="N1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -5387,51 +5283,51 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5446,15 +5342,15 @@
     <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5481,21 +5377,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="N1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5522,53 +5418,53 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5581,15 +5477,15 @@
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5616,18 +5512,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -5654,39 +5550,38 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,11 +46,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,11 +59,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,11 +72,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -94,7 +99,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,11 +108,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,11 +121,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,11 +134,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,11 +147,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,11 +160,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,11 +173,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,11 +186,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +199,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -206,10 +211,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
-    <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,11 +222,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">关卡ID</t>
+          <t>关卡ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +249,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">通过时的星级</t>
+          <t>通过时的星级</t>
         </r>
       </text>
     </comment>
@@ -257,10 +261,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
-    <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,11 +272,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">怪物GUID</t>
+          <t>怪物GUID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,11 +285,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">掉落道具ID</t>
+          <t>掉落道具ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,11 +298,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">掉落道具数量</t>
+          <t>掉落道具数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +311,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">领取状态：
+          <t>领取状态：
 0 初始状态
 1 可以领
 2 领过了</t>
@@ -325,7 +328,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,11 +337,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -347,11 +350,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,11 +363,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +376,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -387,7 +390,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,11 +399,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,11 +412,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -422,11 +425,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +438,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -447,10 +450,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
-    <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,11 +461,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">任务ID</t>
+          <t>任务ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,11 +474,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">任务状态，见NFDefine.proto中ETaskState</t>
+          <t>任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +487,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">当前进度</t>
+          <t>当前进度</t>
         </r>
       </text>
     </comment>
@@ -499,7 +501,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,11 +510,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +523,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -530,7 +532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="215">
   <si>
     <t>Id</t>
   </si>
@@ -1180,14 +1182,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1207,7 +1203,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1235,23 +1237,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1272,14 +1259,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1578,6 +1570,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1610,15 +1603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1631,7 +1623,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1695,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +1719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1759,7 +1751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1791,7 +1783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1823,7 +1815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1855,7 +1847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +1879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1919,7 +1911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1951,7 +1943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1983,7 +1975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2015,7 +2007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2047,7 +2039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2079,7 +2071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2143,7 +2135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2175,7 +2167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -2207,7 +2199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -2239,7 +2231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2271,7 +2263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -2303,7 +2295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2335,7 +2327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2367,7 +2359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -2399,7 +2391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -2431,7 +2423,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -2463,7 +2455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -2495,7 +2487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2527,7 +2519,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -2559,7 +2551,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -2591,7 +2583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2623,7 +2615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2655,7 +2647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -2687,7 +2679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2719,7 +2711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -2751,7 +2743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -2783,7 +2775,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -2815,7 +2807,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -2847,7 +2839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -2879,7 +2871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2911,7 +2903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -2943,7 +2935,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -2975,7 +2967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
@@ -3005,7 +2997,7 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -3037,7 +3029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
@@ -3069,7 +3061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -3101,7 +3093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -3133,7 +3125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
@@ -3165,7 +3157,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -3197,7 +3189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>106</v>
       </c>
@@ -3229,7 +3221,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -3261,7 +3253,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>110</v>
       </c>
@@ -3293,7 +3285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
@@ -3325,7 +3317,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>114</v>
       </c>
@@ -3357,7 +3349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>116</v>
       </c>
@@ -3389,7 +3381,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>118</v>
       </c>
@@ -3421,7 +3413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>120</v>
       </c>
@@ -3453,7 +3445,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>122</v>
       </c>
@@ -3485,7 +3477,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>124</v>
       </c>
@@ -3517,7 +3509,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>126</v>
       </c>
@@ -3549,7 +3541,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>128</v>
       </c>
@@ -3581,7 +3573,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>130</v>
       </c>
@@ -3613,7 +3605,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>132</v>
       </c>
@@ -3645,7 +3637,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>134</v>
       </c>
@@ -3677,7 +3669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>136</v>
       </c>
@@ -3709,7 +3701,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>138</v>
       </c>
@@ -3741,7 +3733,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>140</v>
       </c>
@@ -3773,7 +3765,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
@@ -3800,7 +3792,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>144</v>
       </c>
@@ -3827,7 +3819,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>145</v>
       </c>
@@ -3854,7 +3846,7 @@
       </c>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
@@ -3881,7 +3873,7 @@
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -3908,7 +3900,7 @@
       </c>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
@@ -3935,7 +3927,7 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -3962,7 +3954,7 @@
       </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -3970,13 +3962,13 @@
         <v>15</v>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3988,7 +3980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
@@ -4020,7 +4012,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>153</v>
       </c>
@@ -4052,7 +4044,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -4085,34 +4077,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4156,7 +4148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
@@ -4201,6 +4193,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
@@ -4219,30 +4212,28 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -4256,7 +4247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>212</v>
       </c>
@@ -4271,6 +4262,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
@@ -4279,22 +4271,21 @@
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4308,7 +4299,7 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4355,7 +4346,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>163</v>
       </c>
@@ -4401,31 +4392,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4456,7 +4447,7 @@
     <col min="33" max="33" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4563,7 +4554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
@@ -4671,34 +4662,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4717,7 +4708,7 @@
     <col min="29" max="29" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +4797,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>182</v>
       </c>
@@ -4896,33 +4887,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AC$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AC1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4937,7 +4928,7 @@
     <col min="14" max="14" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4981,7 +4972,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
@@ -5026,35 +5017,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5070,7 +5061,7 @@
     <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +5108,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
@@ -5165,35 +5156,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5207,7 +5198,7 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5254,7 +5245,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
@@ -5300,34 +5291,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5342,7 +5333,7 @@
     <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5389,7 +5380,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>202</v>
       </c>
@@ -5437,34 +5428,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5477,7 +5468,7 @@
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5521,7 +5512,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>206</v>
       </c>
@@ -5566,23 +5557,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -532,7 +532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="216">
   <si>
     <t>Id</t>
   </si>
@@ -1177,6 +1177,10 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1606,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1640,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -3781,6 +3785,9 @@
       <c r="E68" t="b">
         <v>1</v>
       </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
       <c r="G68">
         <v>0</v>
       </c>
@@ -3808,6 +3815,9 @@
       <c r="E69" t="b">
         <v>1</v>
       </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
       <c r="G69">
         <v>0</v>
       </c>
@@ -3835,6 +3845,9 @@
       <c r="E70" t="b">
         <v>1</v>
       </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
       <c r="G70">
         <v>0</v>
       </c>
@@ -3862,6 +3875,9 @@
       <c r="E71" t="b">
         <v>1</v>
       </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
       <c r="G71">
         <v>0</v>
       </c>
@@ -3889,6 +3905,9 @@
       <c r="E72" t="b">
         <v>1</v>
       </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
       <c r="G72">
         <v>0</v>
       </c>
@@ -3916,6 +3935,9 @@
       <c r="E73" t="b">
         <v>1</v>
       </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -3943,6 +3965,9 @@
       <c r="E74" t="b">
         <v>1</v>
       </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
       <c r="G74">
         <v>0</v>
       </c>
@@ -3970,6 +3995,9 @@
       <c r="E75" t="b">
         <v>0</v>
       </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
       <c r="G75">
         <v>0</v>
       </c>
@@ -3991,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
@@ -4023,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="4">
         <v>0</v>
@@ -4052,7 +4080,7 @@
         <v>30</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -987,199 +987,200 @@
     <t>LoadPropertyFinish</t>
   </si>
   <si>
+    <t>登陆的服ID</t>
+  </si>
+  <si>
+    <t>GateID</t>
+  </si>
+  <si>
+    <t>登陆的网关ID</t>
+  </si>
+  <si>
+    <t>GuildID</t>
+  </si>
+  <si>
+    <t>公会ID</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>ConfigID</t>
+  </si>
+  <si>
+    <t>EnhanceLevel</t>
+  </si>
+  <si>
+    <t>InlayStone</t>
+  </si>
+  <si>
+    <t>SagecraftLevel</t>
+  </si>
+  <si>
+    <t>PlayerViewItem</t>
+  </si>
+  <si>
+    <t>CommPropertyValue</t>
+  </si>
+  <si>
+    <t>所有和战斗，药水有关的，都在这里NPC怪物只有基础和BUFF影响，因此针对玩家和怪物，分2个表.0职业等级叠加属性,1装备属性,2永久BUFF属性,3动态BUFF属性</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>ExpiredType</t>
+  </si>
+  <si>
+    <t>SlotCount</t>
+  </si>
+  <si>
+    <t>InlayStone1</t>
+  </si>
+  <si>
+    <t>InlayStone2</t>
+  </si>
+  <si>
+    <t>InlayStone3</t>
+  </si>
+  <si>
+    <t>InlayStone4</t>
+  </si>
+  <si>
+    <t>InlayStone5</t>
+  </si>
+  <si>
+    <t>InlayStone6</t>
+  </si>
+  <si>
+    <t>EnhancedLevel</t>
+  </si>
+  <si>
+    <t>SagecraftStone</t>
+  </si>
+  <si>
+    <t>RandProperty</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>BaseProperty</t>
+  </si>
+  <si>
+    <t>BagItemList</t>
+  </si>
+  <si>
+    <t>普通背包</t>
+  </si>
+  <si>
+    <t>EctypeID</t>
+  </si>
+  <si>
+    <t>IsPass</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>EctypeList</t>
+  </si>
+  <si>
+    <t>副本列表</t>
+  </si>
+  <si>
+    <t>MonsterID</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>DrawState</t>
+  </si>
+  <si>
+    <t>DropItemList</t>
+  </si>
+  <si>
+    <t>怪物掉落表</t>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
+    <t>SkillStone</t>
+  </si>
+  <si>
+    <t>SkillSoulLevel</t>
+  </si>
+  <si>
+    <t>SkillTable</t>
+  </si>
+  <si>
+    <t>CurrentKillCount</t>
+  </si>
+  <si>
+    <t>RequireKillCount</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>TaskMonsterList</t>
+  </si>
+  <si>
+    <t>任务杀怪表</t>
+  </si>
+  <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>TaskList</t>
+  </si>
+  <si>
+    <t>任务表</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PVPList</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>测试组件</t>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>GameID</t>
-  </si>
-  <si>
-    <t>登陆的服ID</t>
-  </si>
-  <si>
-    <t>GateID</t>
-  </si>
-  <si>
-    <t>登陆的网关ID</t>
-  </si>
-  <si>
-    <t>GuildID</t>
-  </si>
-  <si>
-    <t>公会ID</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>Col</t>
-  </si>
-  <si>
-    <t>ConfigID</t>
-  </si>
-  <si>
-    <t>EnhanceLevel</t>
-  </si>
-  <si>
-    <t>InlayStone</t>
-  </si>
-  <si>
-    <t>SagecraftLevel</t>
-  </si>
-  <si>
-    <t>PlayerViewItem</t>
-  </si>
-  <si>
-    <t>CommPropertyValue</t>
-  </si>
-  <si>
-    <t>所有和战斗，药水有关的，都在这里NPC怪物只有基础和BUFF影响，因此针对玩家和怪物，分2个表.0职业等级叠加属性,1装备属性,2永久BUFF属性,3动态BUFF属性</t>
-  </si>
-  <si>
-    <t>GUID</t>
-  </si>
-  <si>
-    <t>ItemCount</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>ExpiredType</t>
-  </si>
-  <si>
-    <t>SlotCount</t>
-  </si>
-  <si>
-    <t>InlayStone1</t>
-  </si>
-  <si>
-    <t>InlayStone2</t>
-  </si>
-  <si>
-    <t>InlayStone3</t>
-  </si>
-  <si>
-    <t>InlayStone4</t>
-  </si>
-  <si>
-    <t>InlayStone5</t>
-  </si>
-  <si>
-    <t>InlayStone6</t>
-  </si>
-  <si>
-    <t>EnhancedLevel</t>
-  </si>
-  <si>
-    <t>SagecraftStone</t>
-  </si>
-  <si>
-    <t>RandProperty</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>BaseProperty</t>
-  </si>
-  <si>
-    <t>BagItemList</t>
-  </si>
-  <si>
-    <t>普通背包</t>
-  </si>
-  <si>
-    <t>EctypeID</t>
-  </si>
-  <si>
-    <t>IsPass</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>EctypeList</t>
-  </si>
-  <si>
-    <t>副本列表</t>
-  </si>
-  <si>
-    <t>MonsterID</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>DrawState</t>
-  </si>
-  <si>
-    <t>DropItemList</t>
-  </si>
-  <si>
-    <t>怪物掉落表</t>
-  </si>
-  <si>
-    <t>SkillID</t>
-  </si>
-  <si>
-    <t>SkillLevel</t>
-  </si>
-  <si>
-    <t>SkillStone</t>
-  </si>
-  <si>
-    <t>SkillSoulLevel</t>
-  </si>
-  <si>
-    <t>SkillTable</t>
-  </si>
-  <si>
-    <t>CurrentKillCount</t>
-  </si>
-  <si>
-    <t>RequireKillCount</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>TaskMonsterList</t>
-  </si>
-  <si>
-    <t>任务杀怪表</t>
-  </si>
-  <si>
-    <t>TaskStatus</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>TaskList</t>
-  </si>
-  <si>
-    <t>任务表</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PVPList</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>lua</t>
-  </si>
-  <si>
-    <t>测试组件</t>
-  </si>
-  <si>
-    <t>View</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1266,8 +1267,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1610,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1644,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -4010,71 +4039,71 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="H76" s="4">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77" s="4">
-        <v>0</v>
-      </c>
-      <c r="H77" s="4">
-        <v>0</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
@@ -4101,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4137,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4167,7 +4196,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -4178,7 +4207,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -4208,7 +4237,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -4266,10 +4295,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" t="s">
-        <v>211</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -4277,16 +4306,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4332,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4362,21 +4391,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" t="s">
         <v>159</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>160</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>161</v>
-      </c>
-      <c r="O1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -4480,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4584,7 +4613,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -4614,7 +4643,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4741,10 +4770,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4771,63 +4800,63 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
         <v>166</v>
       </c>
-      <c r="M1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>167</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>168</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>170</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>171</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>172</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>173</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>174</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>175</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>176</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>179</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>180</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>211</v>
@@ -4857,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -4961,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4991,18 +5020,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" t="s">
         <v>184</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>185</v>
-      </c>
-      <c r="N1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -5032,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
@@ -5094,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5124,21 +5153,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" t="s">
         <v>190</v>
-      </c>
-      <c r="N1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -5168,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>30</v>
@@ -5231,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5261,21 +5290,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" t="s">
         <v>194</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>195</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>196</v>
-      </c>
-      <c r="O1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -5366,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5396,21 +5425,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N1" t="s">
         <v>199</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>200</v>
-      </c>
-      <c r="O1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5440,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5501,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5531,18 +5560,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" t="s">
         <v>204</v>
-      </c>
-      <c r="N1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -5572,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -3716,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -4038,10 +4038,10 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="b">
@@ -4056,24 +4056,24 @@
       <c r="F76" t="b">
         <v>1</v>
       </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="H76" s="4">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="3" t="s">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="b">
@@ -4088,16 +4088,16 @@
       <c r="F77" t="b">
         <v>1</v>
       </c>
-      <c r="G77" s="4">
-        <v>0</v>
-      </c>
-      <c r="H77" s="4">
-        <v>0</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="3" t="s">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
         <v>153</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Record_TaskMonsterList" sheetId="8" r:id="rId8"/>
     <sheet name="Record_TaskList" sheetId="9" r:id="rId9"/>
     <sheet name="Record_PvpList" sheetId="10" r:id="rId10"/>
-    <sheet name="Component" sheetId="11" r:id="rId11"/>
+    <sheet name="Record_ChatGroup" sheetId="12" r:id="rId11"/>
+    <sheet name="Component" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -531,8 +532,44 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>聊天类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>聊天组的ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="220">
   <si>
     <t>Id</t>
   </si>
@@ -1182,6 +1219,19 @@
   <si>
     <t>GameID</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGroup</t>
+  </si>
+  <si>
+    <t>聊天组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatType</t>
+  </si>
+  <si>
+    <t>GroupGUID</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -4152,7 +4202,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4270,12 +4320,126 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:M2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="223">
   <si>
     <t>Id</t>
   </si>
@@ -718,9 +718,6 @@
     <t>Money</t>
   </si>
   <si>
-    <t>钱</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -731,12 +728,6 @@
   </si>
   <si>
     <t>玩家连接服务器的KEY</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>玩家金钱</t>
   </si>
   <si>
     <t>MAXEXP</t>
@@ -1232,13 +1223,37 @@
   </si>
   <si>
     <t>GroupGUID</t>
+  </si>
+  <si>
+    <t>VIPEXP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIPLevel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家游戏金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP经验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1268,8 +1283,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1278,7 +1306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1310,7 +1350,22 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1687,13 +1742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1706,7 +1761,7 @@
     <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1738,7 +1793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1770,7 +1825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1802,7 +1857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1834,7 +1889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,7 +1921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1898,7 +1953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1930,7 +1985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1962,7 +2017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2026,7 +2081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2058,7 +2113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2090,7 +2145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2122,7 +2177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2154,425 +2209,425 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" s="7" customFormat="1">
+      <c r="A15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="9" customFormat="1">
+      <c r="A16" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1">
+      <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:10" s="9" customFormat="1">
+      <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:10" s="9" customFormat="1">
+      <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:10" s="9" customFormat="1">
+      <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1">
+      <c r="A22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="1" t="s">
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1" t="s">
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -2599,12 +2654,12 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
@@ -2631,12 +2686,12 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -2663,12 +2718,12 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -2695,300 +2750,300 @@
         <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="1" t="s">
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="1" t="s">
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="s">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="1" t="s">
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="1" t="s">
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="1" t="s">
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -3015,15 +3070,15 @@
         <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3047,12 +3102,12 @@
         <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>30</v>
@@ -3078,1116 +3133,1180 @@
       <c r="I43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+      <c r="J43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" s="4" customFormat="1">
+      <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="4" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="4" customFormat="1">
+      <c r="A48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="4" customFormat="1">
+      <c r="A49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    </row>
+    <row r="50" spans="1:10" s="4" customFormat="1">
+      <c r="A50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="3" t="s">
+    </row>
+    <row r="51" spans="1:10" s="4" customFormat="1">
+      <c r="A51" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="3" t="s">
+    </row>
+    <row r="52" spans="1:10" s="4" customFormat="1">
+      <c r="A52" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="3" t="s">
+    </row>
+    <row r="53" spans="1:10" s="4" customFormat="1">
+      <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="3" t="s">
+    </row>
+    <row r="54" spans="1:10" s="4" customFormat="1">
+      <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="3" t="s">
+    </row>
+    <row r="55" spans="1:10" s="4" customFormat="1">
+      <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="3" t="s">
+    </row>
+    <row r="56" spans="1:10" s="4" customFormat="1">
+      <c r="A56" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="3" t="s">
+    </row>
+    <row r="57" spans="1:10" s="4" customFormat="1">
+      <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="3" t="s">
+    </row>
+    <row r="58" spans="1:10" s="4" customFormat="1">
+      <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="3" t="s">
+    </row>
+    <row r="59" spans="1:10" s="4" customFormat="1">
+      <c r="A59" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="3" t="s">
+    </row>
+    <row r="60" spans="1:10" s="4" customFormat="1">
+      <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="3" t="s">
+    </row>
+    <row r="61" spans="1:10" s="4" customFormat="1">
+      <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="3" t="s">
+    </row>
+    <row r="62" spans="1:10" s="4" customFormat="1">
+      <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="3" t="s">
+    </row>
+    <row r="63" spans="1:10" s="4" customFormat="1">
+      <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+      <c r="B63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="3" t="s">
+    </row>
+    <row r="64" spans="1:10" s="4" customFormat="1">
+      <c r="A64" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="3" t="s">
+    </row>
+    <row r="65" spans="1:10" s="4" customFormat="1">
+      <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="3" t="s">
+    </row>
+    <row r="66" spans="1:10" s="4" customFormat="1">
+      <c r="A66" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="3" t="s">
+    </row>
+    <row r="67" spans="1:10" s="4" customFormat="1">
+      <c r="A67" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+      <c r="B67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="3" t="s">
+    </row>
+    <row r="68" spans="1:10" s="4" customFormat="1">
+      <c r="A68" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="B68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="3" t="s">
+    </row>
+    <row r="69" spans="1:10" s="4" customFormat="1">
+      <c r="A69" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
+      <c r="B69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="3" t="s">
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="b">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" t="b">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" t="b">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" t="s">
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F15:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4205,21 +4324,21 @@
       <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4246,7 +4365,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -4255,9 +4374,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -4287,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -4329,21 +4448,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4370,15 +4489,15 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -4408,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4447,39 +4566,39 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4625,7 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4520,15 +4639,15 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4555,21 +4674,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" t="s">
         <v>158</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="N1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -4637,7 +4756,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4668,15 +4787,15 @@
     <col min="33" max="33" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4703,81 +4822,81 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" t="s">
-        <v>102</v>
-      </c>
       <c r="Q1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="W1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Z1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AA1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AB1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AD1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AF1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AG1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AH1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AI1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -4807,7 +4926,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4910,7 +5029,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4929,15 +5048,15 @@
     <col min="29" max="29" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4964,63 +5083,63 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
         <v>165</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" t="s">
         <v>158</v>
       </c>
-      <c r="N1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S1" t="s">
-        <v>171</v>
-      </c>
-      <c r="T1" t="s">
-        <v>172</v>
-      </c>
-      <c r="U1" t="s">
-        <v>173</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>174</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>176</v>
       </c>
-      <c r="Y1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>177</v>
       </c>
-      <c r="AA1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="B2">
         <v>211</v>
@@ -5050,7 +5169,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -5134,7 +5253,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5149,15 +5268,15 @@
     <col min="14" max="14" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5184,18 +5303,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="M1" t="s">
-        <v>184</v>
-      </c>
-      <c r="N1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -5225,7 +5344,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
@@ -5266,7 +5385,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5282,15 +5401,15 @@
     <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5317,21 +5436,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="M1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -5361,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>30</v>
@@ -5405,7 +5524,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5419,15 +5538,15 @@
     <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5454,21 +5573,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" t="s">
         <v>193</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="N1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -5539,7 +5658,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5554,15 +5673,15 @@
     <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5589,21 +5708,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="N1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5633,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5676,7 +5795,7 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5689,15 +5808,15 @@
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5724,18 +5843,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" t="s">
         <v>200</v>
       </c>
-      <c r="M1" t="s">
-        <v>203</v>
-      </c>
       <c r="N1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -5765,7 +5884,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -9,23 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
     <sheet name="Record_PlayerViewItem" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_CommPropertyValue" sheetId="3" r:id="rId3"/>
-    <sheet name="Record_BagItemList" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_EctypeList" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_DropItemList" sheetId="6" r:id="rId6"/>
-    <sheet name="Record_SkillTable" sheetId="7" r:id="rId7"/>
-    <sheet name="Record_TaskMonsterList" sheetId="8" r:id="rId8"/>
-    <sheet name="Record_TaskList" sheetId="9" r:id="rId9"/>
-    <sheet name="Record_PvpList" sheetId="10" r:id="rId10"/>
-    <sheet name="Record_ChatGroup" sheetId="12" r:id="rId11"/>
-    <sheet name="Component" sheetId="11" r:id="rId12"/>
+    <sheet name="Record_PlayerHero" sheetId="15" r:id="rId3"/>
+    <sheet name="Record_BagEquipList" sheetId="13" r:id="rId4"/>
+    <sheet name="Record_BagItemList" sheetId="4" r:id="rId5"/>
+    <sheet name="Record_CommPropertyValue" sheetId="3" r:id="rId6"/>
+    <sheet name="Record_EctypeList" sheetId="5" r:id="rId7"/>
+    <sheet name="Record_DropItemList" sheetId="6" r:id="rId8"/>
+    <sheet name="Record_SkillTable" sheetId="7" r:id="rId9"/>
+    <sheet name="Record_TaskMonsterList" sheetId="8" r:id="rId10"/>
+    <sheet name="Record_TaskList" sheetId="9" r:id="rId11"/>
+    <sheet name="Record_PvpList" sheetId="10" r:id="rId12"/>
+    <sheet name="Record_ChatGroup" sheetId="12" r:id="rId13"/>
+    <sheet name="Component" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -45,6 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -58,6 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -71,6 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -84,9 +91,48 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>聊天类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>聊天组的ID</t>
         </r>
       </text>
     </comment>
@@ -100,19 +146,6 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -120,9 +153,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -133,9 +167,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -146,61 +181,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附魔等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -221,9 +205,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>关卡ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -234,10 +219,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">是否通关
-</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -248,9 +233,80 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>通过时的星级</t>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -271,9 +327,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>怪物GUID</t>
+          <t>关卡ID</t>
         </r>
       </text>
     </comment>
@@ -284,9 +341,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>掉落道具ID</t>
+          <t xml:space="preserve">是否通关
+</t>
         </r>
       </text>
     </comment>
@@ -297,25 +356,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>掉落道具数量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>领取状态：
-0 初始状态
-1 可以领
-2 领过了</t>
+          <t>通过时的星级</t>
         </r>
       </text>
     </comment>
@@ -336,9 +380,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t>怪物GUID</t>
         </r>
       </text>
     </comment>
@@ -349,9 +394,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t>掉落道具ID</t>
         </r>
       </text>
     </comment>
@@ -362,9 +408,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t>掉落道具数量</t>
         </r>
       </text>
     </comment>
@@ -375,9 +422,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t>领取状态：
+0 初始状态
+1 可以领
+2 领过了</t>
         </r>
       </text>
     </comment>
@@ -398,6 +449,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>物品配置ID</t>
@@ -411,6 +463,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>强化等级</t>
@@ -424,6 +477,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>镶嵌宝石，逗号分隔</t>
@@ -437,6 +491,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>附魔等级</t>
@@ -460,9 +515,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>任务ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -473,9 +529,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>任务状态，见NFDefine.proto中ETaskState</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -486,9 +543,24 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>当前进度</t>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -509,9 +581,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t>任务ID</t>
         </r>
       </text>
     </comment>
@@ -522,9 +595,24 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t>任务状态，见NFDefine.proto中ETaskState</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前进度</t>
         </r>
       </text>
     </comment>
@@ -545,9 +633,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>聊天类型</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -558,9 +647,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>聊天组的ID</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -569,7 +659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="248">
   <si>
     <t>Id</t>
   </si>
@@ -1090,22 +1180,7 @@
     <t>InlayStone6</t>
   </si>
   <si>
-    <t>EnhancedLevel</t>
-  </si>
-  <si>
-    <t>SagecraftStone</t>
-  </si>
-  <si>
-    <t>RandProperty</t>
-  </si>
-  <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>BaseProperty</t>
-  </si>
-  <si>
-    <t>BagItemList</t>
   </si>
   <si>
     <t>普通背包</t>
@@ -1246,6 +1321,126 @@
   </si>
   <si>
     <t>VIP经验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BagEquipList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BagItemList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InlayStone7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InlayStone8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InlayStone10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InlayStone9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntensifyLevel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandPropertyID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementLevel10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WearGUID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerHero</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1264,23 +1459,27 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1292,6 +1491,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1337,7 +1543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,6 +1572,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1744,7 +1956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -2211,7 +2423,7 @@
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -2243,34 +2455,34 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1">
       <c r="A16" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1">
@@ -2403,7 +2615,7 @@
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>15</v>
@@ -2430,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1">
@@ -2462,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
@@ -4208,7 +4420,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -4318,6 +4530,275 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="14" width="22.75" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4365,7 +4846,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -4376,7 +4857,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -4406,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -4444,11 +4925,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -4489,15 +4970,15 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -4527,7 +5008,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4558,12 +5039,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4578,10 +5059,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -4589,16 +5070,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4622,7 +5103,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4750,10 +5231,607 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="17.75" customWidth="1"/>
+    <col min="18" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="29" width="16.5" customWidth="1"/>
+    <col min="30" max="30" width="19" customWidth="1"/>
+    <col min="31" max="40" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2">
+        <v>256</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576 Z2:AN1048576 T1:Y1048576 R1:R1048576 L1:L1048576 N1:P1048576 M2:M1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="S1 Q1:Q1048576 Z1:AN1 M1"/>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2">
+        <v>128</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:P1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4764,6 +5842,7 @@
     <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="14" max="14" width="15.25" customWidth="1"/>
@@ -5021,231 +6100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="23" width="16.5" customWidth="1"/>
-    <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="26" width="20.25" customWidth="1"/>
-    <col min="27" max="27" width="17.75" customWidth="1"/>
-    <col min="29" max="29" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U1" t="s">
-        <v>170</v>
-      </c>
-      <c r="V1" t="s">
-        <v>171</v>
-      </c>
-      <c r="W1" t="s">
-        <v>172</v>
-      </c>
-      <c r="X1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2">
-        <v>211</v>
-      </c>
-      <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AC1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -5303,18 +6158,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -5344,7 +6199,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
@@ -5377,7 +6232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -5436,21 +6291,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N1" t="s">
         <v>163</v>
       </c>
       <c r="O1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -5480,7 +6335,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>30</v>
@@ -5516,7 +6371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -5573,21 +6428,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -5648,273 +6503,4 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="14" width="22.75" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" t="s">
-        <v>196</v>
-      </c>
-      <c r="O1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2">
-        <v>512</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <sheet name="Record_TaskList" sheetId="9" r:id="rId11"/>
     <sheet name="Record_PvpList" sheetId="10" r:id="rId12"/>
     <sheet name="Record_ChatGroup" sheetId="12" r:id="rId13"/>
-    <sheet name="Component" sheetId="11" r:id="rId14"/>
+    <sheet name="Record_BuildingList" sheetId="16" r:id="rId14"/>
+    <sheet name="Record_BuildingProduce" sheetId="17" r:id="rId15"/>
+    <sheet name="Component" sheetId="11" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -133,6 +135,52 @@
             <charset val="134"/>
           </rPr>
           <t>聊天组的ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>建筑ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>建筑ID</t>
         </r>
       </text>
     </comment>
@@ -659,7 +707,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -1442,13 +1490,37 @@
   <si>
     <t>PlayerHero</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingID</t>
+  </si>
+  <si>
+    <t>BuildingGUID</t>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>PosZ</t>
+  </si>
+  <si>
+    <t>StateStartTime</t>
+  </si>
+  <si>
+    <t>StateEndTime</t>
+  </si>
+  <si>
+    <t>BuildingList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1502,8 +1574,35 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1528,6 +1627,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1538,12 +1647,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1580,9 +1695,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5040,6 +5166,330 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="12">
+        <v>128</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="12">
+        <v>128</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5233,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460" firstSheet="10" activeTab="13"/>
+    <workbookView windowWidth="19455" windowHeight="8985" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
     <sheet name="Record_PlayerViewItem" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_PlayerHero" sheetId="15" r:id="rId3"/>
-    <sheet name="Record_BagEquipList" sheetId="13" r:id="rId4"/>
-    <sheet name="Record_BagItemList" sheetId="4" r:id="rId5"/>
-    <sheet name="Record_CommPropertyValue" sheetId="3" r:id="rId6"/>
-    <sheet name="Record_EctypeList" sheetId="5" r:id="rId7"/>
-    <sheet name="Record_DropItemList" sheetId="6" r:id="rId8"/>
-    <sheet name="Record_SkillTable" sheetId="7" r:id="rId9"/>
-    <sheet name="Record_TaskMonsterList" sheetId="8" r:id="rId10"/>
-    <sheet name="Record_TaskList" sheetId="9" r:id="rId11"/>
-    <sheet name="Record_PvpList" sheetId="10" r:id="rId12"/>
-    <sheet name="Record_ChatGroup" sheetId="12" r:id="rId13"/>
-    <sheet name="Record_BuildingList" sheetId="16" r:id="rId14"/>
-    <sheet name="Record_BuildingProduce" sheetId="17" r:id="rId15"/>
-    <sheet name="Component" sheetId="11" r:id="rId16"/>
+    <sheet name="Record_PlayerHero" sheetId="3" r:id="rId3"/>
+    <sheet name="Record_BagEquipList" sheetId="4" r:id="rId4"/>
+    <sheet name="Record_BagItemList" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_CommPropertyValue" sheetId="6" r:id="rId6"/>
+    <sheet name="Record_EctypeList" sheetId="7" r:id="rId7"/>
+    <sheet name="Record_DropItemList" sheetId="8" r:id="rId8"/>
+    <sheet name="Record_SkillTable" sheetId="9" r:id="rId9"/>
+    <sheet name="Record_TaskMonsterList" sheetId="10" r:id="rId10"/>
+    <sheet name="Record_TaskList" sheetId="11" r:id="rId11"/>
+    <sheet name="Record_PvpList" sheetId="12" r:id="rId12"/>
+    <sheet name="Record_ChatGroup" sheetId="13" r:id="rId13"/>
+    <sheet name="Record_BuildingList" sheetId="14" r:id="rId14"/>
+    <sheet name="Record_BuildingProduce" sheetId="15" r:id="rId15"/>
+    <sheet name="Component" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -44,59 +39,55 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -110,31 +101,29 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>聊天类型</t>
+          <t xml:space="preserve">聊天类型</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>聊天组的ID</t>
+          <t xml:space="preserve">聊天组的ID</t>
         </r>
       </text>
     </comment>
@@ -148,7 +137,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +146,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t xml:space="preserve">建筑ID</t>
         </r>
       </text>
     </comment>
@@ -171,7 +160,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +169,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t xml:space="preserve">建筑ID</t>
         </r>
       </text>
     </comment>
@@ -194,45 +183,42 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
@@ -246,115 +232,107 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -368,28 +346,26 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>关卡ID</t>
+          <t xml:space="preserve">关卡ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">是否通关
@@ -397,17 +373,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>通过时的星级</t>
+          <t xml:space="preserve">通过时的星级</t>
         </r>
       </text>
     </comment>
@@ -421,59 +396,55 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>怪物GUID</t>
+          <t xml:space="preserve">怪物GUID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>掉落道具ID</t>
+          <t xml:space="preserve">掉落道具ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>掉落道具数量</t>
+          <t xml:space="preserve">掉落道具数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>领取状态：
+          <t xml:space="preserve">领取状态：
 0 初始状态
 1 可以领
 2 领过了</t>
@@ -490,59 +461,55 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -556,59 +523,55 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -622,45 +585,42 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>任务ID</t>
+          <t xml:space="preserve">任务ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>任务状态，见NFDefine.proto中ETaskState</t>
+          <t xml:space="preserve">任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>当前进度</t>
+          <t xml:space="preserve">当前进度</t>
         </r>
       </text>
     </comment>
@@ -674,31 +634,29 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -707,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
   <si>
     <t>Id</t>
   </si>
@@ -829,12 +787,21 @@
     <t>职业</t>
   </si>
   <si>
+    <t>VIPLevel</t>
+  </si>
+  <si>
+    <t>经验获得,如果是怪物，则是掉落经验</t>
+  </si>
+  <si>
+    <t>VIPEXP</t>
+  </si>
+  <si>
+    <t>VIP经验</t>
+  </si>
+  <si>
     <t>EXP</t>
   </si>
   <si>
-    <t>经验获得,如果是怪物，则是掉落经验</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -853,9 +820,18 @@
     <t>法力值</t>
   </si>
   <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>玩家游戏金币</t>
+  </si>
+  <si>
     <t>Money</t>
   </si>
   <si>
+    <t>钻石</t>
+  </si>
+  <si>
     <t>Account</t>
   </si>
   <si>
@@ -1153,6 +1129,9 @@
     <t>LoadPropertyFinish</t>
   </si>
   <si>
+    <t>GameID</t>
+  </si>
+  <si>
     <t>登陆的服ID</t>
   </si>
   <si>
@@ -1189,51 +1168,132 @@
     <t>PlayerViewItem</t>
   </si>
   <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Equip1</t>
+  </si>
+  <si>
+    <t>Equip2</t>
+  </si>
+  <si>
+    <t>Equip3</t>
+  </si>
+  <si>
+    <t>Equip4</t>
+  </si>
+  <si>
+    <t>Equip5</t>
+  </si>
+  <si>
+    <t>Equip6</t>
+  </si>
+  <si>
+    <t>PlayerHero</t>
+  </si>
+  <si>
+    <t>WearGUID</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>ExpiredType</t>
+  </si>
+  <si>
+    <t>RandPropertyID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>SlotCount</t>
+  </si>
+  <si>
+    <t>InlayStone1</t>
+  </si>
+  <si>
+    <t>InlayStone2</t>
+  </si>
+  <si>
+    <t>InlayStone3</t>
+  </si>
+  <si>
+    <t>InlayStone4</t>
+  </si>
+  <si>
+    <t>InlayStone5</t>
+  </si>
+  <si>
+    <t>InlayStone6</t>
+  </si>
+  <si>
+    <t>InlayStone7</t>
+  </si>
+  <si>
+    <t>InlayStone8</t>
+  </si>
+  <si>
+    <t>InlayStone9</t>
+  </si>
+  <si>
+    <t>InlayStone10</t>
+  </si>
+  <si>
+    <t>IntensifyLevel</t>
+  </si>
+  <si>
+    <t>ElementLevel1</t>
+  </si>
+  <si>
+    <t>ElementLevel2</t>
+  </si>
+  <si>
+    <t>ElementLevel3</t>
+  </si>
+  <si>
+    <t>ElementLevel4</t>
+  </si>
+  <si>
+    <t>ElementLevel5</t>
+  </si>
+  <si>
+    <t>ElementLevel6</t>
+  </si>
+  <si>
+    <t>ElementLevel7</t>
+  </si>
+  <si>
+    <t>ElementLevel8</t>
+  </si>
+  <si>
+    <t>ElementLevel9</t>
+  </si>
+  <si>
+    <t>ElementLevel10</t>
+  </si>
+  <si>
+    <t>BagEquipList</t>
+  </si>
+  <si>
+    <t>普通背包</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
+  </si>
+  <si>
+    <t>BagItemList</t>
+  </si>
+  <si>
     <t>CommPropertyValue</t>
   </si>
   <si>
     <t>所有和战斗，药水有关的，都在这里NPC怪物只有基础和BUFF影响，因此针对玩家和怪物，分2个表.0职业等级叠加属性,1装备属性,2永久BUFF属性,3动态BUFF属性</t>
   </si>
   <si>
-    <t>GUID</t>
-  </si>
-  <si>
-    <t>ItemCount</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>ExpiredType</t>
-  </si>
-  <si>
-    <t>SlotCount</t>
-  </si>
-  <si>
-    <t>InlayStone1</t>
-  </si>
-  <si>
-    <t>InlayStone2</t>
-  </si>
-  <si>
-    <t>InlayStone3</t>
-  </si>
-  <si>
-    <t>InlayStone4</t>
-  </si>
-  <si>
-    <t>InlayStone5</t>
-  </si>
-  <si>
-    <t>InlayStone6</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>普通背包</t>
-  </si>
-  <si>
     <t>EctypeID</t>
   </si>
   <si>
@@ -1312,6 +1372,45 @@
     <t>PVPList</t>
   </si>
   <si>
+    <t>ChatType</t>
+  </si>
+  <si>
+    <t>GroupGUID</t>
+  </si>
+  <si>
+    <t>ChatGroup</t>
+  </si>
+  <si>
+    <t>聊天组</t>
+  </si>
+  <si>
+    <t>BuildingID</t>
+  </si>
+  <si>
+    <t>BuildingGUID</t>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>PosZ</t>
+  </si>
+  <si>
+    <t>StateStartTime</t>
+  </si>
+  <si>
+    <t>StateEndTime</t>
+  </si>
+  <si>
+    <t>BuildingList</t>
+  </si>
+  <si>
+    <t>BuildingListProduce</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
@@ -1325,202 +1424,19 @@
   </si>
   <si>
     <t>测试组件</t>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatGroup</t>
-  </si>
-  <si>
-    <t>聊天组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatType</t>
-  </si>
-  <si>
-    <t>GroupGUID</t>
-  </si>
-  <si>
-    <t>VIPEXP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIPLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家游戏金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP经验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BagEquipList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BagItemList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>InlayStone7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>InlayStone8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>InlayStone10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>InlayStone9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntensifyLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandPropertyID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementLevel10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WearGUID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerHero</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildingID</t>
-  </si>
-  <si>
-    <t>BuildingGUID</t>
-  </si>
-  <si>
-    <t>PosX</t>
-  </si>
-  <si>
-    <t>PosY</t>
-  </si>
-  <si>
-    <t>PosZ</t>
-  </si>
-  <si>
-    <t>StateStartTime</t>
-  </si>
-  <si>
-    <t>StateEndTime</t>
-  </si>
-  <si>
-    <t>BuildingList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1529,56 +1445,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1586,23 +1461,171 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,7 +1634,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,22 +1658,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1646,15 +1845,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1665,89 +2100,97 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="32">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1797,71 +2240,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2079,7 +2522,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2116,7 +2560,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -2547,43 +2991,43 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1">
-      <c r="A15" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="6" t="s">
+    <row r="15" s="8" customFormat="1" spans="1:10">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1">
-      <c r="A16" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="16" s="9" customFormat="1" spans="1:10">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9" t="b">
@@ -2604,18 +3048,18 @@
       <c r="H16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1">
-      <c r="A17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="I16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="1" spans="1:10">
+      <c r="A17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="9" t="b">
@@ -2636,18 +3080,18 @@
       <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="I17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1">
-      <c r="A18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="18" s="9" customFormat="1" spans="1:10">
+      <c r="A18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="9" t="b">
@@ -2668,18 +3112,18 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1">
-      <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="I18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="1" spans="1:10">
+      <c r="A19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="9" t="b">
@@ -2700,18 +3144,18 @@
       <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="I19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" s="9" customFormat="1" spans="1:10">
+      <c r="A20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="9" t="b">
@@ -2732,18 +3176,18 @@
       <c r="H20" s="9">
         <v>0</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="I20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" s="9" customFormat="1" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9" t="b">
@@ -2764,18 +3208,18 @@
       <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="9" customFormat="1">
-      <c r="A22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="I21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" s="9" customFormat="1" spans="1:10">
+      <c r="A22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="9" t="b">
@@ -2796,16 +3240,16 @@
       <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+      <c r="I22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -2832,12 +3276,12 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
@@ -2864,12 +3308,12 @@
         <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
@@ -2896,12 +3340,12 @@
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -2928,12 +3372,12 @@
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>15</v>
@@ -2960,12 +3404,12 @@
         <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -2992,12 +3436,12 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
@@ -3024,12 +3468,12 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -3056,12 +3500,12 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -3088,12 +3532,12 @@
         <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -3120,12 +3564,12 @@
         <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -3152,12 +3596,12 @@
         <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>15</v>
@@ -3184,12 +3628,12 @@
         <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>15</v>
@@ -3216,12 +3660,12 @@
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -3248,12 +3692,12 @@
         <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>15</v>
@@ -3280,12 +3724,12 @@
         <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>15</v>
@@ -3312,12 +3756,12 @@
         <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
@@ -3344,12 +3788,12 @@
         <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -3376,12 +3820,12 @@
         <v>12</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -3408,12 +3852,12 @@
         <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>30</v>
@@ -3440,12 +3884,12 @@
         <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>30</v>
@@ -3472,12 +3916,12 @@
         <v>12</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>15</v>
@@ -3504,12 +3948,12 @@
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>30</v>
@@ -3537,780 +3981,780 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" s="4" customFormat="1">
-      <c r="A46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="4" customFormat="1">
-      <c r="A47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="4" customFormat="1">
-      <c r="A48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="4" customFormat="1">
-      <c r="A49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="4" customFormat="1">
-      <c r="A50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="3" t="s">
+    <row r="46" s="10" customFormat="1" spans="1:10">
+      <c r="A46" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" s="4" customFormat="1">
-      <c r="A51" s="3" t="s">
+      <c r="B46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" s="10" customFormat="1" spans="1:10">
+      <c r="A47" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="B47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="10" customFormat="1" spans="1:10">
+      <c r="A48" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" s="4" customFormat="1">
-      <c r="A52" s="3" t="s">
+      <c r="B48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" s="10" customFormat="1" spans="1:10">
+      <c r="A49" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="B49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="4" customFormat="1">
-      <c r="A53" s="3" t="s">
+    <row r="50" s="10" customFormat="1" spans="1:10">
+      <c r="A50" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="B50" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="4" customFormat="1">
-      <c r="A54" s="3" t="s">
+    <row r="51" s="10" customFormat="1" spans="1:10">
+      <c r="A51" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="3" t="s">
+      <c r="B51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="4" customFormat="1">
-      <c r="A55" s="3" t="s">
+    <row r="52" s="10" customFormat="1" spans="1:10">
+      <c r="A52" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="B52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="4" customFormat="1">
-      <c r="A56" s="3" t="s">
+    <row r="53" s="10" customFormat="1" spans="1:10">
+      <c r="A53" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="B53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="4" customFormat="1">
-      <c r="A57" s="3" t="s">
+    <row r="54" s="10" customFormat="1" spans="1:10">
+      <c r="A54" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="B54" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="4" customFormat="1">
-      <c r="A58" s="3" t="s">
+    <row r="55" s="10" customFormat="1" spans="1:10">
+      <c r="A55" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="B55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="4" customFormat="1">
-      <c r="A59" s="3" t="s">
+    <row r="56" s="10" customFormat="1" spans="1:10">
+      <c r="A56" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="B56" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="14">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="4" customFormat="1">
-      <c r="A60" s="3" t="s">
+    <row r="57" s="10" customFormat="1" spans="1:10">
+      <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="3" t="s">
+      <c r="B57" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="4" customFormat="1">
-      <c r="A61" s="3" t="s">
+    <row r="58" s="10" customFormat="1" spans="1:10">
+      <c r="A58" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="B58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="4" customFormat="1">
-      <c r="A62" s="3" t="s">
+    <row r="59" s="10" customFormat="1" spans="1:10">
+      <c r="A59" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="B59" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="4" customFormat="1">
-      <c r="A63" s="3" t="s">
+    <row r="60" s="10" customFormat="1" spans="1:10">
+      <c r="A60" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="3" t="s">
+      <c r="B60" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="4" customFormat="1">
-      <c r="A64" s="3" t="s">
+    <row r="61" s="10" customFormat="1" spans="1:10">
+      <c r="A61" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="B61" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="4" customFormat="1">
-      <c r="A65" s="3" t="s">
+    <row r="62" s="10" customFormat="1" spans="1:10">
+      <c r="A62" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="B62" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0</v>
+      </c>
+      <c r="H62" s="14">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="4" customFormat="1">
-      <c r="A66" s="3" t="s">
+    <row r="63" s="10" customFormat="1" spans="1:10">
+      <c r="A63" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="B63" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="4" customFormat="1">
-      <c r="A67" s="3" t="s">
+    <row r="64" s="10" customFormat="1" spans="1:10">
+      <c r="A64" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="B64" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="4" customFormat="1">
-      <c r="A68" s="3" t="s">
+    <row r="65" s="10" customFormat="1" spans="1:10">
+      <c r="A65" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="3" t="s">
+      <c r="B65" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="4" customFormat="1">
-      <c r="A69" s="3" t="s">
+    <row r="66" s="10" customFormat="1" spans="1:10">
+      <c r="A66" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="3" t="s">
+      <c r="B66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0</v>
+      </c>
+      <c r="H66" s="14">
+        <v>0</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="67" s="10" customFormat="1" spans="1:10">
+      <c r="A67" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="14">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" s="10" customFormat="1" spans="1:10">
+      <c r="A68" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="14">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="1" spans="1:10">
+      <c r="A69" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="14">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -4337,10 +4781,10 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -4367,10 +4811,10 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -4397,10 +4841,10 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -4427,10 +4871,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -4457,10 +4901,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -4487,7 +4931,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>15</v>
@@ -4515,9 +4959,9 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>15</v>
@@ -4546,7 +4990,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -4573,12 +5017,12 @@
         <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -4605,12 +5049,12 @@
         <v>12</v>
       </c>
       <c r="J79" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
@@ -4637,32 +5081,32 @@
         <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F15:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4682,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4712,21 +5156,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="M1" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="N1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="O1" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -4756,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -4772,34 +5216,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4817,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4847,18 +5291,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="M1" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="N1" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -4888,7 +5332,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -4901,37 +5345,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="A1" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
@@ -4942,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4972,7 +5416,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -4983,7 +5427,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5013,7 +5457,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -5026,154 +5470,156 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:M2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:M2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5189,153 +5635,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="L1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>254</v>
+      <c r="O1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="2">
         <v>128</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13" t="s">
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="13" t="s">
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5351,153 +5798,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="L1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>254</v>
+      <c r="O1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2">
         <v>128</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13" t="s">
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="13" t="s">
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -5509,10 +5957,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -5520,43 +5968,43 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"lua,python,C#,js"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="O1" sqref="O$1:O$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5575,10 +6023,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5605,21 +6053,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="N1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="O1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -5663,31 +6111,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5705,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5735,40 +6183,40 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="M1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N1" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>239</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="11" t="s">
-        <v>247</v>
+        <v>168</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -5799,7 +6247,7 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -5811,50 +6259,50 @@
         <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5877,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5907,96 +6355,96 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" t="s">
         <v>162</v>
       </c>
-      <c r="M1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" t="s">
-        <v>155</v>
-      </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="P1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q1" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="R1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="S1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="T1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="U1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="V1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="W1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="X1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Y1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Z1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="AA1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="AB1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="AC1" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="AD1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AE1" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="AF1" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="AG1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="AH1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="AI1" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="AJ1" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AK1" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="AL1" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="AM1" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="AN1" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -6026,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -6117,34 +6565,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q$1:Q$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 M2:M1048576 R$1:R$1048576 S2:S1048576 Z2:AN1048576 T$1:Y$1048576 N$1:P$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576 Z2:AN1048576 T1:Y1048576 R1:R1048576 L1:L1048576 N1:P1048576 M2:M1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="S1 Q1:Q1048576 Z1:AN1 M1"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6162,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6192,24 +6640,24 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M1" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="N1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="P1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -6239,7 +6687,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -6258,33 +6706,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:P1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:P$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6321,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6351,81 +6799,81 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="R1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="T1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="U1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="V1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="W1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="X1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Y1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Z1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AA1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AB1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AC1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AE1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AG1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AI1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -6455,7 +6903,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -6531,34 +6979,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6578,10 +7026,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6608,18 +7056,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -6649,9 +7097,9 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M2" t="s">
@@ -6662,35 +7110,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6711,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6741,21 +7189,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="M1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="O1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -6785,9 +7233,9 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M2" t="s">
@@ -6801,35 +7249,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6848,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6878,21 +7326,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -6936,21 +7384,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8985" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -39,7 +44,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,11 +53,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,11 +66,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,11 +79,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -101,7 +106,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,11 +115,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">聊天类型</t>
+          <t>聊天类型</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +128,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">聊天组的ID</t>
+          <t>聊天组的ID</t>
         </r>
       </text>
     </comment>
@@ -137,7 +142,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +151,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">建筑ID</t>
+          <t>建筑ID</t>
         </r>
       </text>
     </comment>
@@ -160,7 +165,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +174,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">建筑ID</t>
+          <t>建筑ID</t>
         </r>
       </text>
     </comment>
@@ -183,7 +188,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,11 +197,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,11 +210,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +223,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>星级</t>
         </r>
       </text>
     </comment>
@@ -232,7 +250,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,11 +259,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,11 +272,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,11 +285,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,11 +298,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,11 +311,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,11 +324,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,11 +337,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +350,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -346,7 +364,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -355,11 +373,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">关卡ID</t>
+          <t>关卡ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +400,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">通过时的星级</t>
+          <t>通过时的星级</t>
         </r>
       </text>
     </comment>
@@ -396,7 +414,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,11 +423,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">怪物GUID</t>
+          <t>怪物GUID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,11 +436,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">掉落道具ID</t>
+          <t>掉落道具ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -431,11 +449,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">掉落道具数量</t>
+          <t>掉落道具数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +462,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">领取状态：
+          <t>领取状态：
 0 初始状态
 1 可以领
 2 领过了</t>
@@ -461,7 +479,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,11 +488,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,11 +501,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -496,11 +514,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +527,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -523,7 +541,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -532,11 +550,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -545,11 +563,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -558,11 +576,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +589,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -585,7 +603,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -594,11 +612,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">任务ID</t>
+          <t>任务ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -607,11 +625,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">任务状态，见NFDefine.proto中ETaskState</t>
+          <t>任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +638,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">当前进度</t>
+          <t>当前进度</t>
         </r>
       </text>
     </comment>
@@ -634,7 +652,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -643,11 +661,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +674,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -665,7 +683,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="264">
   <si>
     <t>Id</t>
   </si>
@@ -1424,24 +1442,239 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Equip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1488,144 +1721,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,182 +1769,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1845,352 +1778,111 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="32">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2522,8 +2214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2991,7 +2682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" spans="1:10">
+    <row r="15" spans="1:10" s="8" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>40</v>
       </c>
@@ -3023,7 +2714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" spans="1:10">
+    <row r="16" spans="1:10" s="9" customFormat="1">
       <c r="A16" s="12" t="s">
         <v>42</v>
       </c>
@@ -3055,7 +2746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" s="9" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
@@ -3087,7 +2778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="9" customFormat="1">
       <c r="A18" s="12" t="s">
         <v>45</v>
       </c>
@@ -3119,7 +2810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" s="9" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
@@ -3151,7 +2842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" spans="1:10">
+    <row r="20" spans="1:10" s="9" customFormat="1">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -3183,7 +2874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="1" ht="14.25" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -3215,7 +2906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="1" spans="1:10">
+    <row r="22" spans="1:10" s="9" customFormat="1">
       <c r="A22" s="12" t="s">
         <v>53</v>
       </c>
@@ -3247,7 +2938,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3279,7 +2970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -3981,7 +3672,7 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" s="10" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="10" customFormat="1">
       <c r="A46" s="13" t="s">
         <v>100</v>
       </c>
@@ -4013,7 +3704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="1" spans="1:10">
+    <row r="47" spans="1:10" s="10" customFormat="1">
       <c r="A47" s="13" t="s">
         <v>101</v>
       </c>
@@ -4045,7 +3736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="10" customFormat="1">
       <c r="A48" s="13" t="s">
         <v>102</v>
       </c>
@@ -4077,7 +3768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="1" spans="1:10">
+    <row r="49" spans="1:10" s="10" customFormat="1">
       <c r="A49" s="13" t="s">
         <v>103</v>
       </c>
@@ -4109,7 +3800,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" s="10" customFormat="1" spans="1:10">
+    <row r="50" spans="1:10" s="10" customFormat="1">
       <c r="A50" s="13" t="s">
         <v>105</v>
       </c>
@@ -4141,7 +3832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="1" spans="1:10">
+    <row r="51" spans="1:10" s="10" customFormat="1">
       <c r="A51" s="13" t="s">
         <v>107</v>
       </c>
@@ -4173,7 +3864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" s="10" customFormat="1" spans="1:10">
+    <row r="52" spans="1:10" s="10" customFormat="1">
       <c r="A52" s="13" t="s">
         <v>109</v>
       </c>
@@ -4205,7 +3896,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" s="10" customFormat="1" spans="1:10">
+    <row r="53" spans="1:10" s="10" customFormat="1">
       <c r="A53" s="13" t="s">
         <v>111</v>
       </c>
@@ -4237,7 +3928,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="1" spans="1:10">
+    <row r="54" spans="1:10" s="10" customFormat="1">
       <c r="A54" s="13" t="s">
         <v>113</v>
       </c>
@@ -4269,7 +3960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" s="10" customFormat="1" spans="1:10">
+    <row r="55" spans="1:10" s="10" customFormat="1">
       <c r="A55" s="13" t="s">
         <v>115</v>
       </c>
@@ -4301,7 +3992,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" s="10" customFormat="1" spans="1:10">
+    <row r="56" spans="1:10" s="10" customFormat="1">
       <c r="A56" s="13" t="s">
         <v>117</v>
       </c>
@@ -4333,7 +4024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" s="10" customFormat="1" spans="1:10">
+    <row r="57" spans="1:10" s="10" customFormat="1">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
@@ -4365,7 +4056,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" s="10" customFormat="1" spans="1:10">
+    <row r="58" spans="1:10" s="10" customFormat="1">
       <c r="A58" s="13" t="s">
         <v>121</v>
       </c>
@@ -4397,7 +4088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" s="10" customFormat="1" spans="1:10">
+    <row r="59" spans="1:10" s="10" customFormat="1">
       <c r="A59" s="13" t="s">
         <v>123</v>
       </c>
@@ -4429,7 +4120,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" s="10" customFormat="1" spans="1:10">
+    <row r="60" spans="1:10" s="10" customFormat="1">
       <c r="A60" s="13" t="s">
         <v>125</v>
       </c>
@@ -4461,7 +4152,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" s="10" customFormat="1" spans="1:10">
+    <row r="61" spans="1:10" s="10" customFormat="1">
       <c r="A61" s="13" t="s">
         <v>127</v>
       </c>
@@ -4493,7 +4184,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" s="10" customFormat="1" spans="1:10">
+    <row r="62" spans="1:10" s="10" customFormat="1">
       <c r="A62" s="13" t="s">
         <v>129</v>
       </c>
@@ -4525,7 +4216,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" s="10" customFormat="1" spans="1:10">
+    <row r="63" spans="1:10" s="10" customFormat="1">
       <c r="A63" s="13" t="s">
         <v>131</v>
       </c>
@@ -4557,7 +4248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" s="10" customFormat="1" spans="1:10">
+    <row r="64" spans="1:10" s="10" customFormat="1">
       <c r="A64" s="13" t="s">
         <v>133</v>
       </c>
@@ -4589,7 +4280,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="1" spans="1:10">
+    <row r="65" spans="1:10" s="10" customFormat="1">
       <c r="A65" s="13" t="s">
         <v>135</v>
       </c>
@@ -4621,7 +4312,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" s="10" customFormat="1" spans="1:10">
+    <row r="66" spans="1:10" s="10" customFormat="1">
       <c r="A66" s="13" t="s">
         <v>137</v>
       </c>
@@ -4653,7 +4344,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" s="10" customFormat="1" spans="1:10">
+    <row r="67" spans="1:10" s="10" customFormat="1">
       <c r="A67" s="13" t="s">
         <v>139</v>
       </c>
@@ -4685,7 +4376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" s="10" customFormat="1" spans="1:10">
+    <row r="68" spans="1:10" s="10" customFormat="1">
       <c r="A68" s="13" t="s">
         <v>141</v>
       </c>
@@ -4717,7 +4408,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" s="10" customFormat="1" spans="1:10">
+    <row r="69" spans="1:10" s="10" customFormat="1">
       <c r="A69" s="13" t="s">
         <v>143</v>
       </c>
@@ -4959,7 +4650,7 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -5085,28 +4776,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F15:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5216,34 +4907,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5345,37 +5036,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M2"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
@@ -5470,6 +5161,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
@@ -5488,23 +5180,21 @@
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -5589,6 +5279,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
@@ -5604,22 +5295,20 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5751,38 +5440,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5914,38 +5602,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -5981,6 +5668,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -5989,22 +5677,21 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O$1:O$1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6111,31 +5798,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6145,10 +5832,10 @@
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="15" max="16" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6194,27 +5881,59 @@
       <c r="O1" t="s">
         <v>168</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="6"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="W1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -6222,7 +5941,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -6256,10 +5975,10 @@
         <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>30</v>
@@ -6276,33 +5995,66 @@
       <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6565,34 +6317,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q$1:Q$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q1:Q1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 M2:M1048576 R$1:R$1048576 S2:S1048576 Z2:AN1048576 T$1:Y$1048576 N$1:P$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576 M2:M1048576 R1:R1048576 S2:S1048576 Z2:AN1048576 T1:Y1048576 N1:P1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6706,33 +6458,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:P$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:P1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6979,34 +6731,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7110,35 +6862,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7249,35 +7001,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7384,20 +7136,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="275">
   <si>
     <t>Id</t>
   </si>
@@ -1464,21 +1464,6 @@
   </si>
   <si>
     <t>Equip8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Talent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1655,6 +1640,57 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>Skill3</t>
+  </si>
+  <si>
+    <t>Skill4</t>
+  </si>
+  <si>
+    <t>Skill5</t>
+  </si>
+  <si>
+    <t>SkillLevel1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLevel2</t>
+  </si>
+  <si>
+    <t>SkillLevel3</t>
+  </si>
+  <si>
+    <t>SkillLevel4</t>
+  </si>
+  <si>
+    <t>SkillLevel5</t>
+  </si>
+  <si>
+    <r>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5816,10 +5852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5833,9 +5869,10 @@
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="17.75" customWidth="1"/>
     <col min="15" max="16" width="15.25" customWidth="1"/>
+    <col min="38" max="38" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5909,31 +5946,61 @@
         <v>255</v>
       </c>
       <c r="Y1" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AH1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="7" t="s">
         <v>175</v>
       </c>
@@ -5941,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -6027,6 +6094,36 @@
       </c>
       <c r="AF2" t="s">
         <v>11</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\project\NFrame_CPP\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,13 @@
     <sheet name="Record_ChatGroup" sheetId="13" r:id="rId13"/>
     <sheet name="Record_BuildingList" sheetId="14" r:id="rId14"/>
     <sheet name="Record_BuildingProduce" sheetId="15" r:id="rId15"/>
-    <sheet name="Component" sheetId="16" r:id="rId16"/>
+    <sheet name="Record_TileList" sheetId="17" r:id="rId16"/>
+    <sheet name="Component" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="15" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -175,6 +177,29 @@
             <charset val="134"/>
           </rPr>
           <t>建筑ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Tile编号</t>
         </r>
       </text>
     </comment>
@@ -683,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="281">
   <si>
     <t>Id</t>
   </si>
@@ -1690,6 +1715,42 @@
       </rPr>
       <t>1</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ileList</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileType</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1826,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1873,6 +1934,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5661,6 +5725,144 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20480</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L41 O2 M2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1 L42:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5854,7 +6056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\project\NFrame_CPP\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,24 @@
     <sheet name="Record_PlayerHero" sheetId="3" r:id="rId3"/>
     <sheet name="Record_BagEquipList" sheetId="4" r:id="rId4"/>
     <sheet name="Record_BagItemList" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_CommPropertyValue" sheetId="6" r:id="rId6"/>
-    <sheet name="Record_EctypeList" sheetId="7" r:id="rId7"/>
-    <sheet name="Record_DropItemList" sheetId="8" r:id="rId8"/>
-    <sheet name="Record_SkillTable" sheetId="9" r:id="rId9"/>
-    <sheet name="Record_TaskMonsterList" sheetId="10" r:id="rId10"/>
-    <sheet name="Record_TaskList" sheetId="11" r:id="rId11"/>
-    <sheet name="Record_PvpList" sheetId="12" r:id="rId12"/>
-    <sheet name="Record_ChatGroup" sheetId="13" r:id="rId13"/>
-    <sheet name="Record_BuildingList" sheetId="14" r:id="rId14"/>
-    <sheet name="Record_BuildingProduce" sheetId="15" r:id="rId15"/>
-    <sheet name="Record_TileList" sheetId="17" r:id="rId16"/>
-    <sheet name="Component" sheetId="16" r:id="rId17"/>
+    <sheet name="Record_HeroPropertyValue" sheetId="18" r:id="rId6"/>
+    <sheet name="Record_CommPropertyValue" sheetId="6" r:id="rId7"/>
+    <sheet name="Record_EctypeList" sheetId="7" r:id="rId8"/>
+    <sheet name="Record_DropItemList" sheetId="8" r:id="rId9"/>
+    <sheet name="Record_SkillTable" sheetId="9" r:id="rId10"/>
+    <sheet name="Record_TaskMonsterList" sheetId="10" r:id="rId11"/>
+    <sheet name="Record_TaskList" sheetId="11" r:id="rId12"/>
+    <sheet name="Record_PvpList" sheetId="12" r:id="rId13"/>
+    <sheet name="Record_ChatGroup" sheetId="13" r:id="rId14"/>
+    <sheet name="Record_BuildingList" sheetId="14" r:id="rId15"/>
+    <sheet name="Record_BuildingProduce" sheetId="15" r:id="rId16"/>
+    <sheet name="Record_TileList" sheetId="17" r:id="rId17"/>
+    <sheet name="Component" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="15" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -117,7 +118,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>聊天类型</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
@@ -130,7 +131,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>聊天组的ID</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
@@ -153,7 +154,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t>聊天类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>聊天组的ID</t>
         </r>
       </text>
     </comment>
@@ -185,6 +199,29 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>建筑ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
@@ -270,6 +307,120 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
@@ -383,7 +534,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
@@ -433,7 +584,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
@@ -491,68 +642,6 @@
 0 初始状态
 1 可以领
 2 领过了</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -637,6 +726,68 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>任务ID</t>
         </r>
       </text>
@@ -671,44 +822,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>强化等级</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="285">
   <si>
     <t>Id</t>
   </si>
@@ -1751,6 +1866,21 @@
   </si>
   <si>
     <t>TileType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroGUID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record_HeroPropertyValue</t>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2317,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4890,6 +5020,140 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="15" max="15" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -5026,7 +5290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -5158,7 +5422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -5286,7 +5550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -5400,7 +5664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -5485,168 +5749,6 @@
     <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B2" s="2">
-        <v>128</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -5726,9 +5828,171 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5862,7 +6126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6057,7 +6321,7 @@
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6777,10 +7041,297 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
+    <col min="12" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="17.75" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="20.25" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="19" max="19" width="17.75" customWidth="1"/>
+    <col min="20" max="20" width="15.25" customWidth="1"/>
+    <col min="21" max="21" width="20.25" customWidth="1"/>
+    <col min="22" max="22" width="15.25" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="12.75" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="11.625" customWidth="1"/>
+    <col min="27" max="27" width="15.25" customWidth="1"/>
+    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="29" max="29" width="14" customWidth="1"/>
+    <col min="30" max="30" width="11.625" customWidth="1"/>
+    <col min="31" max="32" width="15.25" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="15.25" customWidth="1"/>
+    <col min="35" max="35" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N1:AK1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7049,7 +7600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -7157,145 +7708,6 @@
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2">
-        <v>256</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7325,7 +7737,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7335,11 +7747,13 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
-    <col min="15" max="15" width="20.25" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -7377,24 +7791,24 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="O1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -7420,15 +7834,17 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
         <v>15</v>
@@ -7436,16 +7852,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
-      <formula1>"int,float,string,object"</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
+      <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="287">
   <si>
     <t>Id</t>
   </si>
@@ -1873,14 +1873,23 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Record_HeroPropertyValue</t>
-  </si>
-  <si>
     <t>Group</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroPropertyValue</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightHero</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战hero</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2445,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5005,11 +5014,43 @@
         <v>159</v>
       </c>
     </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F15:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5024,7 +5065,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5158,7 +5199,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7043,8 +7084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7118,7 +7159,7 @@
         <v>281</v>
       </c>
       <c r="M1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s">
         <v>100</v>
@@ -7195,7 +7236,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -7231,7 +7272,7 @@
         <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,15 @@
     <sheet name="Record_ChatGroup" sheetId="13" r:id="rId14"/>
     <sheet name="Record_BuildingList" sheetId="14" r:id="rId15"/>
     <sheet name="Record_BuildingProduce" sheetId="15" r:id="rId16"/>
-    <sheet name="Record_TileList" sheetId="17" r:id="rId17"/>
-    <sheet name="Component" sheetId="16" r:id="rId18"/>
+    <sheet name="Record_FightHeroList" sheetId="19" r:id="rId17"/>
+    <sheet name="Record_TileList" sheetId="17" r:id="rId18"/>
+    <sheet name="Component" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT([0]!LOCAL_YEAR_FORMAT,4)&amp;[0]!LOCAL_DATE_SEPARATOR&amp;REPT([0]!LOCAL_MONTH_FORMAT,2)&amp;[0]!LOCAL_DATE_SEPARATOR&amp;REPT([0]!LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT([0]!LOCAL_HOUR_FORMAT,2)&amp;[0]!LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_MINUTE_FORMAT,2)&amp;[0]!LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="17" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -222,6 +224,29 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Tile编号</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
@@ -823,7 +848,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="291">
   <si>
     <t>Id</t>
   </si>
@@ -1890,6 +1915,22 @@
   </si>
   <si>
     <t>出战hero</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightHeroList</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroGUID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightPos</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2454,10 +2495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5062,6 +5104,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5196,6 +5239,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5333,6 +5377,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5465,6 +5510,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5593,6 +5639,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5707,6 +5754,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5869,6 +5917,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6031,10 +6080,133 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="14" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 L42:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L41 M2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6167,8 +6339,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6228,6 +6401,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6359,6 +6533,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6652,6 +6827,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6942,6 +7118,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7082,6 +7259,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7369,6 +7547,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7643,6 +7822,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7775,6 +7955,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -17,24 +12,24 @@
     <sheet name="Record_PlayerHero" sheetId="3" r:id="rId3"/>
     <sheet name="Record_BagEquipList" sheetId="4" r:id="rId4"/>
     <sheet name="Record_BagItemList" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_HeroPropertyValue" sheetId="18" r:id="rId6"/>
-    <sheet name="Record_CommPropertyValue" sheetId="6" r:id="rId7"/>
-    <sheet name="Record_EctypeList" sheetId="7" r:id="rId8"/>
-    <sheet name="Record_DropItemList" sheetId="8" r:id="rId9"/>
-    <sheet name="Record_SkillTable" sheetId="9" r:id="rId10"/>
-    <sheet name="Record_TaskMonsterList" sheetId="10" r:id="rId11"/>
-    <sheet name="Record_TaskList" sheetId="11" r:id="rId12"/>
-    <sheet name="Record_PvpList" sheetId="12" r:id="rId13"/>
-    <sheet name="Record_ChatGroup" sheetId="13" r:id="rId14"/>
-    <sheet name="Record_BuildingList" sheetId="14" r:id="rId15"/>
-    <sheet name="Record_BuildingProduce" sheetId="15" r:id="rId16"/>
-    <sheet name="Record_FightHeroList" sheetId="19" r:id="rId17"/>
-    <sheet name="Record_TileList" sheetId="17" r:id="rId18"/>
-    <sheet name="Component" sheetId="16" r:id="rId19"/>
+    <sheet name="Record_HeroPropertyValue" sheetId="6" r:id="rId6"/>
+    <sheet name="Record_CommPropertyValue" sheetId="7" r:id="rId7"/>
+    <sheet name="Record_EctypeList" sheetId="8" r:id="rId8"/>
+    <sheet name="Record_DropItemList" sheetId="9" r:id="rId9"/>
+    <sheet name="Record_SkillTable" sheetId="10" r:id="rId10"/>
+    <sheet name="Record_TaskMonsterList" sheetId="11" r:id="rId11"/>
+    <sheet name="Record_TaskList" sheetId="12" r:id="rId12"/>
+    <sheet name="Record_PvpList" sheetId="13" r:id="rId13"/>
+    <sheet name="Record_ChatGroup" sheetId="14" r:id="rId14"/>
+    <sheet name="Record_BuildingList" sheetId="15" r:id="rId15"/>
+    <sheet name="Record_BuildingProduce" sheetId="16" r:id="rId16"/>
+    <sheet name="Record_FightHeroList" sheetId="17" r:id="rId17"/>
+    <sheet name="Record_TileList" sheetId="18" r:id="rId18"/>
+    <sheet name="Component" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT([0]!LOCAL_YEAR_FORMAT,4)&amp;[0]!LOCAL_DATE_SEPARATOR&amp;REPT([0]!LOCAL_MONTH_FORMAT,2)&amp;[0]!LOCAL_DATE_SEPARATOR&amp;REPT([0]!LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT([0]!LOCAL_HOUR_FORMAT,2)&amp;[0]!LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_MINUTE_FORMAT,2)&amp;[0]!LOCAL_TIME_SEPARATOR&amp;REPT([0]!LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="17" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -49,7 +44,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,11 +53,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,11 +66,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,11 +79,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +92,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -111,7 +106,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,11 +115,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +128,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
@@ -147,7 +142,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,11 +151,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>聊天类型</t>
+          <t xml:space="preserve">聊天类型</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>聊天组的ID</t>
+          <t xml:space="preserve">聊天组的ID</t>
         </r>
       </text>
     </comment>
@@ -183,7 +178,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +187,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t xml:space="preserve">建筑ID</t>
         </r>
       </text>
     </comment>
@@ -206,7 +201,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +210,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t xml:space="preserve">建筑ID</t>
         </r>
       </text>
     </comment>
@@ -229,7 +224,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +233,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Tile编号</t>
+          <t xml:space="preserve">Tile编号</t>
         </r>
       </text>
     </comment>
@@ -252,7 +247,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +256,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Tile编号</t>
+          <t xml:space="preserve">Tile编号</t>
         </r>
       </text>
     </comment>
@@ -275,7 +270,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,11 +279,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,11 +292,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,11 +305,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>经验</t>
+          <t xml:space="preserve">经验</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +318,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>星级</t>
+          <t xml:space="preserve">星级</t>
         </r>
       </text>
     </comment>
@@ -337,7 +332,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,11 +341,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,11 +354,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,11 +367,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,11 +380,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,11 +393,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,11 +406,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,11 +419,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +432,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -451,7 +446,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,11 +455,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,11 +468,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,11 +481,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -499,11 +494,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -512,11 +507,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,11 +520,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -538,11 +533,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +546,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -565,7 +560,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -574,11 +569,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>关卡ID</t>
+          <t xml:space="preserve">关卡ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -601,7 +596,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>通过时的星级</t>
+          <t xml:space="preserve">通过时的星级</t>
         </r>
       </text>
     </comment>
@@ -615,7 +610,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,11 +619,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>怪物GUID</t>
+          <t xml:space="preserve">怪物GUID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -637,11 +632,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>掉落道具ID</t>
+          <t xml:space="preserve">掉落道具ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -650,11 +645,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>掉落道具数量</t>
+          <t xml:space="preserve">掉落道具数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -663,7 +658,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>领取状态：
+          <t xml:space="preserve">领取状态：
 0 初始状态
 1 可以领
 2 领过了</t>
@@ -680,7 +675,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -689,11 +684,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -702,11 +697,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,11 +710,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +723,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -742,7 +737,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,11 +746,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,11 +759,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -777,11 +772,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -790,7 +785,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -804,7 +799,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -813,11 +808,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>任务ID</t>
+          <t xml:space="preserve">任务ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -826,11 +821,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>任务状态，见NFDefine.proto中ETaskState</t>
+          <t xml:space="preserve">任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -839,7 +834,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>当前进度</t>
+          <t xml:space="preserve">当前进度</t>
         </r>
       </text>
     </comment>
@@ -848,7 +843,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
   <si>
     <t>Id</t>
   </si>
@@ -1330,6 +1325,12 @@
     <t>公会ID</t>
   </si>
   <si>
+    <t>FightHero</t>
+  </si>
+  <si>
+    <t>出战hero</t>
+  </si>
+  <si>
     <t>Row</t>
   </si>
   <si>
@@ -1357,6 +1358,9 @@
     <t>Exp</t>
   </si>
   <si>
+    <t>Star</t>
+  </si>
+  <si>
     <t>Equip1</t>
   </si>
   <si>
@@ -1375,245 +1379,13 @@
     <t>Equip6</t>
   </si>
   <si>
-    <t>PlayerHero</t>
-  </si>
-  <si>
-    <t>WearGUID</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>ExpiredType</t>
-  </si>
-  <si>
-    <t>RandPropertyID</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>SlotCount</t>
-  </si>
-  <si>
-    <t>InlayStone1</t>
-  </si>
-  <si>
-    <t>InlayStone2</t>
-  </si>
-  <si>
-    <t>InlayStone3</t>
-  </si>
-  <si>
-    <t>InlayStone4</t>
-  </si>
-  <si>
-    <t>InlayStone5</t>
-  </si>
-  <si>
-    <t>InlayStone6</t>
-  </si>
-  <si>
-    <t>InlayStone7</t>
-  </si>
-  <si>
-    <t>InlayStone8</t>
-  </si>
-  <si>
-    <t>InlayStone9</t>
-  </si>
-  <si>
-    <t>InlayStone10</t>
-  </si>
-  <si>
-    <t>IntensifyLevel</t>
-  </si>
-  <si>
-    <t>ElementLevel1</t>
-  </si>
-  <si>
-    <t>ElementLevel2</t>
-  </si>
-  <si>
-    <t>ElementLevel3</t>
-  </si>
-  <si>
-    <t>ElementLevel4</t>
-  </si>
-  <si>
-    <t>ElementLevel5</t>
-  </si>
-  <si>
-    <t>ElementLevel6</t>
-  </si>
-  <si>
-    <t>ElementLevel7</t>
-  </si>
-  <si>
-    <t>ElementLevel8</t>
-  </si>
-  <si>
-    <t>ElementLevel9</t>
-  </si>
-  <si>
-    <t>ElementLevel10</t>
-  </si>
-  <si>
-    <t>BagEquipList</t>
-  </si>
-  <si>
-    <t>普通背包</t>
-  </si>
-  <si>
-    <t>ItemCount</t>
-  </si>
-  <si>
-    <t>BagItemList</t>
-  </si>
-  <si>
-    <t>CommPropertyValue</t>
-  </si>
-  <si>
-    <t>所有和战斗，药水有关的，都在这里NPC怪物只有基础和BUFF影响，因此针对玩家和怪物，分2个表.0职业等级叠加属性,1装备属性,2永久BUFF属性,3动态BUFF属性</t>
-  </si>
-  <si>
-    <t>EctypeID</t>
-  </si>
-  <si>
-    <t>IsPass</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>EctypeList</t>
-  </si>
-  <si>
-    <t>副本列表</t>
-  </si>
-  <si>
-    <t>MonsterID</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>DrawState</t>
-  </si>
-  <si>
-    <t>DropItemList</t>
-  </si>
-  <si>
-    <t>怪物掉落表</t>
-  </si>
-  <si>
-    <t>SkillID</t>
-  </si>
-  <si>
-    <t>SkillLevel</t>
-  </si>
-  <si>
-    <t>SkillStone</t>
-  </si>
-  <si>
-    <t>SkillSoulLevel</t>
-  </si>
-  <si>
-    <t>SkillTable</t>
-  </si>
-  <si>
-    <t>CurrentKillCount</t>
-  </si>
-  <si>
-    <t>RequireKillCount</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>TaskMonsterList</t>
-  </si>
-  <si>
-    <t>任务杀怪表</t>
-  </si>
-  <si>
-    <t>TaskStatus</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>TaskList</t>
-  </si>
-  <si>
-    <t>任务表</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PVPList</t>
-  </si>
-  <si>
-    <t>ChatType</t>
-  </si>
-  <si>
-    <t>GroupGUID</t>
-  </si>
-  <si>
-    <t>ChatGroup</t>
-  </si>
-  <si>
-    <t>聊天组</t>
-  </si>
-  <si>
-    <t>BuildingID</t>
-  </si>
-  <si>
-    <t>BuildingGUID</t>
-  </si>
-  <si>
-    <t>PosX</t>
-  </si>
-  <si>
-    <t>PosY</t>
-  </si>
-  <si>
-    <t>PosZ</t>
-  </si>
-  <si>
-    <t>StateStartTime</t>
-  </si>
-  <si>
-    <t>StateEndTime</t>
-  </si>
-  <si>
-    <t>BuildingList</t>
-  </si>
-  <si>
-    <t>BuildingListProduce</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>lua</t>
-  </si>
-  <si>
-    <t>测试组件</t>
-  </si>
-  <si>
-    <t>Star</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Equip</t>
     </r>
     <r>
@@ -1625,14 +1397,38 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Equip8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Talent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Talent</t>
     </r>
     <r>
@@ -1644,20 +1440,15 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Talent</t>
     </r>
     <r>
@@ -1669,20 +1460,15 @@
       </rPr>
       <t>3</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Talent</t>
     </r>
     <r>
@@ -1694,20 +1480,15 @@
       </rPr>
       <t>4</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Talent</t>
     </r>
     <r>
@@ -1719,20 +1500,15 @@
       </rPr>
       <t>5</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Talent</t>
     </r>
     <r>
@@ -1744,20 +1520,15 @@
       </rPr>
       <t>6</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Talent</t>
     </r>
     <r>
@@ -1769,20 +1540,15 @@
       </rPr>
       <t>7</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Talent</t>
     </r>
     <r>
@@ -1794,71 +1560,282 @@
       </rPr>
       <t>8</t>
     </r>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>Skill3</t>
+  </si>
+  <si>
+    <t>Skill4</t>
+  </si>
+  <si>
+    <t>Skill5</t>
+  </si>
+  <si>
+    <t>SkillLevel1</t>
+  </si>
+  <si>
+    <t>SkillLevel2</t>
+  </si>
+  <si>
+    <t>SkillLevel3</t>
+  </si>
+  <si>
+    <t>SkillLevel4</t>
+  </si>
+  <si>
+    <t>SkillLevel5</t>
+  </si>
+  <si>
+    <t>PlayerHero</t>
+  </si>
+  <si>
+    <t>WearGUID</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>ExpiredType</t>
+  </si>
+  <si>
+    <t>RandPropertyID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>SlotCount</t>
+  </si>
+  <si>
+    <t>InlayStone1</t>
+  </si>
+  <si>
+    <t>InlayStone2</t>
+  </si>
+  <si>
+    <t>InlayStone3</t>
+  </si>
+  <si>
+    <t>InlayStone4</t>
+  </si>
+  <si>
+    <t>InlayStone5</t>
+  </si>
+  <si>
+    <t>InlayStone6</t>
+  </si>
+  <si>
+    <t>InlayStone7</t>
+  </si>
+  <si>
+    <t>InlayStone8</t>
+  </si>
+  <si>
+    <t>InlayStone9</t>
+  </si>
+  <si>
+    <t>InlayStone10</t>
+  </si>
+  <si>
+    <t>IntensifyLevel</t>
+  </si>
+  <si>
+    <t>ElementLevel1</t>
+  </si>
+  <si>
+    <t>ElementLevel2</t>
+  </si>
+  <si>
+    <t>ElementLevel3</t>
+  </si>
+  <si>
+    <t>ElementLevel4</t>
+  </si>
+  <si>
+    <t>ElementLevel5</t>
+  </si>
+  <si>
+    <t>ElementLevel6</t>
+  </si>
+  <si>
+    <t>ElementLevel7</t>
+  </si>
+  <si>
+    <t>ElementLevel8</t>
+  </si>
+  <si>
+    <t>ElementLevel9</t>
+  </si>
+  <si>
+    <t>ElementLevel10</t>
+  </si>
+  <si>
+    <t>BagEquipList</t>
+  </si>
+  <si>
+    <t>普通背包</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
+  </si>
+  <si>
+    <t>BagItemList</t>
+  </si>
+  <si>
+    <t>HeroGUID</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>HeroPropertyValue</t>
+  </si>
+  <si>
+    <t>所有和战斗，药水有关的，都在这里NPC怪物只有基础和BUFF影响，因此针对玩家和怪物，分2个表.0职业等级叠加属性,1装备属性,2永久BUFF属性,3动态BUFF属性</t>
+  </si>
+  <si>
+    <t>CommPropertyValue</t>
+  </si>
+  <si>
+    <t>EctypeID</t>
+  </si>
+  <si>
+    <t>IsPass</t>
+  </si>
+  <si>
+    <t>EctypeList</t>
+  </si>
+  <si>
+    <t>副本列表</t>
+  </si>
+  <si>
+    <t>MonsterID</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>DrawState</t>
+  </si>
+  <si>
+    <t>DropItemList</t>
+  </si>
+  <si>
+    <t>怪物掉落表</t>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
+    <t>SkillStone</t>
+  </si>
+  <si>
+    <t>SkillSoulLevel</t>
+  </si>
+  <si>
+    <t>SkillTable</t>
+  </si>
+  <si>
+    <t>CurrentKillCount</t>
+  </si>
+  <si>
+    <t>RequireKillCount</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>TaskMonsterList</t>
+  </si>
+  <si>
+    <t>任务杀怪表</t>
+  </si>
+  <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>TaskList</t>
+  </si>
+  <si>
+    <t>任务表</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PVPList</t>
+  </si>
+  <si>
+    <t>ChatType</t>
+  </si>
+  <si>
+    <t>GroupGUID</t>
+  </si>
+  <si>
+    <t>ChatGroup</t>
+  </si>
+  <si>
+    <t>聊天组</t>
+  </si>
+  <si>
+    <t>BuildingID</t>
+  </si>
+  <si>
+    <t>BuildingGUID</t>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>PosZ</t>
+  </si>
+  <si>
+    <t>StateStartTime</t>
+  </si>
+  <si>
+    <t>StateEndTime</t>
+  </si>
+  <si>
+    <t>BuildingList</t>
+  </si>
+  <si>
+    <t>BuildingListProduce</t>
+  </si>
+  <si>
+    <t>FightPos</t>
+  </si>
+  <si>
+    <t>FightHeroList</t>
+  </si>
+  <si>
+    <t>TileID</t>
+  </si>
+  <si>
+    <t>TileType</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Skill1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2</t>
-  </si>
-  <si>
-    <t>Skill3</t>
-  </si>
-  <si>
-    <t>Skill4</t>
-  </si>
-  <si>
-    <t>Skill5</t>
-  </si>
-  <si>
-    <t>SkillLevel1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillLevel2</t>
-  </si>
-  <si>
-    <t>SkillLevel3</t>
-  </si>
-  <si>
-    <t>SkillLevel4</t>
-  </si>
-  <si>
-    <t>SkillLevel5</t>
-  </si>
-  <si>
-    <r>
-      <t>Talent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
+        <color rgb="FF006100"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>T</t>
     </r>
     <r>
@@ -1867,98 +1844,42 @@
         <color rgb="FF006100"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ileList</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TileID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TileType</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroGUID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroPropertyValue</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightHero</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>出战hero</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightHeroList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroGUID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightPos</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>测试组件</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1973,12 +1894,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1998,18 +1913,150 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2046,8 +2093,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2055,114 +2276,376 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2494,8 +2977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -2963,7 +3446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="8" customFormat="1">
+    <row r="15" s="8" customFormat="1" spans="1:10">
       <c r="A15" s="11" t="s">
         <v>40</v>
       </c>
@@ -2995,7 +3478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1">
+    <row r="16" s="9" customFormat="1" spans="1:10">
       <c r="A16" s="12" t="s">
         <v>42</v>
       </c>
@@ -3027,7 +3510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1">
+    <row r="17" s="9" customFormat="1" spans="1:10">
       <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
@@ -3059,7 +3542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1">
+    <row r="18" s="9" customFormat="1" spans="1:10">
       <c r="A18" s="12" t="s">
         <v>45</v>
       </c>
@@ -3091,7 +3574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1">
+    <row r="19" s="9" customFormat="1" spans="1:10">
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
@@ -3123,7 +3606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1">
+    <row r="20" s="9" customFormat="1" spans="1:10">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -3155,7 +3638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" s="9" customFormat="1" ht="14.25" customHeight="1" spans="1:10">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -3187,7 +3670,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1">
+    <row r="22" s="9" customFormat="1" spans="1:10">
       <c r="A22" s="12" t="s">
         <v>53</v>
       </c>
@@ -3219,7 +3702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3251,7 +3734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -3953,7 +4436,7 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" s="10" customFormat="1">
+    <row r="46" s="10" customFormat="1" spans="1:10">
       <c r="A46" s="13" t="s">
         <v>100</v>
       </c>
@@ -3985,7 +4468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="10" customFormat="1">
+    <row r="47" s="10" customFormat="1" spans="1:10">
       <c r="A47" s="13" t="s">
         <v>101</v>
       </c>
@@ -4017,7 +4500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="10" customFormat="1">
+    <row r="48" s="10" customFormat="1" spans="1:10">
       <c r="A48" s="13" t="s">
         <v>102</v>
       </c>
@@ -4049,7 +4532,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="10" customFormat="1">
+    <row r="49" s="10" customFormat="1" spans="1:10">
       <c r="A49" s="13" t="s">
         <v>103</v>
       </c>
@@ -4081,7 +4564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="10" customFormat="1">
+    <row r="50" s="10" customFormat="1" spans="1:10">
       <c r="A50" s="13" t="s">
         <v>105</v>
       </c>
@@ -4113,7 +4596,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="10" customFormat="1">
+    <row r="51" s="10" customFormat="1" spans="1:10">
       <c r="A51" s="13" t="s">
         <v>107</v>
       </c>
@@ -4145,7 +4628,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="10" customFormat="1">
+    <row r="52" s="10" customFormat="1" spans="1:10">
       <c r="A52" s="13" t="s">
         <v>109</v>
       </c>
@@ -4177,7 +4660,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="10" customFormat="1">
+    <row r="53" s="10" customFormat="1" spans="1:10">
       <c r="A53" s="13" t="s">
         <v>111</v>
       </c>
@@ -4209,7 +4692,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="10" customFormat="1">
+    <row r="54" s="10" customFormat="1" spans="1:10">
       <c r="A54" s="13" t="s">
         <v>113</v>
       </c>
@@ -4241,7 +4724,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="10" customFormat="1">
+    <row r="55" s="10" customFormat="1" spans="1:10">
       <c r="A55" s="13" t="s">
         <v>115</v>
       </c>
@@ -4273,7 +4756,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="10" customFormat="1">
+    <row r="56" s="10" customFormat="1" spans="1:10">
       <c r="A56" s="13" t="s">
         <v>117</v>
       </c>
@@ -4305,7 +4788,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="10" customFormat="1">
+    <row r="57" s="10" customFormat="1" spans="1:10">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
@@ -4337,7 +4820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="10" customFormat="1">
+    <row r="58" s="10" customFormat="1" spans="1:10">
       <c r="A58" s="13" t="s">
         <v>121</v>
       </c>
@@ -4369,7 +4852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="10" customFormat="1">
+    <row r="59" s="10" customFormat="1" spans="1:10">
       <c r="A59" s="13" t="s">
         <v>123</v>
       </c>
@@ -4401,7 +4884,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="10" customFormat="1">
+    <row r="60" s="10" customFormat="1" spans="1:10">
       <c r="A60" s="13" t="s">
         <v>125</v>
       </c>
@@ -4433,7 +4916,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="10" customFormat="1">
+    <row r="61" s="10" customFormat="1" spans="1:10">
       <c r="A61" s="13" t="s">
         <v>127</v>
       </c>
@@ -4465,7 +4948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="10" customFormat="1">
+    <row r="62" s="10" customFormat="1" spans="1:10">
       <c r="A62" s="13" t="s">
         <v>129</v>
       </c>
@@ -4497,7 +4980,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="10" customFormat="1">
+    <row r="63" s="10" customFormat="1" spans="1:10">
       <c r="A63" s="13" t="s">
         <v>131</v>
       </c>
@@ -4529,7 +5012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="10" customFormat="1">
+    <row r="64" s="10" customFormat="1" spans="1:10">
       <c r="A64" s="13" t="s">
         <v>133</v>
       </c>
@@ -4561,7 +5044,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="10" customFormat="1">
+    <row r="65" s="10" customFormat="1" spans="1:10">
       <c r="A65" s="13" t="s">
         <v>135</v>
       </c>
@@ -4593,7 +5076,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="10" customFormat="1">
+    <row r="66" s="10" customFormat="1" spans="1:10">
       <c r="A66" s="13" t="s">
         <v>137</v>
       </c>
@@ -4625,7 +5108,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="10" customFormat="1">
+    <row r="67" s="10" customFormat="1" spans="1:10">
       <c r="A67" s="13" t="s">
         <v>139</v>
       </c>
@@ -4657,7 +5140,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="10" customFormat="1">
+    <row r="68" s="10" customFormat="1" spans="1:10">
       <c r="A68" s="13" t="s">
         <v>141</v>
       </c>
@@ -4689,7 +5172,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="10" customFormat="1">
+    <row r="69" s="10" customFormat="1" spans="1:10">
       <c r="A69" s="13" t="s">
         <v>143</v>
       </c>
@@ -4931,7 +5414,7 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -5058,7 +5541,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
@@ -5085,33 +5568,32 @@
         <v>12</v>
       </c>
       <c r="J81" t="s">
-        <v>286</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5130,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5160,21 +5642,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M1" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="N1" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="O1" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -5218,35 +5700,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5266,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5296,21 +5777,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="N1" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="O1" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5340,7 +5821,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5356,35 +5837,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5402,10 +5882,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5432,18 +5912,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="N1" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -5473,7 +5953,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5486,38 +5966,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="A1" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
@@ -5528,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5558,7 +6037,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -5569,7 +6048,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5599,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -5612,14 +6091,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
       <formula1>"int,float,string,object"</formula1>
@@ -5631,32 +6109,33 @@
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5683,15 +6162,15 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M1" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -5721,7 +6200,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -5731,14 +6210,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:M2">
       <formula1>"int,float,string,object"</formula1>
@@ -5747,21 +6225,22 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5781,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -5811,33 +6290,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -5893,38 +6372,38 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5944,10 +6423,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -5974,33 +6453,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -6056,40 +6535,40 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
@@ -6105,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -6135,15 +6614,15 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="16" t="s">
-        <v>287</v>
+      <c r="A2" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -6174,44 +6653,44 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 L42:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L41 M2">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 L42:L1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
@@ -6229,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -6259,21 +6738,21 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
-        <v>275</v>
+      <c r="A2" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="B2" s="2">
         <v>20480</v>
@@ -6304,10 +6783,10 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>
@@ -6317,38 +6796,38 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1 L42:L1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L41 O2 M2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1 L42:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -6360,10 +6839,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -6371,20 +6850,19 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -6393,22 +6871,22 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="O1" sqref="O$1:O$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6427,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6457,21 +6935,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -6515,32 +6993,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6551,7 +7028,7 @@
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="17.75" customWidth="1"/>
     <col min="15" max="16" width="15.25" customWidth="1"/>
-    <col min="38" max="38" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -6559,10 +7036,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6589,102 +7066,102 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N1" t="s">
         <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>273</v>
+        <v>177</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -6793,48 +7270,47 @@
         <v>11</v>
       </c>
       <c r="AL2" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="AN2" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6857,10 +7333,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6887,96 +7363,96 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M1" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="N1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O1" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="R1" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="T1" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="U1" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="V1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="W1" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="X1" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="Y1" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="Z1" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="AA1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="AB1" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="AC1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AD1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="AE1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="AF1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="AG1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="AH1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="AI1" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="AJ1" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="AK1" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="AL1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="AM1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="AN1" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -7006,7 +7482,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -7097,35 +7573,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q1:Q1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576 M2:M1048576 R1:R1048576 S2:S1048576 Z2:AN1048576 T1:Y1048576 N1:P1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q$1:Q$1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 M2:M1048576 R$1:R$1048576 S2:S1048576 Z2:AN1048576 T$1:Y$1048576 N$1:P$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7143,10 +7618,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -7173,24 +7648,24 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M1" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="O1" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -7220,7 +7695,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -7239,34 +7714,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:P$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:P1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7304,10 +7778,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -7334,10 +7808,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="M1" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="N1" t="s">
         <v>100</v>
@@ -7414,7 +7888,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -7444,13 +7918,13 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -7526,35 +8000,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N1:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N$1:AK$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7591,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -7695,7 +8168,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -7725,7 +8198,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -7801,35 +8274,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7849,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -7879,18 +8351,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M1" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="N1" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -7920,7 +8392,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>15</v>
@@ -7933,36 +8405,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7983,10 +8454,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -8013,21 +8484,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="O1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -8057,7 +8528,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>30</v>
@@ -8073,22 +8544,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8985" firstSheet="11" activeTab="14"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -682,7 +682,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -1431,12 +1431,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1452,23 +1452,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1504,14 +1491,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1519,6 +1506,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1540,8 +1558,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1550,21 +1577,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,49 +1591,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1664,30 +1651,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1700,7 +1663,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,7 +1699,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,13 +1771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,7 +1795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,43 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,37 +1819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,41 +1830,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1899,8 +1851,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,7 +1861,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1929,6 +1896,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1943,153 +1919,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2103,40 +2090,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="32">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2191,6 +2178,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -2526,8 +2514,8 @@
   <sheetPr/>
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2592,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2624,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2656,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2688,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2720,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2752,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2784,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2816,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2848,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2880,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2912,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2944,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2976,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3007,8 +2995,8 @@
       <c r="E15" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="b">
-        <v>1</v>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -3039,8 +3027,8 @@
       <c r="E16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="9" t="b">
-        <v>1</v>
+      <c r="F16" t="b">
+        <v>0</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -3071,8 +3059,8 @@
       <c r="E17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="9" t="b">
-        <v>1</v>
+      <c r="F17" t="b">
+        <v>0</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -3103,8 +3091,8 @@
       <c r="E18" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="b">
-        <v>1</v>
+      <c r="F18" t="b">
+        <v>0</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -3135,8 +3123,8 @@
       <c r="E19" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="b">
-        <v>1</v>
+      <c r="F19" t="b">
+        <v>0</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
@@ -3167,8 +3155,8 @@
       <c r="E20" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="b">
-        <v>1</v>
+      <c r="F20" t="b">
+        <v>0</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -3199,8 +3187,8 @@
       <c r="E21" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="b">
-        <v>1</v>
+      <c r="F21" t="b">
+        <v>0</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -3231,8 +3219,8 @@
       <c r="E22" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="9" t="b">
-        <v>1</v>
+      <c r="F22" t="b">
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -3264,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3296,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3328,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3360,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3392,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3424,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3456,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3488,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3520,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3552,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3584,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3616,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3648,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3680,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3712,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3744,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3776,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3808,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3840,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3872,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3904,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3936,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3968,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3997,8 +3985,8 @@
       <c r="E46" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="10" t="b">
-        <v>1</v>
+      <c r="F46" t="b">
+        <v>0</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
@@ -4029,8 +4017,8 @@
       <c r="E47" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="10" t="b">
-        <v>1</v>
+      <c r="F47" t="b">
+        <v>0</v>
       </c>
       <c r="G47" s="14">
         <v>0</v>
@@ -4061,8 +4049,8 @@
       <c r="E48" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="10" t="b">
-        <v>1</v>
+      <c r="F48" t="b">
+        <v>0</v>
       </c>
       <c r="G48" s="14">
         <v>0</v>
@@ -4093,8 +4081,8 @@
       <c r="E49" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="10" t="b">
-        <v>1</v>
+      <c r="F49" t="b">
+        <v>0</v>
       </c>
       <c r="G49" s="14">
         <v>0</v>
@@ -4125,8 +4113,8 @@
       <c r="E50" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="10" t="b">
-        <v>1</v>
+      <c r="F50" t="b">
+        <v>0</v>
       </c>
       <c r="G50" s="14">
         <v>0</v>
@@ -4157,8 +4145,8 @@
       <c r="E51" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="10" t="b">
-        <v>1</v>
+      <c r="F51" t="b">
+        <v>0</v>
       </c>
       <c r="G51" s="14">
         <v>0</v>
@@ -4189,8 +4177,8 @@
       <c r="E52" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="10" t="b">
-        <v>1</v>
+      <c r="F52" t="b">
+        <v>0</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
@@ -4221,8 +4209,8 @@
       <c r="E53" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F53" s="10" t="b">
-        <v>1</v>
+      <c r="F53" t="b">
+        <v>0</v>
       </c>
       <c r="G53" s="14">
         <v>0</v>
@@ -4253,8 +4241,8 @@
       <c r="E54" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F54" s="10" t="b">
-        <v>1</v>
+      <c r="F54" t="b">
+        <v>0</v>
       </c>
       <c r="G54" s="14">
         <v>0</v>
@@ -4285,8 +4273,8 @@
       <c r="E55" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="10" t="b">
-        <v>1</v>
+      <c r="F55" t="b">
+        <v>0</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
@@ -4317,8 +4305,8 @@
       <c r="E56" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F56" s="10" t="b">
-        <v>1</v>
+      <c r="F56" t="b">
+        <v>0</v>
       </c>
       <c r="G56" s="14">
         <v>0</v>
@@ -4349,8 +4337,8 @@
       <c r="E57" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F57" s="10" t="b">
-        <v>1</v>
+      <c r="F57" t="b">
+        <v>0</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -4381,8 +4369,8 @@
       <c r="E58" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="10" t="b">
-        <v>1</v>
+      <c r="F58" t="b">
+        <v>0</v>
       </c>
       <c r="G58" s="14">
         <v>0</v>
@@ -4413,8 +4401,8 @@
       <c r="E59" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F59" s="10" t="b">
-        <v>1</v>
+      <c r="F59" t="b">
+        <v>0</v>
       </c>
       <c r="G59" s="14">
         <v>0</v>
@@ -4445,8 +4433,8 @@
       <c r="E60" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="10" t="b">
-        <v>1</v>
+      <c r="F60" t="b">
+        <v>0</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -4477,8 +4465,8 @@
       <c r="E61" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F61" s="10" t="b">
-        <v>1</v>
+      <c r="F61" t="b">
+        <v>0</v>
       </c>
       <c r="G61" s="14">
         <v>0</v>
@@ -4509,8 +4497,8 @@
       <c r="E62" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F62" s="10" t="b">
-        <v>1</v>
+      <c r="F62" t="b">
+        <v>0</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -4541,8 +4529,8 @@
       <c r="E63" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F63" s="10" t="b">
-        <v>1</v>
+      <c r="F63" t="b">
+        <v>0</v>
       </c>
       <c r="G63" s="14">
         <v>0</v>
@@ -4573,8 +4561,8 @@
       <c r="E64" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F64" s="10" t="b">
-        <v>1</v>
+      <c r="F64" t="b">
+        <v>0</v>
       </c>
       <c r="G64" s="14">
         <v>0</v>
@@ -4605,8 +4593,8 @@
       <c r="E65" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F65" s="10" t="b">
-        <v>1</v>
+      <c r="F65" t="b">
+        <v>0</v>
       </c>
       <c r="G65" s="14">
         <v>0</v>
@@ -4637,8 +4625,8 @@
       <c r="E66" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F66" s="10" t="b">
-        <v>1</v>
+      <c r="F66" t="b">
+        <v>0</v>
       </c>
       <c r="G66" s="14">
         <v>0</v>
@@ -4669,8 +4657,8 @@
       <c r="E67" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F67" s="10" t="b">
-        <v>1</v>
+      <c r="F67" t="b">
+        <v>0</v>
       </c>
       <c r="G67" s="14">
         <v>0</v>
@@ -4701,8 +4689,8 @@
       <c r="E68" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F68" s="10" t="b">
-        <v>1</v>
+      <c r="F68" t="b">
+        <v>0</v>
       </c>
       <c r="G68" s="14">
         <v>0</v>
@@ -4733,8 +4721,8 @@
       <c r="E69" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F69" s="10" t="b">
-        <v>1</v>
+      <c r="F69" t="b">
+        <v>0</v>
       </c>
       <c r="G69" s="14">
         <v>0</v>
@@ -4766,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4796,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4826,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4856,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4886,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4916,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4946,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4976,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5005,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -5037,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5069,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5087,7 +5075,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F15:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F80 F81:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5103,7 +5091,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5217,11 +5205,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
@@ -5240,7 +5228,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5349,14 +5337,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5372,7 +5360,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5475,17 +5463,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"true,false"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5501,7 +5489,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5594,14 +5582,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:M2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5616,7 +5604,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5713,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -5752,19 +5740,19 @@
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5778,8 +5766,8 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5876,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -5915,19 +5903,19 @@
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6001,7 +5989,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O$1:O$1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6085,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6132,7 +6120,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6234,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6299,7 +6287,7 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6588,8 +6576,8 @@
   <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6729,7 +6717,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7003,7 +6991,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7114,13 +7102,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7135,7 +7123,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7253,13 +7241,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7274,7 +7262,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7385,11 +7373,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -860,7 +860,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -1913,6 +1913,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1920,21 +1936,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1942,8 +1966,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1958,7 +1998,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1972,79 +2042,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2095,7 +2095,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2107,163 +2263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2278,16 +2278,60 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2317,60 +2361,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2379,94 +2379,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2475,52 +2475,52 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2634,7 +2634,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -2981,8 +2980,8 @@
   <sheetPr/>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3047,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3079,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3111,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3143,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3175,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3207,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3239,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3271,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3303,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3335,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3367,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3399,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3431,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3462,8 +3461,8 @@
       <c r="E15" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="b">
-        <v>1</v>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -3494,8 +3493,8 @@
       <c r="E16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="9" t="b">
-        <v>1</v>
+      <c r="F16" t="b">
+        <v>0</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -3526,8 +3525,8 @@
       <c r="E17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="9" t="b">
-        <v>1</v>
+      <c r="F17" t="b">
+        <v>0</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -3558,8 +3557,8 @@
       <c r="E18" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="b">
-        <v>1</v>
+      <c r="F18" t="b">
+        <v>0</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -3590,8 +3589,8 @@
       <c r="E19" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="b">
-        <v>1</v>
+      <c r="F19" t="b">
+        <v>0</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
@@ -3622,8 +3621,8 @@
       <c r="E20" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="b">
-        <v>1</v>
+      <c r="F20" t="b">
+        <v>0</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -3654,8 +3653,8 @@
       <c r="E21" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="b">
-        <v>1</v>
+      <c r="F21" t="b">
+        <v>0</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -3686,8 +3685,8 @@
       <c r="E22" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="9" t="b">
-        <v>1</v>
+      <c r="F22" t="b">
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -3719,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3751,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3783,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3815,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3847,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3879,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3911,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3943,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3975,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4007,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4039,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4071,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -4103,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4135,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4167,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4199,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4231,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4263,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4295,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4327,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4359,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4391,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4423,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4452,8 +4451,8 @@
       <c r="E46" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="10" t="b">
-        <v>1</v>
+      <c r="F46" t="b">
+        <v>0</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
@@ -4484,8 +4483,8 @@
       <c r="E47" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="10" t="b">
-        <v>1</v>
+      <c r="F47" t="b">
+        <v>0</v>
       </c>
       <c r="G47" s="14">
         <v>0</v>
@@ -4516,8 +4515,8 @@
       <c r="E48" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="10" t="b">
-        <v>1</v>
+      <c r="F48" t="b">
+        <v>0</v>
       </c>
       <c r="G48" s="14">
         <v>0</v>
@@ -4548,8 +4547,8 @@
       <c r="E49" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="10" t="b">
-        <v>1</v>
+      <c r="F49" t="b">
+        <v>0</v>
       </c>
       <c r="G49" s="14">
         <v>0</v>
@@ -4580,8 +4579,8 @@
       <c r="E50" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="10" t="b">
-        <v>1</v>
+      <c r="F50" t="b">
+        <v>0</v>
       </c>
       <c r="G50" s="14">
         <v>0</v>
@@ -4612,8 +4611,8 @@
       <c r="E51" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="10" t="b">
-        <v>1</v>
+      <c r="F51" t="b">
+        <v>0</v>
       </c>
       <c r="G51" s="14">
         <v>0</v>
@@ -4644,8 +4643,8 @@
       <c r="E52" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="10" t="b">
-        <v>1</v>
+      <c r="F52" t="b">
+        <v>0</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
@@ -4676,8 +4675,8 @@
       <c r="E53" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F53" s="10" t="b">
-        <v>1</v>
+      <c r="F53" t="b">
+        <v>0</v>
       </c>
       <c r="G53" s="14">
         <v>0</v>
@@ -4708,8 +4707,8 @@
       <c r="E54" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F54" s="10" t="b">
-        <v>1</v>
+      <c r="F54" t="b">
+        <v>0</v>
       </c>
       <c r="G54" s="14">
         <v>0</v>
@@ -4740,8 +4739,8 @@
       <c r="E55" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="10" t="b">
-        <v>1</v>
+      <c r="F55" t="b">
+        <v>0</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
@@ -4772,8 +4771,8 @@
       <c r="E56" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F56" s="10" t="b">
-        <v>1</v>
+      <c r="F56" t="b">
+        <v>0</v>
       </c>
       <c r="G56" s="14">
         <v>0</v>
@@ -4804,8 +4803,8 @@
       <c r="E57" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F57" s="10" t="b">
-        <v>1</v>
+      <c r="F57" t="b">
+        <v>0</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -4836,8 +4835,8 @@
       <c r="E58" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="10" t="b">
-        <v>1</v>
+      <c r="F58" t="b">
+        <v>0</v>
       </c>
       <c r="G58" s="14">
         <v>0</v>
@@ -4868,8 +4867,8 @@
       <c r="E59" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F59" s="10" t="b">
-        <v>1</v>
+      <c r="F59" t="b">
+        <v>0</v>
       </c>
       <c r="G59" s="14">
         <v>0</v>
@@ -4900,8 +4899,8 @@
       <c r="E60" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="10" t="b">
-        <v>1</v>
+      <c r="F60" t="b">
+        <v>0</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -4932,8 +4931,8 @@
       <c r="E61" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F61" s="10" t="b">
-        <v>1</v>
+      <c r="F61" t="b">
+        <v>0</v>
       </c>
       <c r="G61" s="14">
         <v>0</v>
@@ -4964,8 +4963,8 @@
       <c r="E62" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F62" s="10" t="b">
-        <v>1</v>
+      <c r="F62" t="b">
+        <v>0</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -4996,8 +4995,8 @@
       <c r="E63" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F63" s="10" t="b">
-        <v>1</v>
+      <c r="F63" t="b">
+        <v>0</v>
       </c>
       <c r="G63" s="14">
         <v>0</v>
@@ -5028,8 +5027,8 @@
       <c r="E64" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F64" s="10" t="b">
-        <v>1</v>
+      <c r="F64" t="b">
+        <v>0</v>
       </c>
       <c r="G64" s="14">
         <v>0</v>
@@ -5060,8 +5059,8 @@
       <c r="E65" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F65" s="10" t="b">
-        <v>1</v>
+      <c r="F65" t="b">
+        <v>0</v>
       </c>
       <c r="G65" s="14">
         <v>0</v>
@@ -5092,8 +5091,8 @@
       <c r="E66" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F66" s="10" t="b">
-        <v>1</v>
+      <c r="F66" t="b">
+        <v>0</v>
       </c>
       <c r="G66" s="14">
         <v>0</v>
@@ -5124,8 +5123,8 @@
       <c r="E67" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F67" s="10" t="b">
-        <v>1</v>
+      <c r="F67" t="b">
+        <v>0</v>
       </c>
       <c r="G67" s="14">
         <v>0</v>
@@ -5156,8 +5155,8 @@
       <c r="E68" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F68" s="10" t="b">
-        <v>1</v>
+      <c r="F68" t="b">
+        <v>0</v>
       </c>
       <c r="G68" s="14">
         <v>0</v>
@@ -5188,8 +5187,8 @@
       <c r="E69" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F69" s="10" t="b">
-        <v>1</v>
+      <c r="F69" t="b">
+        <v>0</v>
       </c>
       <c r="G69" s="14">
         <v>0</v>
@@ -5221,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -5251,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -5281,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -5311,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -5341,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -5371,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -5401,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -5431,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5460,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -5492,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5524,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5556,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5574,7 +5573,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F81 F82:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5590,7 +5589,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5724,7 +5723,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5861,7 +5860,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -5967,11 +5966,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
       <formula1>"int,float,string,object"</formula1>
@@ -5993,7 +5992,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6092,21 +6091,21 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6122,7 +6121,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6211,18 +6210,18 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:M2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6237,7 +6236,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6334,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -6374,9 +6373,6 @@
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
@@ -6386,6 +6382,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6400,7 +6399,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6497,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -6537,9 +6536,6 @@
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
@@ -6549,6 +6545,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6562,8 +6561,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6640,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -6662,12 +6661,12 @@
   </sheetData>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
@@ -6685,7 +6684,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6770,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -6798,9 +6797,6 @@
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
@@ -6810,6 +6806,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6883,7 +6882,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O$1:O$1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -6967,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -7014,7 +7013,7 @@
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7179,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -7307,7 +7306,7 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7574,15 +7573,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 M2:M1048576 R$1:R$1048576 S2:S1048576 Z2:AN1048576 T$1:Y$1048576 N$1:P$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q$1:Q$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q$1:Q$1048576"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 M2:M1048576 R$1:R$1048576 S2:S1048576 Z2:AN1048576 T$1:Y$1048576 N$1:P$1048576">
-      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7597,7 +7596,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -7737,7 +7736,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -8024,7 +8023,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -8298,7 +8297,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -8406,15 +8405,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8430,7 +8429,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -8545,15 +8544,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LVSHENG.HUANG\Desktop\NoahGameFrame\NFEngine\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_PlayerViewItem" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_PlayerHero" sheetId="3" r:id="rId3"/>
-    <sheet name="Record_BagEquipList" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_BagItemList" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_HeroPropertyValue" sheetId="6" r:id="rId6"/>
-    <sheet name="Record_CommPropertyValue" sheetId="7" r:id="rId7"/>
-    <sheet name="Record_EctypeList" sheetId="8" r:id="rId8"/>
-    <sheet name="Record_DropItemList" sheetId="9" r:id="rId9"/>
-    <sheet name="Record_SkillTable" sheetId="10" r:id="rId10"/>
-    <sheet name="Record_TaskMonsterList" sheetId="11" r:id="rId11"/>
-    <sheet name="Record_TaskList" sheetId="12" r:id="rId12"/>
-    <sheet name="Record_PvpList" sheetId="13" r:id="rId13"/>
-    <sheet name="Record_ChatGroup" sheetId="14" r:id="rId14"/>
-    <sheet name="Record_BuildingList" sheetId="15" r:id="rId15"/>
-    <sheet name="Record_BuildingProduce" sheetId="16" r:id="rId16"/>
-    <sheet name="Record_FightHeroList" sheetId="17" r:id="rId17"/>
-    <sheet name="Record_TileList" sheetId="18" r:id="rId18"/>
-    <sheet name="Component" sheetId="19" r:id="rId19"/>
+    <sheet name="Record_PlayerHero" sheetId="3" r:id="rId2"/>
+    <sheet name="Record_BagEquipList" sheetId="4" r:id="rId3"/>
+    <sheet name="Record_BagItemList" sheetId="5" r:id="rId4"/>
+    <sheet name="Record_HeroPropertyValue" sheetId="6" r:id="rId5"/>
+    <sheet name="Record_CommPropertyValue" sheetId="7" r:id="rId6"/>
+    <sheet name="Record_TaskMonsterList" sheetId="11" r:id="rId7"/>
+    <sheet name="Record_TaskList" sheetId="12" r:id="rId8"/>
+    <sheet name="Record_BuildingList" sheetId="15" r:id="rId9"/>
+    <sheet name="Record_BuildingProduce" sheetId="16" r:id="rId10"/>
+    <sheet name="Record_FightHeroList" sheetId="17" r:id="rId11"/>
+    <sheet name="Component" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="17" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="10" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -44,7 +41,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,11 +50,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,11 +63,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,11 +76,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>经验</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,171 +89,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">强化等级</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">聊天类型</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">聊天组的ID</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">建筑ID</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">建筑ID</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Tile编号</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Tile编号</t>
+          <t>星级</t>
         </r>
       </text>
     </comment>
@@ -270,7 +103,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,11 +112,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,11 +125,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -305,11 +138,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">经验</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +151,59 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">星级</t>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -332,7 +217,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,11 +226,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -354,11 +239,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,11 +252,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -380,11 +265,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,11 +278,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -406,11 +291,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -419,11 +304,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +317,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -446,7 +331,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,11 +340,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
+          <t>物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,11 +353,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">强化等级</t>
+          <t>强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,11 +366,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
+          <t>镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,59 +379,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">附魔等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>附魔等级</t>
         </r>
       </text>
     </comment>
@@ -560,7 +393,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -569,11 +402,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">关卡ID</t>
+          <t>任务ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -582,12 +415,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">是否通关
-</t>
+          <t>任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +428,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">通过时的星级</t>
+          <t>当前进度</t>
         </r>
       </text>
     </comment>
@@ -610,7 +442,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -619,49 +451,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">怪物GUID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">掉落道具ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">掉落道具数量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">领取状态：
-0 初始状态
-1 可以领
-2 领过了</t>
+          <t>建筑ID</t>
         </r>
       </text>
     </comment>
@@ -675,7 +465,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -684,46 +474,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">附魔等级</t>
+          <t>建筑ID</t>
         </r>
       </text>
     </comment>
@@ -737,7 +488,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -746,95 +497,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">物品配置ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">附魔等级</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">任务ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">任务状态，见NFDefine.proto中ETaskState</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">当前进度</t>
+          <t>Tile编号</t>
         </r>
       </text>
     </comment>
@@ -843,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="257">
   <si>
     <t>Id</t>
   </si>
@@ -1338,18 +1001,6 @@
   </si>
   <si>
     <t>ConfigID</t>
-  </si>
-  <si>
-    <t>EnhanceLevel</t>
-  </si>
-  <si>
-    <t>InlayStone</t>
-  </si>
-  <si>
-    <t>SagecraftLevel</t>
-  </si>
-  <si>
-    <t>PlayerViewItem</t>
   </si>
   <si>
     <t>GUID</t>
@@ -1703,48 +1354,9 @@
     <t>CommPropertyValue</t>
   </si>
   <si>
-    <t>EctypeID</t>
-  </si>
-  <si>
-    <t>IsPass</t>
-  </si>
-  <si>
-    <t>EctypeList</t>
-  </si>
-  <si>
-    <t>副本列表</t>
-  </si>
-  <si>
     <t>MonsterID</t>
   </si>
   <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>DrawState</t>
-  </si>
-  <si>
-    <t>DropItemList</t>
-  </si>
-  <si>
-    <t>怪物掉落表</t>
-  </si>
-  <si>
-    <t>SkillID</t>
-  </si>
-  <si>
-    <t>SkillLevel</t>
-  </si>
-  <si>
-    <t>SkillStone</t>
-  </si>
-  <si>
-    <t>SkillSoulLevel</t>
-  </si>
-  <si>
-    <t>SkillTable</t>
-  </si>
-  <si>
     <t>CurrentKillCount</t>
   </si>
   <si>
@@ -1772,24 +1384,6 @@
     <t>任务表</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PVPList</t>
-  </si>
-  <si>
-    <t>ChatType</t>
-  </si>
-  <si>
-    <t>GroupGUID</t>
-  </si>
-  <si>
-    <t>ChatGroup</t>
-  </si>
-  <si>
-    <t>聊天组</t>
-  </si>
-  <si>
     <t>BuildingID</t>
   </si>
   <si>
@@ -1821,32 +1415,6 @@
   </si>
   <si>
     <t>FightHeroList</t>
-  </si>
-  <si>
-    <t>TileID</t>
-  </si>
-  <si>
-    <t>TileType</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ileList</t>
-    </r>
   </si>
   <si>
     <t>Language</t>
@@ -1867,14 +1435,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1913,150 +1475,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2093,182 +1523,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2276,251 +1532,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2531,16 +1551,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2571,56 +1591,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2645,6 +1619,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2976,11 +1958,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F81"/>
     </sheetView>
   </sheetViews>
@@ -3445,7 +2426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" spans="1:10">
+    <row r="15" spans="1:10" s="8" customFormat="1">
       <c r="A15" s="11" t="s">
         <v>40</v>
       </c>
@@ -3477,7 +2458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" spans="1:10">
+    <row r="16" spans="1:10" s="9" customFormat="1">
       <c r="A16" s="12" t="s">
         <v>42</v>
       </c>
@@ -3509,7 +2490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" spans="1:10">
+    <row r="17" spans="1:10" s="9" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
@@ -3541,7 +2522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" spans="1:10">
+    <row r="18" spans="1:10" s="9" customFormat="1">
       <c r="A18" s="12" t="s">
         <v>45</v>
       </c>
@@ -3573,7 +2554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10" s="9" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
@@ -3605,7 +2586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" spans="1:10">
+    <row r="20" spans="1:10" s="9" customFormat="1">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -3637,7 +2618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="1" ht="14.25" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -3669,7 +2650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="1" spans="1:10">
+    <row r="22" spans="1:10" s="9" customFormat="1">
       <c r="A22" s="12" t="s">
         <v>53</v>
       </c>
@@ -3701,7 +2682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3733,7 +2714,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,7 +3416,7 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" s="10" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="10" customFormat="1">
       <c r="A46" s="13" t="s">
         <v>100</v>
       </c>
@@ -4467,7 +3448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="1" spans="1:10">
+    <row r="47" spans="1:10" s="10" customFormat="1">
       <c r="A47" s="13" t="s">
         <v>101</v>
       </c>
@@ -4499,7 +3480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="10" customFormat="1">
       <c r="A48" s="13" t="s">
         <v>102</v>
       </c>
@@ -4531,7 +3512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="1" spans="1:10">
+    <row r="49" spans="1:10" s="10" customFormat="1">
       <c r="A49" s="13" t="s">
         <v>103</v>
       </c>
@@ -4563,7 +3544,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" s="10" customFormat="1" spans="1:10">
+    <row r="50" spans="1:10" s="10" customFormat="1">
       <c r="A50" s="13" t="s">
         <v>105</v>
       </c>
@@ -4595,7 +3576,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="1" spans="1:10">
+    <row r="51" spans="1:10" s="10" customFormat="1">
       <c r="A51" s="13" t="s">
         <v>107</v>
       </c>
@@ -4627,7 +3608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" s="10" customFormat="1" spans="1:10">
+    <row r="52" spans="1:10" s="10" customFormat="1">
       <c r="A52" s="13" t="s">
         <v>109</v>
       </c>
@@ -4659,7 +3640,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" s="10" customFormat="1" spans="1:10">
+    <row r="53" spans="1:10" s="10" customFormat="1">
       <c r="A53" s="13" t="s">
         <v>111</v>
       </c>
@@ -4691,7 +3672,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="1" spans="1:10">
+    <row r="54" spans="1:10" s="10" customFormat="1">
       <c r="A54" s="13" t="s">
         <v>113</v>
       </c>
@@ -4723,7 +3704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" s="10" customFormat="1" spans="1:10">
+    <row r="55" spans="1:10" s="10" customFormat="1">
       <c r="A55" s="13" t="s">
         <v>115</v>
       </c>
@@ -4755,7 +3736,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" s="10" customFormat="1" spans="1:10">
+    <row r="56" spans="1:10" s="10" customFormat="1">
       <c r="A56" s="13" t="s">
         <v>117</v>
       </c>
@@ -4787,7 +3768,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" s="10" customFormat="1" spans="1:10">
+    <row r="57" spans="1:10" s="10" customFormat="1">
       <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
@@ -4819,7 +3800,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" s="10" customFormat="1" spans="1:10">
+    <row r="58" spans="1:10" s="10" customFormat="1">
       <c r="A58" s="13" t="s">
         <v>121</v>
       </c>
@@ -4851,7 +3832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" s="10" customFormat="1" spans="1:10">
+    <row r="59" spans="1:10" s="10" customFormat="1">
       <c r="A59" s="13" t="s">
         <v>123</v>
       </c>
@@ -4883,7 +3864,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" s="10" customFormat="1" spans="1:10">
+    <row r="60" spans="1:10" s="10" customFormat="1">
       <c r="A60" s="13" t="s">
         <v>125</v>
       </c>
@@ -4915,7 +3896,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" s="10" customFormat="1" spans="1:10">
+    <row r="61" spans="1:10" s="10" customFormat="1">
       <c r="A61" s="13" t="s">
         <v>127</v>
       </c>
@@ -4947,7 +3928,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" s="10" customFormat="1" spans="1:10">
+    <row r="62" spans="1:10" s="10" customFormat="1">
       <c r="A62" s="13" t="s">
         <v>129</v>
       </c>
@@ -4979,7 +3960,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" s="10" customFormat="1" spans="1:10">
+    <row r="63" spans="1:10" s="10" customFormat="1">
       <c r="A63" s="13" t="s">
         <v>131</v>
       </c>
@@ -5011,7 +3992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" s="10" customFormat="1" spans="1:10">
+    <row r="64" spans="1:10" s="10" customFormat="1">
       <c r="A64" s="13" t="s">
         <v>133</v>
       </c>
@@ -5043,7 +4024,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="1" spans="1:10">
+    <row r="65" spans="1:10" s="10" customFormat="1">
       <c r="A65" s="13" t="s">
         <v>135</v>
       </c>
@@ -5075,7 +4056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" s="10" customFormat="1" spans="1:10">
+    <row r="66" spans="1:10" s="10" customFormat="1">
       <c r="A66" s="13" t="s">
         <v>137</v>
       </c>
@@ -5107,7 +4088,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" s="10" customFormat="1" spans="1:10">
+    <row r="67" spans="1:10" s="10" customFormat="1">
       <c r="A67" s="13" t="s">
         <v>139</v>
       </c>
@@ -5139,7 +4120,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" s="10" customFormat="1" spans="1:10">
+    <row r="68" spans="1:10" s="10" customFormat="1">
       <c r="A68" s="13" t="s">
         <v>141</v>
       </c>
@@ -5171,7 +4152,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" s="10" customFormat="1" spans="1:10">
+    <row r="69" spans="1:10" s="10" customFormat="1">
       <c r="A69" s="13" t="s">
         <v>143</v>
       </c>
@@ -5413,7 +4394,7 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -5571,675 +4552,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F81 F82:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
-    <col min="15" max="15" width="20.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M1" t="s">
-        <v>245</v>
-      </c>
-      <c r="N1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="14" width="22.75" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2">
-        <v>512</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>258</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="6">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1 M1"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 M2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C2">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:M2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F2">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6289,33 +4623,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="5" t="s">
-        <v>271</v>
+      <c r="A2" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -6371,201 +4705,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="2">
-        <v>128</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -6613,15 +4783,15 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -6659,174 +4829,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 L42:L1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O2"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="2">
-        <v>20480</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1 L42:L1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2 L2:L41">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -6838,10 +4868,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -6849,19 +4879,20 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -6870,153 +4901,21 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
-    <col min="15" max="15" width="20.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7065,7 +4964,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
         <v>164</v>
@@ -7074,93 +4973,93 @@
         <v>23</v>
       </c>
       <c r="O1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -7285,31 +5184,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7362,96 +5261,96 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N1" t="s">
         <v>164</v>
       </c>
       <c r="O1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" t="s">
         <v>200</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>202</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>203</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>204</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>205</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>206</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>207</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>208</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>209</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>210</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>211</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>212</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>213</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>214</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>215</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>216</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>217</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>218</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>219</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>220</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>221</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -7481,7 +5380,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -7572,34 +5471,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 M2:M1048576 R$1:R$1048576 S2:S1048576 Z2:AN1048576 T$1:Y$1048576 N$1:P$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576 M2:M1048576 R1:R1048576 S2:S1048576 Z2:AN1048576 T1:Y1048576 N1:P1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q$1:Q$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q1:Q1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7650,21 +5549,21 @@
         <v>164</v>
       </c>
       <c r="M1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -7694,7 +5593,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -7713,33 +5612,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:P$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:P1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -7807,10 +5706,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N1" t="s">
         <v>100</v>
@@ -7887,7 +5786,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -7917,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>30</v>
@@ -7999,34 +5898,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N$1:AK$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N1:AK1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -8167,7 +6066,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -8197,7 +6096,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -8273,34 +6172,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -8311,11 +6210,11 @@
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="13" max="14" width="22.75" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8350,51 +6249,54 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2">
-        <v>128</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>15</v>
+      <c r="L2" t="s">
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -8402,37 +6304,39 @@
       <c r="N2" t="s">
         <v>15</v>
       </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -8441,14 +6345,11 @@
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8483,81 +6384,240 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="N1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2">
-        <v>256</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
+      <c r="L2" t="s">
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="2">
+        <v>128</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -580,9 +580,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>等级,属性名不能超过20字符,重要的是，分层的属性，不能保存，因为表会自动保存</t>
-  </si>
-  <si>
     <t>ShowName</t>
   </si>
   <si>
@@ -607,15 +604,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>0呆着1跑2走3闪烁4技能飞移5死6平常技能中</t>
-  </si>
-  <si>
-    <t>LogicState</t>
-  </si>
-  <si>
-    <t>逻辑状态，或者说模块独占状态</t>
-  </si>
-  <si>
     <t>CharType</t>
   </si>
   <si>
@@ -691,54 +679,12 @@
     <t>升级需要的经验</t>
   </si>
   <si>
-    <t>DEAD_COUNT</t>
-  </si>
-  <si>
-    <t>死亡次数--需要保存的都是因为不分层的属性，分层属性不需要保存，保存各层的值即可</t>
-  </si>
-  <si>
     <t>RELIVE_SOUL</t>
   </si>
   <si>
     <t>转生次数</t>
   </si>
   <si>
-    <t>GUILD_NAME</t>
-  </si>
-  <si>
-    <t>工会ID名字</t>
-  </si>
-  <si>
-    <t>SPOUSE_NAME</t>
-  </si>
-  <si>
-    <t>配偶名字</t>
-  </si>
-  <si>
-    <t>TEAM_CARD</t>
-  </si>
-  <si>
-    <t>佩戴的队旗卡ID</t>
-  </si>
-  <si>
-    <t>PVP_ATK_CARD</t>
-  </si>
-  <si>
-    <t>佩戴的PVP攻击卡</t>
-  </si>
-  <si>
-    <t>PVP_DEF_CARD</t>
-  </si>
-  <si>
-    <t>佩戴的PVP防御卡</t>
-  </si>
-  <si>
-    <t>LUCKLY_CARD</t>
-  </si>
-  <si>
-    <t>佩戴的幸运卡ID</t>
-  </si>
-  <si>
     <t>ATK_PVP</t>
   </si>
   <si>
@@ -751,18 +697,6 @@
     <t>PVP防御力</t>
   </si>
   <si>
-    <t>CreditValue</t>
-  </si>
-  <si>
-    <t>信用值</t>
-  </si>
-  <si>
-    <t>SoulValue</t>
-  </si>
-  <si>
-    <t>武魂值</t>
-  </si>
-  <si>
     <t>OnlineCount</t>
   </si>
   <si>
@@ -775,12 +709,6 @@
     <t>在线时间</t>
   </si>
   <si>
-    <t>Citizenship</t>
-  </si>
-  <si>
-    <t>创建帐号服务器</t>
-  </si>
-  <si>
     <t>LastOfflineTime</t>
   </si>
   <si>
@@ -805,9 +733,6 @@
     <t>GM等级</t>
   </si>
   <si>
-    <t>LastAttacker</t>
-  </si>
-  <si>
     <t>MAXHP</t>
   </si>
   <si>
@@ -943,27 +868,6 @@
     <t>BUFF免疫开关</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>TargetX</t>
-  </si>
-  <si>
-    <t>TargetY</t>
-  </si>
-  <si>
-    <t>TargetZ</t>
-  </si>
-  <si>
     <t>PathStep</t>
   </si>
   <si>
@@ -986,12 +890,6 @@
   </si>
   <si>
     <t>公会ID</t>
-  </si>
-  <si>
-    <t>FightHero</t>
-  </si>
-  <si>
-    <t>出战hero</t>
   </si>
   <si>
     <t>Row</t>
@@ -1430,6 +1328,10 @@
   </si>
   <si>
     <t>测试组件</t>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1959,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F81"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2199,12 +2101,12 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2231,12 +2133,12 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -2263,39 +2165,39 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2362,164 +2264,164 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" s="8" customFormat="1">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" s="9" customFormat="1">
+      <c r="A14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="8" customFormat="1">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:10" s="9" customFormat="1">
+      <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="b">
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>41</v>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1">
       <c r="A16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1">
       <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1">
@@ -2554,7 +2456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
@@ -2618,76 +2520,76 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="b">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="12" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="b">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="12" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -2714,12 +2616,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2847,7 +2749,7 @@
         <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2879,7 +2781,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -2911,7 +2813,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2943,7 +2845,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2975,7 +2877,7 @@
         <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -3002,423 +2904,425 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:10" s="10" customFormat="1">
+      <c r="A33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
+      <c r="B33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="10" customFormat="1">
+      <c r="A34" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="10" customFormat="1">
+      <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="B35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="10" customFormat="1">
+      <c r="A36" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="1" t="s">
+    </row>
+    <row r="37" spans="1:10" s="10" customFormat="1">
+      <c r="A37" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:10" s="10" customFormat="1">
+      <c r="A38" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:10" s="10" customFormat="1">
+      <c r="A39" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="1" t="s">
+    </row>
+    <row r="40" spans="1:10" s="10" customFormat="1">
+      <c r="A40" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="1" t="s">
+    </row>
+    <row r="41" spans="1:10" s="10" customFormat="1">
+      <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="1" t="s">
+    </row>
+    <row r="42" spans="1:10" s="10" customFormat="1">
+      <c r="A42" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="1" t="s">
+    </row>
+    <row r="43" spans="1:10" s="10" customFormat="1">
+      <c r="A43" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="1" t="s">
+    </row>
+    <row r="44" spans="1:10" s="10" customFormat="1">
+      <c r="A44" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:10" s="10" customFormat="1">
+      <c r="A45" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" s="10" customFormat="1">
       <c r="A46" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>15</v>
@@ -3445,39 +3349,39 @@
         <v>12</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="10" customFormat="1">
       <c r="A47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="14">
-        <v>0</v>
-      </c>
-      <c r="H47" s="14">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="10" customFormat="1">
@@ -3509,12 +3413,12 @@
         <v>12</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="10" customFormat="1">
       <c r="A49" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>15</v>
@@ -3541,12 +3445,12 @@
         <v>12</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="10" customFormat="1">
       <c r="A50" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>15</v>
@@ -3573,12 +3477,12 @@
         <v>12</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="10" customFormat="1">
       <c r="A51" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>15</v>
@@ -3605,12 +3509,12 @@
         <v>12</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="10" customFormat="1">
       <c r="A52" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>15</v>
@@ -3637,12 +3541,12 @@
         <v>12</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="10" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>15</v>
@@ -3669,12 +3573,12 @@
         <v>12</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="10" customFormat="1">
       <c r="A54" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>15</v>
@@ -3701,12 +3605,12 @@
         <v>12</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="10" customFormat="1">
       <c r="A55" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>15</v>
@@ -3733,12 +3637,12 @@
         <v>12</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="10" customFormat="1">
       <c r="A56" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>15</v>
@@ -3765,802 +3669,174 @@
         <v>12</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="10" customFormat="1">
-      <c r="A57" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" s="10" t="b">
-        <v>0</v>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
-      <c r="G57" s="14">
-        <v>0</v>
-      </c>
-      <c r="H57" s="14">
-        <v>0</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="10" customFormat="1">
-      <c r="A58" s="13" t="s">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10" t="b">
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="14">
-        <v>0</v>
-      </c>
-      <c r="H58" s="14">
-        <v>0</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="13" t="s">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" s="10" customFormat="1">
-      <c r="A59" s="13" t="s">
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="14">
-        <v>0</v>
-      </c>
-      <c r="H59" s="14">
-        <v>0</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="13" t="s">
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" s="10" customFormat="1">
-      <c r="A60" s="13" t="s">
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="14">
-        <v>0</v>
-      </c>
-      <c r="H60" s="14">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="13" t="s">
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" s="10" customFormat="1">
-      <c r="A61" s="13" t="s">
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
         <v>127</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="14">
-        <v>0</v>
-      </c>
-      <c r="H61" s="14">
-        <v>0</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="10" customFormat="1">
-      <c r="A62" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" s="14">
-        <v>0</v>
-      </c>
-      <c r="H62" s="14">
-        <v>0</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="10" customFormat="1">
-      <c r="A63" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="14">
-        <v>0</v>
-      </c>
-      <c r="H63" s="14">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="10" customFormat="1">
-      <c r="A64" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" s="14">
-        <v>0</v>
-      </c>
-      <c r="H64" s="14">
-        <v>0</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="10" customFormat="1">
-      <c r="A65" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="14">
-        <v>0</v>
-      </c>
-      <c r="H65" s="14">
-        <v>0</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="10" customFormat="1">
-      <c r="A66" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="14">
-        <v>0</v>
-      </c>
-      <c r="H66" s="14">
-        <v>0</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="10" customFormat="1">
-      <c r="A67" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" s="14">
-        <v>0</v>
-      </c>
-      <c r="H67" s="14">
-        <v>0</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="10" customFormat="1">
-      <c r="A68" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" s="14">
-        <v>0</v>
-      </c>
-      <c r="H68" s="14">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="10" customFormat="1">
-      <c r="A69" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="14">
-        <v>0</v>
-      </c>
-      <c r="H69" s="14">
-        <v>0</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" t="b">
-        <v>0</v>
-      </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F81 F82:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4593,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -4623,33 +3899,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -4683,7 +3959,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>
@@ -4753,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -4783,15 +4059,15 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -4822,7 +4098,7 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>15</v>
@@ -4868,10 +4144,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -4879,16 +4155,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4934,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4964,102 +4240,102 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
         <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="AK1" s="6" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="AM1" s="6" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="AP1" s="6" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -5090,7 +4366,7 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -5105,28 +4381,28 @@
         <v>15</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="s">
         <v>11</v>
@@ -5231,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5261,96 +4537,96 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" t="s">
         <v>165</v>
       </c>
-      <c r="M1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R1" t="s">
-        <v>199</v>
-      </c>
       <c r="S1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="T1" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="V1" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="W1" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="X1" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="Y1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="AB1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="AC1" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="AD1" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="AE1" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="AF1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="AG1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="AH1" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="AI1" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="AJ1" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="AK1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="AL1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="AM1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="AN1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -5380,13 +4656,13 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
@@ -5401,7 +4677,7 @@
         <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
         <v>15</v>
@@ -5516,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5546,24 +4822,24 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="N1" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="O1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="P1" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -5593,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5608,7 +4884,7 @@
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5676,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5706,87 +4982,87 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="M1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" t="s">
         <v>100</v>
       </c>
-      <c r="O1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="AC1" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>127</v>
-      </c>
       <c r="AD1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="AE1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AF1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="AG1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="AH1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="AI1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AJ1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="AK1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -5816,10 +5092,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>15</v>
@@ -5962,10 +5238,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5992,81 +5268,81 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" t="s">
         <v>100</v>
       </c>
-      <c r="M1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AA1" t="s">
         <v>102</v>
       </c>
-      <c r="O1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>127</v>
-      </c>
       <c r="AB1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="AC1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AD1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="AE1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="AF1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="AG1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AH1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="AI1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -6096,7 +5372,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -6219,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6249,21 +5525,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="N1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -6293,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -6354,10 +5630,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6384,18 +5660,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="N1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -6425,7 +5701,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -6488,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -6518,33 +5794,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -6578,7 +5854,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,10 @@
     <sheet name="Record_TaskList" sheetId="12" r:id="rId8"/>
     <sheet name="Record_BuildingList" sheetId="15" r:id="rId9"/>
     <sheet name="Record_BuildingProduce" sheetId="16" r:id="rId10"/>
-    <sheet name="Record_FightHeroList" sheetId="17" r:id="rId11"/>
-    <sheet name="Component" sheetId="19" r:id="rId12"/>
+    <sheet name="Component" sheetId="19" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="10" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
@@ -482,31 +480,8 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>pengbo.yang</author>
-  </authors>
-  <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Tile编号</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="223">
   <si>
     <t>Id</t>
   </si>
@@ -866,9 +841,6 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
-  </si>
-  <si>
-    <t>PathStep</t>
   </si>
   <si>
     <t>LoadPropertyFinish</t>
@@ -1309,12 +1281,6 @@
     <t>BuildingListProduce</t>
   </si>
   <si>
-    <t>FightPos</t>
-  </si>
-  <si>
-    <t>FightHeroList</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -1331,6 +1297,13 @@
   </si>
   <si>
     <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightState</t>
+  </si>
+  <si>
+    <t>FightState</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1861,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2101,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3673,20 +3646,20 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -3700,13 +3673,12 @@
       <c r="I57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="b">
@@ -3716,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -3727,13 +3699,16 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>12</v>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
-        <v>122</v>
+      <c r="A59" t="s">
+        <v>123</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -3760,21 +3735,21 @@
         <v>12</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -3792,39 +3767,7 @@
         <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
         <v>126</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3869,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3899,33 +3842,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -4004,127 +3947,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="14" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 L42:L1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 L2:L41">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4144,10 +3966,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -4155,16 +3977,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4185,10 +4007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4203,17 +4025,19 @@
     <col min="14" max="14" width="17.75" customWidth="1"/>
     <col min="15" max="16" width="15.25" customWidth="1"/>
     <col min="38" max="38" width="11.625" customWidth="1"/>
+    <col min="42" max="42" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4240,108 +4064,114 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N1" t="s">
         <v>23</v>
       </c>
       <c r="O1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" t="s">
         <v>132</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="B2">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4457,6 +4287,12 @@
       </c>
       <c r="AP2" t="s">
         <v>15</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4507,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4537,96 +4373,96 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
         <v>161</v>
       </c>
-      <c r="N1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>162</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>164</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>165</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>166</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>167</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>168</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>169</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>170</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>171</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>173</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>176</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>177</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>178</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>179</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>180</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>181</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>182</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>184</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>186</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -4656,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -4792,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4822,24 +4658,24 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" t="s">
         <v>162</v>
       </c>
-      <c r="O1" t="s">
-        <v>163</v>
-      </c>
       <c r="P1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -4869,7 +4705,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -4952,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4982,10 +4818,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" t="s">
         <v>192</v>
-      </c>
-      <c r="M1" t="s">
-        <v>193</v>
       </c>
       <c r="N1" t="s">
         <v>75</v>
@@ -5062,7 +4898,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -5092,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>29</v>
@@ -5238,10 +5074,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5342,7 +5178,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -5372,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -5495,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5525,21 +5361,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>198</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>199</v>
-      </c>
-      <c r="O1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5569,7 +5405,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5630,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5660,18 +5496,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" t="s">
         <v>203</v>
-      </c>
-      <c r="N1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -5701,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5764,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -5794,33 +5630,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -1301,9 +1301,10 @@
   </si>
   <si>
     <t>FightState</t>
-  </si>
-  <si>
-    <t>FightState</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightSkill</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3950,7 +3951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -4009,8 +4010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4027,6 +4028,7 @@
     <col min="38" max="38" width="11.625" customWidth="1"/>
     <col min="42" max="42" width="12.75" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -4157,10 +4159,10 @@
         <v>158</v>
       </c>
       <c r="AQ1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR1" t="s">
         <v>222</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:44">

--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LVSHENG.HUANG\Desktop\NoahGameFrame\NFEngine\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_PlayerHero" sheetId="3" r:id="rId2"/>
-    <sheet name="Record_BagEquipList" sheetId="4" r:id="rId3"/>
-    <sheet name="Record_BagItemList" sheetId="5" r:id="rId4"/>
-    <sheet name="Record_HeroPropertyValue" sheetId="6" r:id="rId5"/>
-    <sheet name="Record_CommPropertyValue" sheetId="7" r:id="rId6"/>
-    <sheet name="Record_TaskMonsterList" sheetId="11" r:id="rId7"/>
-    <sheet name="Record_TaskList" sheetId="12" r:id="rId8"/>
-    <sheet name="Record_BuildingList" sheetId="15" r:id="rId9"/>
-    <sheet name="Record_BuildingProduce" sheetId="16" r:id="rId10"/>
-    <sheet name="Component" sheetId="19" r:id="rId11"/>
+    <sheet name="Record_PlayerHero" sheetId="2" r:id="rId2"/>
+    <sheet name="Record_BagEquipList" sheetId="3" r:id="rId3"/>
+    <sheet name="Record_BagItemList" sheetId="4" r:id="rId4"/>
+    <sheet name="Record_HeroPropertyValue" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_CommPropertyValue" sheetId="6" r:id="rId6"/>
+    <sheet name="Record_TaskMonsterList" sheetId="7" r:id="rId7"/>
+    <sheet name="Record_TaskList" sheetId="8" r:id="rId8"/>
+    <sheet name="Record_BuildingList" sheetId="9" r:id="rId9"/>
+    <sheet name="Record_BuildingProduce" sheetId="10" r:id="rId10"/>
+    <sheet name="Component" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +34,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,11 +43,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,11 +56,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,11 +69,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>经验</t>
+          <t xml:space="preserve">经验</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +82,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>星级</t>
+          <t xml:space="preserve">星级</t>
         </r>
       </text>
     </comment>
@@ -101,7 +96,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,11 +105,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,11 +118,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,11 +131,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,11 +144,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,11 +157,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,11 +170,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,11 +183,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +196,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -215,7 +210,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,11 +219,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,11 +232,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,11 +245,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,11 +258,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,11 +271,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,11 +284,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,11 +297,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +310,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -329,7 +324,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,11 +333,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t xml:space="preserve">物品配置ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,11 +346,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
+          <t xml:space="preserve">强化等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,11 +359,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
+          <t xml:space="preserve">镶嵌宝石，逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +372,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>附魔等级</t>
+          <t xml:space="preserve">附魔等级</t>
         </r>
       </text>
     </comment>
@@ -391,7 +386,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,11 +395,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>任务ID</t>
+          <t xml:space="preserve">任务ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,11 +408,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>任务状态，见NFDefine.proto中ETaskState</t>
+          <t xml:space="preserve">任务状态，见NFDefine.proto中ETaskState</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +421,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>当前进度</t>
+          <t xml:space="preserve">当前进度</t>
         </r>
       </text>
     </comment>
@@ -440,7 +435,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -449,7 +444,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t xml:space="preserve">建筑ID</t>
         </r>
       </text>
     </comment>
@@ -463,7 +458,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +467,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>建筑ID</t>
+          <t xml:space="preserve">建筑ID</t>
         </r>
       </text>
     </comment>
@@ -481,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>Id</t>
   </si>
@@ -555,6 +550,9 @@
     <t>Level</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>ShowName</t>
   </si>
   <si>
@@ -576,9 +574,6 @@
     <t>首要目标</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>CharType</t>
   </si>
   <si>
@@ -870,10 +865,10 @@
     <t>Col</t>
   </si>
   <si>
+    <t>GUID</t>
+  </si>
+  <si>
     <t>ConfigID</t>
-  </si>
-  <si>
-    <t>GUID</t>
   </si>
   <si>
     <t>Exp</t>
@@ -1083,6 +1078,30 @@
     </r>
   </si>
   <si>
+    <t>TalentLevel1</t>
+  </si>
+  <si>
+    <t>TalentLevel2</t>
+  </si>
+  <si>
+    <t>TalentLevel3</t>
+  </si>
+  <si>
+    <t>TalentLevel4</t>
+  </si>
+  <si>
+    <t>TalentLevel5</t>
+  </si>
+  <si>
+    <t>TalentLevel6</t>
+  </si>
+  <si>
+    <t>TalentLevel7</t>
+  </si>
+  <si>
+    <t>TalentLevel8</t>
+  </si>
+  <si>
     <t>Skill1</t>
   </si>
   <si>
@@ -1113,6 +1132,12 @@
     <t>SkillLevel5</t>
   </si>
   <si>
+    <t>FightState</t>
+  </si>
+  <si>
+    <t>FightSkill</t>
+  </si>
+  <si>
     <t>PlayerHero</t>
   </si>
   <si>
@@ -1260,6 +1285,9 @@
     <t>BuildingGUID</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>PosX</t>
   </si>
   <si>
@@ -1294,25 +1322,19 @@
   </si>
   <si>
     <t>测试组件</t>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightState</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightSkill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1351,18 +1373,144 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1399,8 +1547,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1408,15 +1730,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1427,22 +1985,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1467,10 +2025,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1495,14 +2099,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1834,11 +2430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+      <selection activeCell="A57" sqref="$A57:$XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2075,12 +2672,12 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2107,12 +2704,12 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -2139,15 +2736,15 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -2171,7 +2768,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2238,7 +2835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1">
+    <row r="13" s="8" customFormat="1" spans="1:10">
       <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
@@ -2270,7 +2867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1">
+    <row r="14" s="9" customFormat="1" spans="1:10">
       <c r="A14" s="12" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1">
+    <row r="15" s="9" customFormat="1" spans="1:10">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -2334,7 +2931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1">
+    <row r="16" s="9" customFormat="1" spans="1:10">
       <c r="A16" s="12" t="s">
         <v>41</v>
       </c>
@@ -2366,7 +2963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1">
+    <row r="17" s="9" customFormat="1" spans="1:10">
       <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
@@ -2398,7 +2995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1">
+    <row r="18" s="9" customFormat="1" spans="1:10">
       <c r="A18" s="12" t="s">
         <v>45</v>
       </c>
@@ -2430,7 +3027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" s="9" customFormat="1" ht="14.25" customHeight="1" spans="1:10">
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
@@ -2462,7 +3059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1">
+    <row r="20" s="9" customFormat="1" spans="1:10">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
@@ -2494,7 +3091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -2526,7 +3123,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -2755,7 +3352,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -2787,7 +3384,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2819,7 +3416,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2878,7 +3475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="10" customFormat="1">
+    <row r="33" s="10" customFormat="1" spans="1:10">
       <c r="A33" s="13" t="s">
         <v>75</v>
       </c>
@@ -2910,7 +3507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="10" customFormat="1">
+    <row r="34" s="10" customFormat="1" spans="1:10">
       <c r="A34" s="13" t="s">
         <v>76</v>
       </c>
@@ -2942,7 +3539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="10" customFormat="1">
+    <row r="35" s="10" customFormat="1" spans="1:10">
       <c r="A35" s="13" t="s">
         <v>77</v>
       </c>
@@ -2974,7 +3571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="10" customFormat="1">
+    <row r="36" s="10" customFormat="1" spans="1:10">
       <c r="A36" s="13" t="s">
         <v>78</v>
       </c>
@@ -3006,7 +3603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="10" customFormat="1">
+    <row r="37" s="10" customFormat="1" spans="1:10">
       <c r="A37" s="13" t="s">
         <v>80</v>
       </c>
@@ -3038,7 +3635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="10" customFormat="1">
+    <row r="38" s="10" customFormat="1" spans="1:10">
       <c r="A38" s="13" t="s">
         <v>82</v>
       </c>
@@ -3070,7 +3667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="10" customFormat="1">
+    <row r="39" s="10" customFormat="1" spans="1:10">
       <c r="A39" s="13" t="s">
         <v>84</v>
       </c>
@@ -3102,7 +3699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="10" customFormat="1">
+    <row r="40" s="10" customFormat="1" spans="1:10">
       <c r="A40" s="13" t="s">
         <v>86</v>
       </c>
@@ -3134,7 +3731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="10" customFormat="1">
+    <row r="41" s="10" customFormat="1" spans="1:10">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -3166,7 +3763,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="10" customFormat="1">
+    <row r="42" s="10" customFormat="1" spans="1:10">
       <c r="A42" s="13" t="s">
         <v>90</v>
       </c>
@@ -3198,7 +3795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="10" customFormat="1">
+    <row r="43" s="10" customFormat="1" spans="1:10">
       <c r="A43" s="13" t="s">
         <v>92</v>
       </c>
@@ -3230,7 +3827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="10" customFormat="1">
+    <row r="44" s="10" customFormat="1" spans="1:10">
       <c r="A44" s="13" t="s">
         <v>94</v>
       </c>
@@ -3262,7 +3859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="10" customFormat="1">
+    <row r="45" s="10" customFormat="1" spans="1:10">
       <c r="A45" s="13" t="s">
         <v>96</v>
       </c>
@@ -3294,7 +3891,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="10" customFormat="1">
+    <row r="46" s="10" customFormat="1" spans="1:10">
       <c r="A46" s="13" t="s">
         <v>98</v>
       </c>
@@ -3326,7 +3923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="10" customFormat="1">
+    <row r="47" s="10" customFormat="1" spans="1:10">
       <c r="A47" s="13" t="s">
         <v>100</v>
       </c>
@@ -3358,7 +3955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="10" customFormat="1">
+    <row r="48" s="10" customFormat="1" spans="1:10">
       <c r="A48" s="13" t="s">
         <v>102</v>
       </c>
@@ -3390,7 +3987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="10" customFormat="1">
+    <row r="49" s="10" customFormat="1" spans="1:10">
       <c r="A49" s="13" t="s">
         <v>104</v>
       </c>
@@ -3422,7 +4019,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="10" customFormat="1">
+    <row r="50" s="10" customFormat="1" spans="1:10">
       <c r="A50" s="13" t="s">
         <v>106</v>
       </c>
@@ -3454,7 +4051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="10" customFormat="1">
+    <row r="51" s="10" customFormat="1" spans="1:10">
       <c r="A51" s="13" t="s">
         <v>108</v>
       </c>
@@ -3486,7 +4083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="10" customFormat="1">
+    <row r="52" s="10" customFormat="1" spans="1:10">
       <c r="A52" s="13" t="s">
         <v>110</v>
       </c>
@@ -3518,7 +4115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="10" customFormat="1">
+    <row r="53" s="10" customFormat="1" spans="1:10">
       <c r="A53" s="13" t="s">
         <v>112</v>
       </c>
@@ -3550,7 +4147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="10" customFormat="1">
+    <row r="54" s="10" customFormat="1" spans="1:10">
       <c r="A54" s="13" t="s">
         <v>114</v>
       </c>
@@ -3582,7 +4179,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="10" customFormat="1">
+    <row r="55" s="10" customFormat="1" spans="1:10">
       <c r="A55" s="13" t="s">
         <v>116</v>
       </c>
@@ -3614,7 +4211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="10" customFormat="1">
+    <row r="56" s="10" customFormat="1" spans="1:10">
       <c r="A56" s="13" t="s">
         <v>118</v>
       </c>
@@ -3646,7 +4243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -3744,7 +4341,7 @@
         <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3772,28 +4369,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -3843,33 +4440,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -3903,7 +4500,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>
@@ -3925,37 +4522,38 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -3967,10 +4565,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -3978,20 +4576,19 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -4000,21 +4597,22 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AQ18" sqref="AQ18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4025,13 +4623,14 @@
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="17.75" customWidth="1"/>
     <col min="15" max="16" width="15.25" customWidth="1"/>
-    <col min="38" max="38" width="11.625" customWidth="1"/>
-    <col min="42" max="42" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9" customWidth="1"/>
+    <col min="33" max="40" width="13.75" customWidth="1"/>
+    <col min="46" max="46" width="11.625" customWidth="1"/>
+    <col min="50" max="50" width="12.75" customWidth="1"/>
+    <col min="51" max="51" width="22.75" customWidth="1"/>
+    <col min="52" max="52" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:52">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4066,10 +4665,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
         <v>130</v>
-      </c>
-      <c r="M1" t="s">
-        <v>129</v>
       </c>
       <c r="N1" t="s">
         <v>23</v>
@@ -4080,100 +4679,124 @@
       <c r="P1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AQ1" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44">
-      <c r="A2" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>159</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="B2">
         <v>64</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4198,7 +4821,7 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -4213,28 +4836,28 @@
         <v>15</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="s">
         <v>11</v>
@@ -4261,68 +4884,92 @@
         <v>11</v>
       </c>
       <c r="AG2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO2" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AP2" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AQ2" t="s">
         <v>11</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>15</v>
       </c>
       <c r="AR2" t="s">
         <v>11</v>
       </c>
+      <c r="AS2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4375,96 +5022,96 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N1" t="s">
-        <v>129</v>
-      </c>
       <c r="O1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="P1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="U1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="V1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="W1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="X1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Y1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Z1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="AA1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AB1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AC1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AD1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AE1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AF1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AG1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AH1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AI1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AJ1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AK1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AL1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AM1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AN1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -4494,13 +5141,13 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
@@ -4515,7 +5162,7 @@
         <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
         <v>15</v>
@@ -4585,34 +5232,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576 M2:M1048576 R1:R1048576 S2:S1048576 Z2:AN1048576 T1:Y1048576 N1:P1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q$1:Q$1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 M2:M1048576 R$1:R$1048576 S2:S1048576 Z2:AN1048576 T$1:Y$1048576 N$1:P$1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 S1 Z1:AN1 Q1:Q1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4660,24 +5307,24 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="N1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="O1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>128</v>
@@ -4707,7 +5354,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -4722,37 +5369,37 @@
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:P$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:P1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -4820,10 +5467,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N1" t="s">
         <v>75</v>
@@ -4900,7 +5547,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -4930,10 +5577,10 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>15</v>
@@ -5012,34 +5659,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N$1:AK$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N1:AK1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5180,7 +5827,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -5210,7 +5857,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -5286,34 +5933,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:AI$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:AI1048576">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5363,21 +6010,21 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -5407,7 +6054,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5423,34 +6070,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:O1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:O$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5498,18 +6145,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="N1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -5539,7 +6186,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -5552,37 +6199,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G42">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:M$1048576">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="3" width="7.125" customWidth="1"/>
@@ -5632,33 +6279,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2">
         <v>128</v>
@@ -5692,7 +6339,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>
@@ -5714,24 +6361,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L1:M1 O1:Q1 L42:L1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 O2:Q2 L2:L41">
       <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Player.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
     <sheet name="Record_PlayerHero" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_BagEquipList" sheetId="3" r:id="rId3"/>
-    <sheet name="Record_BagItemList" sheetId="4" r:id="rId4"/>
-    <sheet name="Record_HeroPropertyValue" sheetId="5" r:id="rId5"/>
-    <sheet name="Record_CommPropertyValue" sheetId="6" r:id="rId6"/>
-    <sheet name="Record_TaskMonsterList" sheetId="7" r:id="rId7"/>
-    <sheet name="Record_TaskList" sheetId="8" r:id="rId8"/>
-    <sheet name="Record_BuildingList" sheetId="9" r:id="rId9"/>
-    <sheet name="Record_BuildingProduce" sheetId="10" r:id="rId10"/>
-    <sheet name="Component" sheetId="11" r:id="rId11"/>
+    <sheet name="Record_PlayerFightHero" sheetId="3" r:id="rId3"/>
+    <sheet name="Record_BagEquipList" sheetId="4" r:id="rId4"/>
+    <sheet name="Record_BagItemList" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_HeroPropertyValue" sheetId="6" r:id="rId6"/>
+    <sheet name="Record_CommPropertyValue" sheetId="7" r:id="rId7"/>
+    <sheet name="Record_TaskMonsterList" sheetId="8" r:id="rId8"/>
+    <sheet name="Record_TaskList" sheetId="9" r:id="rId9"/>
+    <sheet name="Record_BuildingList" sheetId="10" r:id="rId10"/>
+    <sheet name="Record_BuildingProduce" sheetId="11" r:id="rId11"/>
+    <sheet name="Component" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
@@ -476,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
   <si>
     <t>Id</t>
   </si>
@@ -1141,6 +1142,12 @@
     <t>PlayerHero</t>
   </si>
   <si>
+    <t>FightPos</t>
+  </si>
+  <si>
+    <t>PlayerFightHero</t>
+  </si>
+  <si>
     <t>WearGUID</t>
   </si>
   <si>
@@ -1331,8 +1338,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1380,6 +1387,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1396,60 +1410,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,6 +1448,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,19 +1509,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1549,7 +1556,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,25 +1628,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,13 +1664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid"